--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="FastICA" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="62">
   <si>
     <t>1Feature</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Average Error over 26 classifiers with linear</t>
+  </si>
+  <si>
+    <t>Error Rates  PCA</t>
+  </si>
+  <si>
+    <t>Average Error over 26 classifiers with TSVD</t>
   </si>
 </sst>
 </file>
@@ -1580,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:S3"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,6 +4238,9 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.79149999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
@@ -5753,6 +5762,9 @@
       <c r="B172" t="s">
         <v>7</v>
       </c>
+      <c r="D172">
+        <v>0.58929999999999993</v>
+      </c>
       <c r="E172">
         <v>0.5696</v>
       </c>
@@ -6400,6 +6412,9 @@
       <c r="B200" t="s">
         <v>7</v>
       </c>
+      <c r="D200">
+        <v>0.80479999999999996</v>
+      </c>
       <c r="E200">
         <v>0.79980000000000007</v>
       </c>
@@ -7074,6 +7089,9 @@
       </c>
       <c r="B228" t="s">
         <v>7</v>
+      </c>
+      <c r="D228">
+        <v>0.64179999999999993</v>
       </c>
       <c r="E228">
         <v>0.63939999999999997</v>
@@ -8456,8 +8474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15597,7 +15615,7 @@
   <dimension ref="A2:S283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N2:S3"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15607,7 +15625,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
@@ -15676,6 +15694,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>0.46020000000000005</v>
+      </c>
       <c r="E4">
         <v>0.45569999999999999</v>
       </c>
@@ -15696,6 +15717,10 @@
       </c>
       <c r="K4" t="s">
         <v>37</v>
+      </c>
+      <c r="M4">
+        <f>SUM(D4:D31)/26</f>
+        <v>0.52411923076923084</v>
       </c>
       <c r="N4">
         <f>SUM(E4:E31)/26</f>
@@ -15726,6 +15751,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>0.44909999999999994</v>
+      </c>
       <c r="E5">
         <v>0.45810000000000006</v>
       </c>
@@ -15776,6 +15804,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="D6">
+        <v>0.44469999999999998</v>
+      </c>
       <c r="E6">
         <v>0.40720000000000001</v>
       </c>
@@ -15826,6 +15857,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>0.44469999999999998</v>
+      </c>
       <c r="E7">
         <v>0.40720000000000001</v>
       </c>
@@ -15849,6 +15883,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="D8">
+        <v>0.44689999999999996</v>
+      </c>
       <c r="E8">
         <v>0.40720000000000001</v>
       </c>
@@ -15899,6 +15936,9 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="D9">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E9">
         <v>0.45569999999999999</v>
       </c>
@@ -15919,6 +15959,10 @@
       </c>
       <c r="K9" t="s">
         <v>38</v>
+      </c>
+      <c r="M9">
+        <f>SUM(D144:D171)/26</f>
+        <v>0.26920000000000005</v>
       </c>
       <c r="N9">
         <f>SUM(E144:E171)/26</f>
@@ -15949,6 +15993,9 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="D10">
+        <v>0.66339999999999999</v>
+      </c>
       <c r="E10">
         <v>0.5907</v>
       </c>
@@ -15999,6 +16046,9 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="D11">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E11">
         <v>0.44040000000000001</v>
       </c>
@@ -16049,6 +16099,9 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="D12">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E12">
         <v>0.42270000000000008</v>
       </c>
@@ -16099,6 +16152,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="D13">
+        <v>0.46020000000000005</v>
+      </c>
       <c r="E13">
         <v>0.42920000000000003</v>
       </c>
@@ -16149,6 +16205,9 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="D14">
+        <v>0.4536</v>
+      </c>
       <c r="E14">
         <v>0.41600000000000004</v>
       </c>
@@ -16172,6 +16231,9 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="D15">
+        <v>0.4536</v>
+      </c>
       <c r="E15">
         <v>0.41600000000000004</v>
       </c>
@@ -16195,6 +16257,9 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="D16">
+        <v>0.46020000000000005</v>
+      </c>
       <c r="E16">
         <v>0.45569999999999999</v>
       </c>
@@ -16218,6 +16283,9 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="D17">
+        <v>0.46460000000000001</v>
+      </c>
       <c r="E17">
         <v>0.42049999999999998</v>
       </c>
@@ -16241,6 +16309,9 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
+      <c r="D18">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E18">
         <v>0.45799999999999996</v>
       </c>
@@ -16264,6 +16335,9 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
+      <c r="D19">
+        <v>0.45789999999999997</v>
+      </c>
       <c r="E19">
         <v>0.41590000000000005</v>
       </c>
@@ -16287,6 +16361,9 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="D20">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E20">
         <v>0.45799999999999996</v>
       </c>
@@ -16310,6 +16387,9 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
+      <c r="D21">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E21">
         <v>0.43359999999999999</v>
       </c>
@@ -16333,6 +16413,9 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="D22">
+        <v>0.44909999999999994</v>
+      </c>
       <c r="E22">
         <v>0.42479999999999996</v>
       </c>
@@ -16356,6 +16439,9 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="D23">
+        <v>0.45999999999999996</v>
+      </c>
       <c r="E23">
         <v>0.42930000000000001</v>
       </c>
@@ -16379,6 +16465,9 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="D24">
+        <v>0.45799999999999996</v>
+      </c>
       <c r="E24">
         <v>0.45799999999999996</v>
       </c>
@@ -16402,6 +16491,9 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="D25">
+        <v>0.50429999999999997</v>
+      </c>
       <c r="E25">
         <v>0.48680000000000001</v>
       </c>
@@ -16425,6 +16517,9 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="D26">
+        <v>0.66339999999999999</v>
+      </c>
       <c r="E26">
         <v>0.54869999999999997</v>
       </c>
@@ -16448,6 +16543,9 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="D27">
+        <v>0.46240000000000003</v>
+      </c>
       <c r="E27">
         <v>0.43810000000000004</v>
       </c>
@@ -16471,6 +16569,9 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="D28">
+        <v>0.44689999999999996</v>
+      </c>
       <c r="E28">
         <v>0.40720000000000001</v>
       </c>
@@ -16494,6 +16595,9 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
+      <c r="D29">
+        <v>0.66339999999999999</v>
+      </c>
       <c r="E29">
         <v>0.47570000000000001</v>
       </c>
@@ -16517,6 +16621,9 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="D30">
+        <v>0.66339999999999999</v>
+      </c>
       <c r="E30">
         <v>0.54869999999999997</v>
       </c>
@@ -16540,6 +16647,9 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
+      <c r="D31">
+        <v>0.44909999999999994</v>
+      </c>
       <c r="E31">
         <v>0.42280000000000006</v>
       </c>
@@ -18650,6 +18760,9 @@
       <c r="B144" t="s">
         <v>7</v>
       </c>
+      <c r="D144">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E144">
         <v>0.29980000000000007</v>
       </c>
@@ -18673,6 +18786,9 @@
       <c r="B145" t="s">
         <v>8</v>
       </c>
+      <c r="D145">
+        <v>0.2853</v>
+      </c>
       <c r="E145">
         <v>0.2581</v>
       </c>
@@ -18696,6 +18812,9 @@
       <c r="B146" t="s">
         <v>9</v>
       </c>
+      <c r="D146">
+        <v>0.28879999999999995</v>
+      </c>
       <c r="E146">
         <v>0.24709999999999999</v>
       </c>
@@ -18719,6 +18838,9 @@
       <c r="B147" t="s">
         <v>10</v>
       </c>
+      <c r="D147">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E147">
         <v>0.29980000000000007</v>
       </c>
@@ -18742,6 +18864,9 @@
       <c r="B148" t="s">
         <v>11</v>
       </c>
+      <c r="D148">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E148">
         <v>0.29980000000000007</v>
       </c>
@@ -18765,6 +18890,9 @@
       <c r="B149" t="s">
         <v>12</v>
       </c>
+      <c r="D149">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E149">
         <v>0.29980000000000007</v>
       </c>
@@ -18788,6 +18916,9 @@
       <c r="B150" t="s">
         <v>13</v>
       </c>
+      <c r="D150">
+        <v>0.19040000000000001</v>
+      </c>
       <c r="E150">
         <v>0.19040000000000001</v>
       </c>
@@ -18811,6 +18942,9 @@
       <c r="B151" t="s">
         <v>14</v>
       </c>
+      <c r="D151">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E151">
         <v>0.2147</v>
       </c>
@@ -18834,6 +18968,9 @@
       <c r="B152" t="s">
         <v>15</v>
       </c>
+      <c r="D152">
+        <v>0.2923</v>
+      </c>
       <c r="E152">
         <v>0.26159999999999994</v>
       </c>
@@ -18857,6 +18994,9 @@
       <c r="B153" t="s">
         <v>16</v>
       </c>
+      <c r="D153">
+        <v>0.19040000000000001</v>
+      </c>
       <c r="E153">
         <v>0.21810000000000007</v>
       </c>
@@ -18880,6 +19020,9 @@
       <c r="B154" t="s">
         <v>17</v>
       </c>
+      <c r="D154">
+        <v>0.29799999999999993</v>
+      </c>
       <c r="E154">
         <v>0.29980000000000007</v>
       </c>
@@ -18903,6 +19046,9 @@
       <c r="B155" t="s">
         <v>18</v>
       </c>
+      <c r="D155">
+        <v>0.29799999999999993</v>
+      </c>
       <c r="E155">
         <v>0.29980000000000007</v>
       </c>
@@ -18926,6 +19072,9 @@
       <c r="B156" t="s">
         <v>19</v>
       </c>
+      <c r="D156">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E156">
         <v>0.29980000000000007</v>
       </c>
@@ -18949,6 +19098,9 @@
       <c r="B157" t="s">
         <v>20</v>
       </c>
+      <c r="D157">
+        <v>0.1956</v>
+      </c>
       <c r="E157">
         <v>0.20019999999999993</v>
       </c>
@@ -18972,6 +19124,9 @@
       <c r="B158" t="s">
         <v>21</v>
       </c>
+      <c r="D158">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E158">
         <v>0.29980000000000007</v>
       </c>
@@ -18995,6 +19150,9 @@
       <c r="B159" t="s">
         <v>22</v>
       </c>
+      <c r="D159">
+        <v>0.28120000000000001</v>
+      </c>
       <c r="E159">
         <v>0.25749999999999995</v>
       </c>
@@ -19018,6 +19176,9 @@
       <c r="B160" t="s">
         <v>23</v>
       </c>
+      <c r="D160">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E160">
         <v>0.29980000000000007</v>
       </c>
@@ -19041,6 +19202,9 @@
       <c r="B161" t="s">
         <v>24</v>
       </c>
+      <c r="D161">
+        <v>0.19330000000000003</v>
+      </c>
       <c r="E161">
         <v>0.19330000000000003</v>
       </c>
@@ -19064,6 +19228,9 @@
       <c r="B162" t="s">
         <v>25</v>
       </c>
+      <c r="D162">
+        <v>0.23260000000000003</v>
+      </c>
       <c r="E162">
         <v>0.20829999999999993</v>
       </c>
@@ -19087,6 +19254,9 @@
       <c r="B163" t="s">
         <v>26</v>
       </c>
+      <c r="D163">
+        <v>0.19040000000000001</v>
+      </c>
       <c r="E163">
         <v>0.19040000000000001</v>
       </c>
@@ -19110,6 +19280,9 @@
       <c r="B164" t="s">
         <v>27</v>
       </c>
+      <c r="D164">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E164">
         <v>0.29980000000000007</v>
       </c>
@@ -19133,6 +19306,9 @@
       <c r="B165" t="s">
         <v>28</v>
       </c>
+      <c r="D165">
+        <v>0.19330000000000003</v>
+      </c>
       <c r="E165">
         <v>0.18870000000000009</v>
       </c>
@@ -19156,6 +19332,9 @@
       <c r="B166" t="s">
         <v>29</v>
       </c>
+      <c r="D166">
+        <v>0.19040000000000001</v>
+      </c>
       <c r="E166">
         <v>0.19040000000000001</v>
       </c>
@@ -19179,6 +19358,9 @@
       <c r="B167" t="s">
         <v>30</v>
       </c>
+      <c r="D167">
+        <v>0.19330000000000003</v>
+      </c>
       <c r="E167">
         <v>0.18870000000000009</v>
       </c>
@@ -19202,6 +19384,9 @@
       <c r="B168" t="s">
         <v>31</v>
       </c>
+      <c r="D168">
+        <v>0.21069999999999989</v>
+      </c>
       <c r="E168">
         <v>0.19790000000000008</v>
       </c>
@@ -19225,6 +19410,9 @@
       <c r="B169" t="s">
         <v>32</v>
       </c>
+      <c r="D169">
+        <v>0.19040000000000001</v>
+      </c>
       <c r="E169">
         <v>0.19040000000000001</v>
       </c>
@@ -19248,6 +19436,9 @@
       <c r="B170" t="s">
         <v>33</v>
       </c>
+      <c r="D170">
+        <v>0.19040000000000001</v>
+      </c>
       <c r="E170">
         <v>0.19040000000000001</v>
       </c>
@@ -19270,6 +19461,9 @@
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>34</v>
+      </c>
+      <c r="D171">
+        <v>0.19620000000000004</v>
       </c>
       <c r="E171">
         <v>0.19680000000000009</v>
@@ -21887,8 +22081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:S3"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21967,6 +22161,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>0.45350000000000001</v>
+      </c>
       <c r="E4">
         <v>0.46460000000000001</v>
       </c>
@@ -22857,6 +23054,9 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
+      <c r="D32">
+        <v>0.56640000000000001</v>
+      </c>
       <c r="E32">
         <v>0.56689999999999996</v>
       </c>
@@ -23504,6 +23704,9 @@
       <c r="B60" t="s">
         <v>7</v>
       </c>
+      <c r="D60">
+        <v>0.7077</v>
+      </c>
       <c r="E60">
         <v>0.71209999999999996</v>
       </c>
@@ -24151,6 +24354,9 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.80149999999999999</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
@@ -24294,6 +24500,9 @@
       <c r="B116" t="s">
         <v>7</v>
       </c>
+      <c r="D116">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E116">
         <v>0.43820000000000003</v>
       </c>
@@ -24941,6 +25150,9 @@
       <c r="B144" t="s">
         <v>7</v>
       </c>
+      <c r="D144">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E144">
         <v>0.29980000000000007</v>
       </c>
@@ -25616,6 +25828,9 @@
       <c r="B172" t="s">
         <v>7</v>
       </c>
+      <c r="D172">
+        <v>0.58050000000000002</v>
+      </c>
       <c r="E172">
         <v>0.57230000000000003</v>
       </c>
@@ -26263,6 +26478,9 @@
       <c r="B200" t="s">
         <v>7</v>
       </c>
+      <c r="D200">
+        <v>0.80959999999999999</v>
+      </c>
       <c r="E200">
         <v>0.80089999999999995</v>
       </c>
@@ -26938,6 +27156,9 @@
       <c r="B228" t="s">
         <v>7</v>
       </c>
+      <c r="D228">
+        <v>0.60389999999999999</v>
+      </c>
       <c r="E228">
         <v>0.60509999999999997</v>
       </c>
@@ -27584,6 +27805,9 @@
       </c>
       <c r="B256" t="s">
         <v>7</v>
+      </c>
+      <c r="D256">
+        <v>0.37080000000000002</v>
       </c>
       <c r="E256">
         <v>0.37240000000000006</v>
@@ -28235,7 +28459,7 @@
   <dimension ref="A2:S283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:S3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28248,7 +28472,7 @@
         <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -34582,7 +34806,7 @@
   <dimension ref="A2:S283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34855,6 +35079,10 @@
       <c r="K8" t="s">
         <v>43</v>
       </c>
+      <c r="M8">
+        <f>SUM(D116:D143)/26</f>
+        <v>0.52070769230769232</v>
+      </c>
       <c r="N8">
         <f>SUM(E116:E143)/26</f>
         <v>0.4756653846153846</v>
@@ -34955,6 +35183,10 @@
       <c r="K10" t="s">
         <v>46</v>
       </c>
+      <c r="M10">
+        <f>SUM(D172:D199)/26</f>
+        <v>0.62097692307692332</v>
+      </c>
       <c r="N10">
         <f>SUM(E172:E199)/26</f>
         <v>0.61303461538461534</v>
@@ -35005,6 +35237,10 @@
       <c r="K11" t="s">
         <v>44</v>
       </c>
+      <c r="M11">
+        <f>SUM(D200:D227)/26</f>
+        <v>0.76070000000000004</v>
+      </c>
       <c r="N11">
         <f>SUM(E200:E227)/26</f>
         <v>0.57670769230769225</v>
@@ -35055,6 +35291,10 @@
       <c r="K12" t="s">
         <v>45</v>
       </c>
+      <c r="M12">
+        <f>SUM(D228:D255)/26</f>
+        <v>0.67190384615384613</v>
+      </c>
       <c r="N12">
         <f>SUM(E228:E255)/26</f>
         <v>0.59513846153846151</v>
@@ -35105,6 +35345,10 @@
       <c r="K13" t="s">
         <v>47</v>
       </c>
+      <c r="M13">
+        <f>SUM(D256:D283)/26</f>
+        <v>0.46210769230769244</v>
+      </c>
       <c r="N13">
         <f>SUM(E256:E283)/26</f>
         <v>0.25878461538461539</v>
@@ -36988,6 +37232,9 @@
       <c r="B116" t="s">
         <v>7</v>
       </c>
+      <c r="D116">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E116">
         <v>0.44729999999999992</v>
       </c>
@@ -37011,6 +37258,9 @@
       <c r="B117" t="s">
         <v>8</v>
       </c>
+      <c r="D117">
+        <v>0.44820000000000004</v>
+      </c>
       <c r="E117">
         <v>0.43999999999999995</v>
       </c>
@@ -37034,6 +37284,9 @@
       <c r="B118" t="s">
         <v>9</v>
       </c>
+      <c r="D118">
+        <v>0.43820000000000003</v>
+      </c>
       <c r="E118">
         <v>0.36360000000000003</v>
       </c>
@@ -37057,6 +37310,9 @@
       <c r="B119" t="s">
         <v>10</v>
       </c>
+      <c r="D119">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E119">
         <v>0.44090000000000007</v>
       </c>
@@ -37080,6 +37336,9 @@
       <c r="B120" t="s">
         <v>11</v>
       </c>
+      <c r="D120">
+        <v>0.43820000000000003</v>
+      </c>
       <c r="E120">
         <v>0.41090000000000004</v>
       </c>
@@ -37103,6 +37362,9 @@
       <c r="B121" t="s">
         <v>12</v>
       </c>
+      <c r="D121">
+        <v>0.43820000000000003</v>
+      </c>
       <c r="E121">
         <v>0.43820000000000003</v>
       </c>
@@ -37126,6 +37388,9 @@
       <c r="B122" t="s">
         <v>13</v>
       </c>
+      <c r="D122">
+        <v>0.63270000000000004</v>
+      </c>
       <c r="E122">
         <v>0.45729999999999993</v>
       </c>
@@ -37149,6 +37414,9 @@
       <c r="B123" t="s">
         <v>14</v>
       </c>
+      <c r="D123">
+        <v>0.42730000000000001</v>
+      </c>
       <c r="E123">
         <v>0.38270000000000004</v>
       </c>
@@ -37172,6 +37440,9 @@
       <c r="B124" t="s">
         <v>15</v>
       </c>
+      <c r="D124">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E124">
         <v>0.44640000000000002</v>
       </c>
@@ -37195,6 +37466,9 @@
       <c r="B125" t="s">
         <v>16</v>
       </c>
+      <c r="D125">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E125">
         <v>0.44729999999999992</v>
       </c>
@@ -37218,6 +37492,9 @@
       <c r="B126" t="s">
         <v>17</v>
       </c>
+      <c r="D126">
+        <v>0.41820000000000002</v>
+      </c>
       <c r="E126">
         <v>0.41000000000000003</v>
       </c>
@@ -37241,6 +37518,9 @@
       <c r="B127" t="s">
         <v>18</v>
       </c>
+      <c r="D127">
+        <v>0.41820000000000002</v>
+      </c>
       <c r="E127">
         <v>0.41000000000000003</v>
       </c>
@@ -37264,6 +37544,9 @@
       <c r="B128" t="s">
         <v>19</v>
       </c>
+      <c r="D128">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E128">
         <v>0.44729999999999992</v>
       </c>
@@ -37287,6 +37570,9 @@
       <c r="B129" t="s">
         <v>20</v>
       </c>
+      <c r="D129">
+        <v>0.42730000000000001</v>
+      </c>
       <c r="E129">
         <v>0.41000000000000003</v>
       </c>
@@ -37310,6 +37596,9 @@
       <c r="B130" t="s">
         <v>21</v>
       </c>
+      <c r="D130">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E130">
         <v>0.58179999999999998</v>
       </c>
@@ -37333,6 +37622,9 @@
       <c r="B131" t="s">
         <v>22</v>
       </c>
+      <c r="D131">
+        <v>0.48270000000000002</v>
+      </c>
       <c r="E131">
         <v>0.40090000000000003</v>
       </c>
@@ -37356,6 +37648,9 @@
       <c r="B132" t="s">
         <v>23</v>
       </c>
+      <c r="D132">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E132">
         <v>0.58179999999999998</v>
       </c>
@@ -37379,6 +37674,9 @@
       <c r="B133" t="s">
         <v>24</v>
       </c>
+      <c r="D133">
+        <v>0.44729999999999992</v>
+      </c>
       <c r="E133">
         <v>0.44729999999999992</v>
       </c>
@@ -37402,6 +37700,9 @@
       <c r="B134" t="s">
         <v>25</v>
       </c>
+      <c r="D134">
+        <v>0.44820000000000004</v>
+      </c>
       <c r="E134">
         <v>0.42909999999999993</v>
       </c>
@@ -37425,6 +37726,9 @@
       <c r="B135" t="s">
         <v>26</v>
       </c>
+      <c r="D135">
+        <v>0.46360000000000001</v>
+      </c>
       <c r="E135">
         <v>0.46360000000000001</v>
       </c>
@@ -37448,6 +37752,9 @@
       <c r="B136" t="s">
         <v>27</v>
       </c>
+      <c r="D136">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E136">
         <v>0.58179999999999998</v>
       </c>
@@ -37471,6 +37778,9 @@
       <c r="B137" t="s">
         <v>28</v>
       </c>
+      <c r="D137">
+        <v>0.43640000000000001</v>
+      </c>
       <c r="E137">
         <v>0.40090000000000003</v>
       </c>
@@ -37494,6 +37804,9 @@
       <c r="B138" t="s">
         <v>29</v>
       </c>
+      <c r="D138">
+        <v>0.63270000000000004</v>
+      </c>
       <c r="E138">
         <v>0.42820000000000003</v>
       </c>
@@ -37517,6 +37830,9 @@
       <c r="B139" t="s">
         <v>30</v>
       </c>
+      <c r="D139">
+        <v>0.42730000000000001</v>
+      </c>
       <c r="E139">
         <v>0.38180000000000003</v>
       </c>
@@ -37540,6 +37856,9 @@
       <c r="B140" t="s">
         <v>31</v>
       </c>
+      <c r="D140">
+        <v>0.42820000000000003</v>
+      </c>
       <c r="E140">
         <v>0.42179999999999995</v>
       </c>
@@ -37563,6 +37882,9 @@
       <c r="B141" t="s">
         <v>32</v>
       </c>
+      <c r="D141">
+        <v>0.63270000000000004</v>
+      </c>
       <c r="E141">
         <v>0.42909999999999993</v>
       </c>
@@ -37586,6 +37908,9 @@
       <c r="B142" t="s">
         <v>33</v>
       </c>
+      <c r="D142">
+        <v>0.63270000000000004</v>
+      </c>
       <c r="E142">
         <v>0.42820000000000003</v>
       </c>
@@ -37609,6 +37934,9 @@
       <c r="B143" t="s">
         <v>34</v>
       </c>
+      <c r="D143">
+        <v>0.43820000000000003</v>
+      </c>
       <c r="E143">
         <v>0.43909999999999993</v>
       </c>
@@ -38282,6 +38610,9 @@
       <c r="B172" t="s">
         <v>7</v>
       </c>
+      <c r="D172">
+        <v>0.58929999999999993</v>
+      </c>
       <c r="E172">
         <v>0.58929999999999993</v>
       </c>
@@ -38305,6 +38636,9 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
+      <c r="D173">
+        <v>0.55259999999999998</v>
+      </c>
       <c r="E173">
         <v>0.54659999999999997</v>
       </c>
@@ -38328,6 +38662,9 @@
       <c r="B174" t="s">
         <v>9</v>
       </c>
+      <c r="D174">
+        <v>0.55600000000000005</v>
+      </c>
       <c r="E174">
         <v>0.54449999999999998</v>
       </c>
@@ -38351,6 +38688,9 @@
       <c r="B175" t="s">
         <v>10</v>
       </c>
+      <c r="D175">
+        <v>0.55190000000000006</v>
+      </c>
       <c r="E175">
         <v>0.56210000000000004</v>
       </c>
@@ -38374,6 +38714,9 @@
       <c r="B176" t="s">
         <v>11</v>
       </c>
+      <c r="D176">
+        <v>0.55259999999999998</v>
+      </c>
       <c r="E176">
         <v>0.56140000000000001</v>
       </c>
@@ -38397,6 +38740,9 @@
       <c r="B177" t="s">
         <v>12</v>
       </c>
+      <c r="D177">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E177">
         <v>0.57230000000000003</v>
       </c>
@@ -38420,6 +38766,9 @@
       <c r="B178" t="s">
         <v>13</v>
       </c>
+      <c r="D178">
+        <v>0.61780000000000002</v>
+      </c>
       <c r="E178">
         <v>0.59470000000000001</v>
       </c>
@@ -38443,6 +38792,9 @@
       <c r="B179" t="s">
         <v>14</v>
       </c>
+      <c r="D179">
+        <v>0.55059999999999998</v>
+      </c>
       <c r="E179">
         <v>0.54320000000000002</v>
       </c>
@@ -38466,6 +38818,9 @@
       <c r="B180" t="s">
         <v>15</v>
       </c>
+      <c r="D180">
+        <v>0.55669999999999997</v>
+      </c>
       <c r="E180">
         <v>0.56689999999999996</v>
       </c>
@@ -38489,6 +38844,9 @@
       <c r="B181" t="s">
         <v>16</v>
       </c>
+      <c r="D181">
+        <v>0.58789999999999998</v>
+      </c>
       <c r="E181">
         <v>0.56420000000000003</v>
       </c>
@@ -38512,6 +38870,9 @@
       <c r="B182" t="s">
         <v>17</v>
       </c>
+      <c r="D182">
+        <v>0.55469999999999997</v>
+      </c>
       <c r="E182">
         <v>0.56420000000000003</v>
       </c>
@@ -38535,6 +38896,9 @@
       <c r="B183" t="s">
         <v>18</v>
       </c>
+      <c r="D183">
+        <v>0.55469999999999997</v>
+      </c>
       <c r="E183">
         <v>0.56420000000000003</v>
       </c>
@@ -38558,6 +38922,9 @@
       <c r="B184" t="s">
         <v>19</v>
       </c>
+      <c r="D184">
+        <v>0.58929999999999993</v>
+      </c>
       <c r="E184">
         <v>0.58929999999999993</v>
       </c>
@@ -38581,6 +38948,9 @@
       <c r="B185" t="s">
         <v>20</v>
       </c>
+      <c r="D185">
+        <v>0.5777000000000001</v>
+      </c>
       <c r="E185">
         <v>0.56620000000000004</v>
       </c>
@@ -38604,6 +38974,9 @@
       <c r="B186" t="s">
         <v>21</v>
       </c>
+      <c r="D186">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E186">
         <v>0.57299999999999995</v>
       </c>
@@ -38627,6 +39000,9 @@
       <c r="B187" t="s">
         <v>22</v>
       </c>
+      <c r="D187">
+        <v>0.56549999999999989</v>
+      </c>
       <c r="E187">
         <v>0.56549999999999989</v>
       </c>
@@ -38650,6 +39026,9 @@
       <c r="B188" t="s">
         <v>23</v>
       </c>
+      <c r="D188">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E188">
         <v>0.57299999999999995</v>
       </c>
@@ -38673,6 +39052,9 @@
       <c r="B189" t="s">
         <v>24</v>
       </c>
+      <c r="D189">
+        <v>0.58660000000000001</v>
+      </c>
       <c r="E189">
         <v>0.57640000000000002</v>
       </c>
@@ -38696,6 +39078,9 @@
       <c r="B190" t="s">
         <v>25</v>
       </c>
+      <c r="D190">
+        <v>0.57430000000000003</v>
+      </c>
       <c r="E190">
         <v>0.54790000000000005</v>
       </c>
@@ -38719,6 +39104,9 @@
       <c r="B191" t="s">
         <v>26</v>
       </c>
+      <c r="D191">
+        <v>0.59670000000000001</v>
+      </c>
       <c r="E191">
         <v>0.58250000000000002</v>
       </c>
@@ -38742,6 +39130,9 @@
       <c r="B192" t="s">
         <v>27</v>
       </c>
+      <c r="D192">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E192">
         <v>0.57299999999999995</v>
       </c>
@@ -38765,6 +39156,9 @@
       <c r="B193" t="s">
         <v>28</v>
       </c>
+      <c r="D193">
+        <v>0.57230000000000003</v>
+      </c>
       <c r="E193">
         <v>0.55950000000000011</v>
       </c>
@@ -38788,6 +39182,9 @@
       <c r="B194" t="s">
         <v>29</v>
       </c>
+      <c r="D194">
+        <v>0.61780000000000002</v>
+      </c>
       <c r="E194">
         <v>0.61170000000000002</v>
       </c>
@@ -38811,6 +39208,9 @@
       <c r="B195" t="s">
         <v>30</v>
       </c>
+      <c r="D195">
+        <v>0.57159999999999989</v>
+      </c>
       <c r="E195">
         <v>0.5532999999999999</v>
       </c>
@@ -38834,6 +39234,9 @@
       <c r="B196" t="s">
         <v>31</v>
       </c>
+      <c r="D196">
+        <v>0.55740000000000001</v>
+      </c>
       <c r="E196">
         <v>0.56079999999999997</v>
       </c>
@@ -38857,6 +39260,9 @@
       <c r="B197" t="s">
         <v>32</v>
       </c>
+      <c r="D197">
+        <v>0.62119999999999997</v>
+      </c>
       <c r="E197">
         <v>0.57030000000000003</v>
       </c>
@@ -38880,6 +39286,9 @@
       <c r="B198" t="s">
         <v>33</v>
       </c>
+      <c r="D198">
+        <v>0.61780000000000002</v>
+      </c>
       <c r="E198">
         <v>0.61170000000000002</v>
       </c>
@@ -38903,6 +39312,9 @@
       <c r="B199" t="s">
         <v>34</v>
       </c>
+      <c r="D199">
+        <v>0.58040000000000003</v>
+      </c>
       <c r="E199">
         <v>0.55119999999999991</v>
       </c>
@@ -38929,6 +39341,9 @@
       <c r="B200" t="s">
         <v>7</v>
       </c>
+      <c r="D200">
+        <v>0.80479999999999996</v>
+      </c>
       <c r="E200">
         <v>0.80049999999999999</v>
       </c>
@@ -38952,6 +39367,9 @@
       <c r="B201" t="s">
         <v>8</v>
       </c>
+      <c r="D201">
+        <v>0.63040000000000007</v>
+      </c>
       <c r="E201">
         <v>0.42030000000000001</v>
       </c>
@@ -38975,6 +39393,9 @@
       <c r="B202" t="s">
         <v>9</v>
       </c>
+      <c r="D202">
+        <v>0.63219999999999998</v>
+      </c>
       <c r="E202">
         <v>0.42579999999999996</v>
       </c>
@@ -38998,6 +39419,9 @@
       <c r="B203" t="s">
         <v>10</v>
       </c>
+      <c r="D203">
+        <v>0.69159999999999999</v>
+      </c>
       <c r="E203">
         <v>0.4395</v>
       </c>
@@ -39021,6 +39445,9 @@
       <c r="B204" t="s">
         <v>11</v>
       </c>
+      <c r="D204">
+        <v>0.69159999999999999</v>
+      </c>
       <c r="E204">
         <v>0.43990000000000007</v>
       </c>
@@ -39044,6 +39471,9 @@
       <c r="B205" t="s">
         <v>12</v>
       </c>
+      <c r="D205">
+        <v>0.65590000000000004</v>
+      </c>
       <c r="E205">
         <v>0.42669999999999997</v>
       </c>
@@ -39067,6 +39497,9 @@
       <c r="B206" t="s">
         <v>13</v>
       </c>
+      <c r="D206">
+        <v>0.73670000000000002</v>
+      </c>
       <c r="E206">
         <v>0.49790000000000001</v>
       </c>
@@ -39090,6 +39523,9 @@
       <c r="B207" t="s">
         <v>14</v>
       </c>
+      <c r="D207">
+        <v>0.63170000000000004</v>
+      </c>
       <c r="E207">
         <v>0.42990000000000006</v>
       </c>
@@ -39113,6 +39549,9 @@
       <c r="B208" t="s">
         <v>15</v>
       </c>
+      <c r="D208">
+        <v>0.67700000000000005</v>
+      </c>
       <c r="E208">
         <v>0.60729999999999995</v>
       </c>
@@ -39136,6 +39575,9 @@
       <c r="B209" t="s">
         <v>16</v>
       </c>
+      <c r="D209">
+        <v>0.64840000000000009</v>
+      </c>
       <c r="E209">
         <v>0.44229999999999992</v>
       </c>
@@ -39159,6 +39601,9 @@
       <c r="B210" t="s">
         <v>17</v>
       </c>
+      <c r="D210">
+        <v>0.63040000000000007</v>
+      </c>
       <c r="E210">
         <v>0.43789999999999996</v>
       </c>
@@ -39182,6 +39627,9 @@
       <c r="B211" t="s">
         <v>18</v>
       </c>
+      <c r="D211">
+        <v>0.63040000000000007</v>
+      </c>
       <c r="E211">
         <v>0.43789999999999996</v>
       </c>
@@ -39205,6 +39653,9 @@
       <c r="B212" t="s">
         <v>19</v>
       </c>
+      <c r="D212">
+        <v>0.80479999999999996</v>
+      </c>
       <c r="E212">
         <v>0.80049999999999999</v>
       </c>
@@ -39228,6 +39679,9 @@
       <c r="B213" t="s">
         <v>20</v>
       </c>
+      <c r="D213">
+        <v>0.67619999999999991</v>
+      </c>
       <c r="E213">
         <v>0.43270000000000008</v>
       </c>
@@ -39251,6 +39705,9 @@
       <c r="B214" t="s">
         <v>21</v>
       </c>
+      <c r="D214">
+        <v>0.89859999999999995</v>
+      </c>
       <c r="E214">
         <v>0.89859999999999995</v>
       </c>
@@ -39274,6 +39731,9 @@
       <c r="B215" t="s">
         <v>22</v>
       </c>
+      <c r="D215">
+        <v>0.64129999999999998</v>
+      </c>
       <c r="E215">
         <v>0.43930000000000002</v>
       </c>
@@ -39297,6 +39757,9 @@
       <c r="B216" t="s">
         <v>23</v>
       </c>
+      <c r="D216">
+        <v>0.89859999999999995</v>
+      </c>
       <c r="E216">
         <v>0.89859999999999995</v>
       </c>
@@ -39320,6 +39783,9 @@
       <c r="B217" t="s">
         <v>24</v>
       </c>
+      <c r="D217">
+        <v>0.64840000000000009</v>
+      </c>
       <c r="E217">
         <v>0.43240000000000001</v>
       </c>
@@ -39343,6 +39809,9 @@
       <c r="B218" t="s">
         <v>25</v>
       </c>
+      <c r="D218">
+        <v>0.77539999999999998</v>
+      </c>
       <c r="E218">
         <v>0.50429999999999997</v>
       </c>
@@ -39366,6 +39835,9 @@
       <c r="B219" t="s">
         <v>26</v>
       </c>
+      <c r="D219">
+        <v>0.6573</v>
+      </c>
       <c r="E219">
         <v>0.66259999999999997</v>
       </c>
@@ -39389,6 +39861,9 @@
       <c r="B220" t="s">
         <v>27</v>
       </c>
+      <c r="D220">
+        <v>0.89859999999999995</v>
+      </c>
       <c r="E220">
         <v>0.89859999999999995</v>
       </c>
@@ -39412,6 +39887,9 @@
       <c r="B221" t="s">
         <v>28</v>
       </c>
+      <c r="D221">
+        <v>0.65460000000000007</v>
+      </c>
       <c r="E221">
         <v>0.44590000000000007</v>
       </c>
@@ -39435,6 +39913,9 @@
       <c r="B222" t="s">
         <v>29</v>
       </c>
+      <c r="D222">
+        <v>0.73670000000000002</v>
+      </c>
       <c r="E222">
         <v>0.50439999999999996</v>
       </c>
@@ -39458,6 +39939,9 @@
       <c r="B223" t="s">
         <v>30</v>
       </c>
+      <c r="D223">
+        <v>0.66569999999999996</v>
+      </c>
       <c r="E223">
         <v>0.44159999999999999</v>
       </c>
@@ -39481,6 +39965,9 @@
       <c r="B224" t="s">
         <v>31</v>
       </c>
+      <c r="D224">
+        <v>0.63400000000000001</v>
+      </c>
       <c r="E224">
         <v>0.41830000000000001</v>
       </c>
@@ -39504,6 +39991,9 @@
       <c r="B225" t="s">
         <v>32</v>
       </c>
+      <c r="D225">
+        <v>0.73649999999999993</v>
+      </c>
       <c r="E225">
         <v>0.46409999999999996</v>
       </c>
@@ -39527,6 +40017,9 @@
       <c r="B226" t="s">
         <v>33</v>
       </c>
+      <c r="D226">
+        <v>0.73670000000000002</v>
+      </c>
       <c r="E226">
         <v>0.50439999999999996</v>
       </c>
@@ -39550,6 +40043,9 @@
       <c r="B227" t="s">
         <v>34</v>
       </c>
+      <c r="D227">
+        <v>0.65369999999999995</v>
+      </c>
       <c r="E227">
         <v>0.44220000000000004</v>
       </c>
@@ -39576,6 +40072,9 @@
       <c r="B228" t="s">
         <v>7</v>
       </c>
+      <c r="D228">
+        <v>0.64179999999999993</v>
+      </c>
       <c r="E228">
         <v>0.64179999999999993</v>
       </c>
@@ -39599,6 +40098,9 @@
       <c r="B229" t="s">
         <v>8</v>
       </c>
+      <c r="D229">
+        <v>0.55320000000000003</v>
+      </c>
       <c r="E229">
         <v>0.47160000000000002</v>
       </c>
@@ -39622,6 +40124,9 @@
       <c r="B230" t="s">
         <v>9</v>
       </c>
+      <c r="D230">
+        <v>0.63109999999999999</v>
+      </c>
       <c r="E230">
         <v>0.49280000000000002</v>
       </c>
@@ -39645,6 +40150,9 @@
       <c r="B231" t="s">
         <v>10</v>
       </c>
+      <c r="D231">
+        <v>0.6714</v>
+      </c>
       <c r="E231">
         <v>0.54489999999999994</v>
       </c>
@@ -39668,6 +40176,9 @@
       <c r="B232" t="s">
         <v>11</v>
       </c>
+      <c r="D232">
+        <v>0.66539999999999999</v>
+      </c>
       <c r="E232">
         <v>0.54960000000000009</v>
       </c>
@@ -39691,6 +40202,9 @@
       <c r="B233" t="s">
         <v>12</v>
       </c>
+      <c r="D233">
+        <v>0.66890000000000005</v>
+      </c>
       <c r="E233">
         <v>0.58159999999999989</v>
       </c>
@@ -39714,6 +40228,9 @@
       <c r="B234" t="s">
         <v>13</v>
       </c>
+      <c r="D234">
+        <v>0.64659999999999995</v>
+      </c>
       <c r="E234">
         <v>0.52029999999999998</v>
       </c>
@@ -39737,6 +40254,9 @@
       <c r="B235" t="s">
         <v>14</v>
       </c>
+      <c r="D235">
+        <v>0.5756</v>
+      </c>
       <c r="E235">
         <v>0.45030000000000003</v>
       </c>
@@ -39760,6 +40280,9 @@
       <c r="B236" t="s">
         <v>15</v>
       </c>
+      <c r="D236">
+        <v>0.6169</v>
+      </c>
       <c r="E236">
         <v>0.57210000000000005</v>
       </c>
@@ -39783,6 +40306,9 @@
       <c r="B237" t="s">
         <v>16</v>
       </c>
+      <c r="D237">
+        <v>0.5413</v>
+      </c>
       <c r="E237">
         <v>0.52239999999999998</v>
       </c>
@@ -39806,6 +40332,9 @@
       <c r="B238" t="s">
         <v>17</v>
       </c>
+      <c r="D238">
+        <v>0.66900000000000004</v>
+      </c>
       <c r="E238">
         <v>0.57319999999999993</v>
       </c>
@@ -39829,6 +40358,9 @@
       <c r="B239" t="s">
         <v>18</v>
       </c>
+      <c r="D239">
+        <v>0.66900000000000004</v>
+      </c>
       <c r="E239">
         <v>0.57319999999999993</v>
       </c>
@@ -39852,6 +40384,9 @@
       <c r="B240" t="s">
         <v>19</v>
       </c>
+      <c r="D240">
+        <v>0.64179999999999993</v>
+      </c>
       <c r="E240">
         <v>0.64179999999999993</v>
       </c>
@@ -39875,6 +40410,9 @@
       <c r="B241" t="s">
         <v>20</v>
       </c>
+      <c r="D241">
+        <v>0.58860000000000001</v>
+      </c>
       <c r="E241">
         <v>0.45619999999999994</v>
       </c>
@@ -39898,6 +40436,9 @@
       <c r="B242" t="s">
         <v>21</v>
       </c>
+      <c r="D242">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="E242">
         <v>0.74590000000000001</v>
       </c>
@@ -39921,6 +40462,9 @@
       <c r="B243" t="s">
         <v>22</v>
       </c>
+      <c r="D243">
+        <v>0.55200000000000005</v>
+      </c>
       <c r="E243">
         <v>0.49759999999999993</v>
       </c>
@@ -39944,6 +40488,9 @@
       <c r="B244" t="s">
         <v>23</v>
       </c>
+      <c r="D244">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="E244">
         <v>0.74590000000000001</v>
       </c>
@@ -39967,6 +40514,9 @@
       <c r="B245" t="s">
         <v>24</v>
       </c>
+      <c r="D245">
+        <v>0.5413</v>
+      </c>
       <c r="E245">
         <v>0.53059999999999996</v>
       </c>
@@ -39990,6 +40540,9 @@
       <c r="B246" t="s">
         <v>25</v>
       </c>
+      <c r="D246">
+        <v>0.62770000000000004</v>
+      </c>
       <c r="E246">
         <v>0.53310000000000002</v>
       </c>
@@ -40013,6 +40566,9 @@
       <c r="B247" t="s">
         <v>26</v>
       </c>
+      <c r="D247">
+        <v>0.56259999999999999</v>
+      </c>
       <c r="E247">
         <v>0.56259999999999999</v>
       </c>
@@ -40036,6 +40592,9 @@
       <c r="B248" t="s">
         <v>27</v>
       </c>
+      <c r="D248">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="E248">
         <v>0.74590000000000001</v>
       </c>
@@ -40059,6 +40618,9 @@
       <c r="B249" t="s">
         <v>28</v>
       </c>
+      <c r="D249">
+        <v>0.54960000000000009</v>
+      </c>
       <c r="E249">
         <v>0.49170000000000003</v>
       </c>
@@ -40082,6 +40644,9 @@
       <c r="B250" t="s">
         <v>29</v>
       </c>
+      <c r="D250">
+        <v>0.64659999999999995</v>
+      </c>
       <c r="E250">
         <v>0.52729999999999999</v>
       </c>
@@ -40105,6 +40670,9 @@
       <c r="B251" t="s">
         <v>30</v>
       </c>
+      <c r="D251">
+        <v>0.55190000000000006</v>
+      </c>
       <c r="E251">
         <v>0.5</v>
       </c>
@@ -40128,6 +40696,9 @@
       <c r="B252" t="s">
         <v>31</v>
       </c>
+      <c r="D252">
+        <v>0.56020000000000003</v>
+      </c>
       <c r="E252">
         <v>0.47509999999999997</v>
       </c>
@@ -40151,6 +40722,9 @@
       <c r="B253" t="s">
         <v>32</v>
       </c>
+      <c r="D253">
+        <v>0.64659999999999995</v>
+      </c>
       <c r="E253">
         <v>0.50009999999999999</v>
       </c>
@@ -40174,6 +40748,9 @@
       <c r="B254" t="s">
         <v>33</v>
       </c>
+      <c r="D254">
+        <v>0.64659999999999995</v>
+      </c>
       <c r="E254">
         <v>0.52729999999999999</v>
       </c>
@@ -40197,6 +40774,9 @@
       <c r="B255" t="s">
         <v>34</v>
       </c>
+      <c r="D255">
+        <v>0.56610000000000005</v>
+      </c>
       <c r="E255">
         <v>0.49869999999999992</v>
       </c>
@@ -40223,6 +40803,9 @@
       <c r="B256" t="s">
         <v>7</v>
       </c>
+      <c r="D256">
+        <v>0.37659999999999993</v>
+      </c>
       <c r="E256">
         <v>0.37659999999999993</v>
       </c>
@@ -40246,6 +40829,9 @@
       <c r="B257" t="s">
         <v>8</v>
       </c>
+      <c r="D257">
+        <v>0.37460000000000004</v>
+      </c>
       <c r="E257">
         <v>0.14060000000000006</v>
       </c>
@@ -40269,6 +40855,9 @@
       <c r="B258" t="s">
         <v>9</v>
       </c>
+      <c r="D258">
+        <v>0.376</v>
+      </c>
       <c r="E258">
         <v>0.15079999999999993</v>
       </c>
@@ -40292,6 +40881,9 @@
       <c r="B259" t="s">
         <v>10</v>
       </c>
+      <c r="D259">
+        <v>0.43399999999999994</v>
+      </c>
       <c r="E259">
         <v>0.14280000000000004</v>
       </c>
@@ -40315,6 +40907,9 @@
       <c r="B260" t="s">
         <v>11</v>
       </c>
+      <c r="D260">
+        <v>0.37740000000000007</v>
+      </c>
       <c r="E260">
         <v>0.14379999999999993</v>
       </c>
@@ -40338,6 +40933,9 @@
       <c r="B261" t="s">
         <v>12</v>
       </c>
+      <c r="D261">
+        <v>0.39939999999999998</v>
+      </c>
       <c r="E261">
         <v>0.14379999999999993</v>
       </c>
@@ -40361,6 +40959,9 @@
       <c r="B262" t="s">
         <v>13</v>
       </c>
+      <c r="D262">
+        <v>0.47819999999999996</v>
+      </c>
       <c r="E262">
         <v>0.18180000000000007</v>
       </c>
@@ -40384,6 +40985,9 @@
       <c r="B263" t="s">
         <v>14</v>
       </c>
+      <c r="D263">
+        <v>0.37419999999999998</v>
+      </c>
       <c r="E263">
         <v>0.14639999999999997</v>
       </c>
@@ -40407,6 +41011,9 @@
       <c r="B264" t="s">
         <v>15</v>
       </c>
+      <c r="D264">
+        <v>0.37659999999999993</v>
+      </c>
       <c r="E264">
         <v>0.34499999999999997</v>
       </c>
@@ -40430,6 +41037,9 @@
       <c r="B265" t="s">
         <v>16</v>
       </c>
+      <c r="D265">
+        <v>0.37659999999999993</v>
+      </c>
       <c r="E265">
         <v>0.18700000000000006</v>
       </c>
@@ -40453,6 +41063,9 @@
       <c r="B266" t="s">
         <v>17</v>
       </c>
+      <c r="D266">
+        <v>0.39319999999999999</v>
+      </c>
       <c r="E266">
         <v>0.17599999999999993</v>
       </c>
@@ -40476,6 +41089,9 @@
       <c r="B267" t="s">
         <v>18</v>
       </c>
+      <c r="D267">
+        <v>0.39319999999999999</v>
+      </c>
       <c r="E267">
         <v>0.17599999999999993</v>
       </c>
@@ -40499,6 +41115,9 @@
       <c r="B268" t="s">
         <v>19</v>
       </c>
+      <c r="D268">
+        <v>0.37659999999999993</v>
+      </c>
       <c r="E268">
         <v>0.22120000000000006</v>
       </c>
@@ -40522,6 +41141,9 @@
       <c r="B269" t="s">
         <v>20</v>
       </c>
+      <c r="D269">
+        <v>0.40759999999999996</v>
+      </c>
       <c r="E269">
         <v>0.14739999999999998</v>
       </c>
@@ -40545,6 +41167,9 @@
       <c r="B270" t="s">
         <v>21</v>
       </c>
+      <c r="D270">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E270">
         <v>0.66159999999999997</v>
       </c>
@@ -40568,6 +41193,9 @@
       <c r="B271" t="s">
         <v>22</v>
       </c>
+      <c r="D271">
+        <v>0.37539999999999996</v>
+      </c>
       <c r="E271">
         <v>0.1492</v>
       </c>
@@ -40591,6 +41219,9 @@
       <c r="B272" t="s">
         <v>23</v>
       </c>
+      <c r="D272">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E272">
         <v>0.66159999999999997</v>
       </c>
@@ -40614,6 +41245,9 @@
       <c r="B273" t="s">
         <v>24</v>
       </c>
+      <c r="D273">
+        <v>0.37659999999999993</v>
+      </c>
       <c r="E273">
         <v>0.18000000000000005</v>
       </c>
@@ -40637,6 +41271,9 @@
       <c r="B274" t="s">
         <v>25</v>
       </c>
+      <c r="D274">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="E274">
         <v>0.15280000000000005</v>
       </c>
@@ -40660,6 +41297,9 @@
       <c r="B275" t="s">
         <v>26</v>
       </c>
+      <c r="D275">
+        <v>0.43899999999999995</v>
+      </c>
       <c r="E275">
         <v>0.43899999999999995</v>
       </c>
@@ -40683,6 +41323,9 @@
       <c r="B276" t="s">
         <v>27</v>
       </c>
+      <c r="D276">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E276">
         <v>0.66159999999999997</v>
       </c>
@@ -40706,6 +41349,9 @@
       <c r="B277" t="s">
         <v>28</v>
       </c>
+      <c r="D277">
+        <v>0.37619999999999998</v>
+      </c>
       <c r="E277">
         <v>0.15040000000000009</v>
       </c>
@@ -40729,6 +41375,9 @@
       <c r="B278" t="s">
         <v>29</v>
       </c>
+      <c r="D278">
+        <v>0.47840000000000005</v>
+      </c>
       <c r="E278">
         <v>0.1876000000000001</v>
       </c>
@@ -40752,6 +41401,9 @@
       <c r="B279" t="s">
         <v>30</v>
       </c>
+      <c r="D279">
+        <v>0.37619999999999998</v>
+      </c>
       <c r="E279">
         <v>0.15300000000000002</v>
       </c>
@@ -40775,6 +41427,9 @@
       <c r="B280" t="s">
         <v>31</v>
       </c>
+      <c r="D280">
+        <v>0.37659999999999993</v>
+      </c>
       <c r="E280">
         <v>0.14379999999999993</v>
       </c>
@@ -40798,6 +41453,9 @@
       <c r="B281" t="s">
         <v>32</v>
       </c>
+      <c r="D281">
+        <v>0.47840000000000005</v>
+      </c>
       <c r="E281">
         <v>0.16280000000000006</v>
       </c>
@@ -40821,6 +41479,9 @@
       <c r="B282" t="s">
         <v>33</v>
       </c>
+      <c r="D282">
+        <v>0.47840000000000005</v>
+      </c>
       <c r="E282">
         <v>0.1876000000000001</v>
       </c>
@@ -40843,6 +41504,9 @@
     <row r="283" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>34</v>
+      </c>
+      <c r="D283">
+        <v>0.37560000000000004</v>
       </c>
       <c r="E283">
         <v>0.1581999999999999</v>
@@ -40872,8 +41536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41023,6 +41687,10 @@
       <c r="K5" t="s">
         <v>40</v>
       </c>
+      <c r="M5">
+        <f>SUM(D32:D59)/26</f>
+        <v>0.65613076923076918</v>
+      </c>
       <c r="N5">
         <f>SUM(E32:E59)/26</f>
         <v>0.65929230769230773</v>
@@ -41073,6 +41741,10 @@
       <c r="K6" t="s">
         <v>41</v>
       </c>
+      <c r="M6">
+        <f>SUM(D60:D87)/26</f>
+        <v>0.78028076923076917</v>
+      </c>
       <c r="N6">
         <f>SUM(E60:E87)/26</f>
         <v>0.75836153846153853</v>
@@ -41146,6 +41818,10 @@
       <c r="K8" t="s">
         <v>43</v>
       </c>
+      <c r="M8">
+        <f>SUM(D116:D143)/26</f>
+        <v>0.66921538461538455</v>
+      </c>
       <c r="N8">
         <f>SUM(E116:E143)/26</f>
         <v>0.66921538461538455</v>
@@ -41196,6 +41872,10 @@
       <c r="K9" t="s">
         <v>38</v>
       </c>
+      <c r="M9">
+        <f>SUM(D144:D171)/26</f>
+        <v>0.32286153846153864</v>
+      </c>
       <c r="N9">
         <f>SUM(E144:E171)/26</f>
         <v>0.32286153846153864</v>
@@ -41246,6 +41926,10 @@
       <c r="K10" t="s">
         <v>46</v>
       </c>
+      <c r="M10">
+        <f>SUM(D172:D199)/26</f>
+        <v>0.6112653846153846</v>
+      </c>
       <c r="N10">
         <f>SUM(E172:E199)/26</f>
         <v>0.60582307692307702</v>
@@ -41296,6 +41980,10 @@
       <c r="K11" t="s">
         <v>44</v>
       </c>
+      <c r="M11">
+        <f>SUM(D200:D227)/26</f>
+        <v>0.90199999999999991</v>
+      </c>
       <c r="N11">
         <f>SUM(E200:E227)/26</f>
         <v>0.86903846153846154</v>
@@ -41346,6 +42034,10 @@
       <c r="K12" t="s">
         <v>45</v>
       </c>
+      <c r="M12">
+        <f>SUM(D228:D255)/26</f>
+        <v>0.72341923076923098</v>
+      </c>
       <c r="N12">
         <f>SUM(E228:E255)/26</f>
         <v>0.64645769230769246</v>
@@ -41396,6 +42088,10 @@
       <c r="K13" t="s">
         <v>47</v>
       </c>
+      <c r="M13">
+        <f>SUM(D256:D283)/26</f>
+        <v>0.6116307692307692</v>
+      </c>
       <c r="N13">
         <f>SUM(E256:E283)/20</f>
         <v>0.75070999999999999</v>
@@ -41842,6 +42538,9 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
+      <c r="D32">
+        <v>0.66810000000000003</v>
+      </c>
       <c r="E32">
         <v>0.66810000000000003</v>
       </c>
@@ -41865,6 +42564,9 @@
       <c r="B33" t="s">
         <v>8</v>
       </c>
+      <c r="D33">
+        <v>0.6583</v>
+      </c>
       <c r="E33">
         <v>0.6583</v>
       </c>
@@ -41888,6 +42590,9 @@
       <c r="B34" t="s">
         <v>9</v>
       </c>
+      <c r="D34">
+        <v>0.61880000000000002</v>
+      </c>
       <c r="E34">
         <v>0.63829999999999998</v>
       </c>
@@ -41911,6 +42616,9 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
+      <c r="D35">
+        <v>0.6381</v>
+      </c>
       <c r="E35">
         <v>0.64810000000000001</v>
       </c>
@@ -41934,6 +42642,9 @@
       <c r="B36" t="s">
         <v>11</v>
       </c>
+      <c r="D36">
+        <v>0.62359999999999993</v>
+      </c>
       <c r="E36">
         <v>0.63829999999999998</v>
       </c>
@@ -41957,6 +42668,9 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
+      <c r="D37">
+        <v>0.6583</v>
+      </c>
       <c r="E37">
         <v>0.6583</v>
       </c>
@@ -41980,6 +42694,9 @@
       <c r="B38" t="s">
         <v>13</v>
       </c>
+      <c r="D38">
+        <v>0.43859999999999999</v>
+      </c>
       <c r="E38">
         <v>0.45829999999999993</v>
       </c>
@@ -42003,6 +42720,9 @@
       <c r="B39" t="s">
         <v>14</v>
       </c>
+      <c r="D39">
+        <v>0.57400000000000007</v>
+      </c>
       <c r="E39">
         <v>0.58479999999999999</v>
       </c>
@@ -42026,6 +42746,9 @@
       <c r="B40" t="s">
         <v>15</v>
       </c>
+      <c r="D40">
+        <v>0.65359999999999996</v>
+      </c>
       <c r="E40">
         <v>0.629</v>
       </c>
@@ -42049,6 +42772,9 @@
       <c r="B41" t="s">
         <v>16</v>
       </c>
+      <c r="D41">
+        <v>0.67290000000000005</v>
+      </c>
       <c r="E41">
         <v>0.67290000000000005</v>
       </c>
@@ -42072,6 +42798,9 @@
       <c r="B42" t="s">
         <v>17</v>
       </c>
+      <c r="D42">
+        <v>0.70809999999999995</v>
+      </c>
       <c r="E42">
         <v>0.69829999999999992</v>
       </c>
@@ -42095,6 +42824,9 @@
       <c r="B43" t="s">
         <v>18</v>
       </c>
+      <c r="D43">
+        <v>0.70809999999999995</v>
+      </c>
       <c r="E43">
         <v>0.69829999999999992</v>
       </c>
@@ -42118,6 +42850,9 @@
       <c r="B44" t="s">
         <v>19</v>
       </c>
+      <c r="D44">
+        <v>0.66810000000000003</v>
+      </c>
       <c r="E44">
         <v>0.66810000000000003</v>
       </c>
@@ -42141,6 +42876,9 @@
       <c r="B45" t="s">
         <v>20</v>
       </c>
+      <c r="D45">
+        <v>0.60430000000000006</v>
+      </c>
       <c r="E45">
         <v>0.59430000000000005</v>
       </c>
@@ -42164,6 +42902,9 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
+      <c r="D46">
+        <v>0.67290000000000005</v>
+      </c>
       <c r="E46">
         <v>0.67290000000000005</v>
       </c>
@@ -42187,6 +42928,9 @@
       <c r="B47" t="s">
         <v>22</v>
       </c>
+      <c r="D47">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="E47">
         <v>0.55499999999999994</v>
       </c>
@@ -42210,6 +42954,9 @@
       <c r="B48" t="s">
         <v>23</v>
       </c>
+      <c r="D48">
+        <v>0.67290000000000005</v>
+      </c>
       <c r="E48">
         <v>0.67290000000000005</v>
       </c>
@@ -42233,6 +42980,9 @@
       <c r="B49" t="s">
         <v>24</v>
       </c>
+      <c r="D49">
+        <v>0.67290000000000005</v>
+      </c>
       <c r="E49">
         <v>0.67290000000000005</v>
       </c>
@@ -42256,6 +43006,9 @@
       <c r="B50" t="s">
         <v>25</v>
       </c>
+      <c r="D50">
+        <v>0.60860000000000003</v>
+      </c>
       <c r="E50">
         <v>0.6038</v>
       </c>
@@ -42279,6 +43032,9 @@
       <c r="B51" t="s">
         <v>26</v>
       </c>
+      <c r="D51">
+        <v>0.60399999999999998</v>
+      </c>
       <c r="E51">
         <v>0.60399999999999998</v>
       </c>
@@ -42302,6 +43058,9 @@
       <c r="B52" t="s">
         <v>27</v>
       </c>
+      <c r="D52">
+        <v>0.67290000000000005</v>
+      </c>
       <c r="E52">
         <v>0.67290000000000005</v>
       </c>
@@ -42325,6 +43084,9 @@
       <c r="B53" t="s">
         <v>28</v>
       </c>
+      <c r="D53">
+        <v>0.58430000000000004</v>
+      </c>
       <c r="E53">
         <v>0.59929999999999994</v>
       </c>
@@ -42348,6 +43110,9 @@
       <c r="B54" t="s">
         <v>29</v>
       </c>
+      <c r="D54">
+        <v>0.44830000000000003</v>
+      </c>
       <c r="E54">
         <v>0.46329999999999993</v>
       </c>
@@ -42371,6 +43136,9 @@
       <c r="B55" t="s">
         <v>30</v>
       </c>
+      <c r="D55">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="E55">
         <v>0.62929999999999997</v>
       </c>
@@ -42394,6 +43162,9 @@
       <c r="B56" t="s">
         <v>31</v>
       </c>
+      <c r="D56">
+        <v>0.58860000000000001</v>
+      </c>
       <c r="E56">
         <v>0.56979999999999997</v>
       </c>
@@ -42417,6 +43188,9 @@
       <c r="B57" t="s">
         <v>32</v>
       </c>
+      <c r="D57">
+        <v>0.43430000000000002</v>
+      </c>
       <c r="E57">
         <v>0.44930000000000003</v>
       </c>
@@ -42440,6 +43214,9 @@
       <c r="B58" t="s">
         <v>33</v>
       </c>
+      <c r="D58">
+        <v>0.44830000000000003</v>
+      </c>
       <c r="E58">
         <v>0.46329999999999993</v>
       </c>
@@ -42463,6 +43240,9 @@
       <c r="B59" t="s">
         <v>34</v>
       </c>
+      <c r="D59">
+        <v>0.58950000000000002</v>
+      </c>
       <c r="E59">
         <v>0.59950000000000003</v>
       </c>
@@ -42489,6 +43269,9 @@
       <c r="B60" t="s">
         <v>7</v>
       </c>
+      <c r="D60">
+        <v>0.71209999999999996</v>
+      </c>
       <c r="E60">
         <v>0.71209999999999996</v>
       </c>
@@ -42512,6 +43295,9 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
+      <c r="D61">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E61">
         <v>0.73439999999999994</v>
       </c>
@@ -42535,6 +43321,9 @@
       <c r="B62" t="s">
         <v>9</v>
       </c>
+      <c r="D62">
+        <v>0.76580000000000004</v>
+      </c>
       <c r="E62">
         <v>0.75260000000000005</v>
       </c>
@@ -42558,6 +43347,9 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
+      <c r="D63">
+        <v>0.75649999999999995</v>
+      </c>
       <c r="E63">
         <v>0.69469999999999998</v>
       </c>
@@ -42581,6 +43373,9 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
+      <c r="D64">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E64">
         <v>0.70379999999999998</v>
       </c>
@@ -42604,6 +43399,9 @@
       <c r="B65" t="s">
         <v>12</v>
       </c>
+      <c r="D65">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E65">
         <v>0.73439999999999994</v>
       </c>
@@ -42627,6 +43425,9 @@
       <c r="B66" t="s">
         <v>13</v>
       </c>
+      <c r="D66">
+        <v>0.65450000000000008</v>
+      </c>
       <c r="E66">
         <v>0.62790000000000001</v>
       </c>
@@ -42650,6 +43451,9 @@
       <c r="B67" t="s">
         <v>14</v>
       </c>
+      <c r="D67">
+        <v>0.70809999999999995</v>
+      </c>
       <c r="E67">
         <v>0.66779999999999995</v>
       </c>
@@ -42673,6 +43477,9 @@
       <c r="B68" t="s">
         <v>15</v>
       </c>
+      <c r="D68">
+        <v>0.69450000000000001</v>
+      </c>
       <c r="E68">
         <v>0.7077</v>
       </c>
@@ -42696,6 +43503,9 @@
       <c r="B69" t="s">
         <v>16</v>
       </c>
+      <c r="D69">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E69">
         <v>0.74760000000000004</v>
       </c>
@@ -42719,6 +43529,9 @@
       <c r="B70" t="s">
         <v>17</v>
       </c>
+      <c r="D70">
+        <v>0.75690000000000002</v>
+      </c>
       <c r="E70">
         <v>0.75690000000000002</v>
       </c>
@@ -42742,6 +43555,9 @@
       <c r="B71" t="s">
         <v>18</v>
       </c>
+      <c r="D71">
+        <v>0.75690000000000002</v>
+      </c>
       <c r="E71">
         <v>0.75690000000000002</v>
       </c>
@@ -42765,6 +43581,9 @@
       <c r="B72" t="s">
         <v>19</v>
       </c>
+      <c r="D72">
+        <v>0.71209999999999996</v>
+      </c>
       <c r="E72">
         <v>0.71209999999999996</v>
       </c>
@@ -42788,6 +43607,9 @@
       <c r="B73" t="s">
         <v>20</v>
       </c>
+      <c r="D73">
+        <v>0.69900000000000007</v>
+      </c>
       <c r="E73">
         <v>0.65949999999999998</v>
       </c>
@@ -42811,6 +43633,9 @@
       <c r="B74" t="s">
         <v>21</v>
       </c>
+      <c r="D74">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E74">
         <v>0.74760000000000004</v>
       </c>
@@ -42834,6 +43659,9 @@
       <c r="B75" t="s">
         <v>22</v>
       </c>
+      <c r="D75">
+        <v>0.70300000000000007</v>
+      </c>
       <c r="E75">
         <v>0.67649999999999999</v>
       </c>
@@ -42857,6 +43685,9 @@
       <c r="B76" t="s">
         <v>23</v>
       </c>
+      <c r="D76">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E76">
         <v>0.74760000000000004</v>
       </c>
@@ -42880,6 +43711,9 @@
       <c r="B77" t="s">
         <v>24</v>
       </c>
+      <c r="D77">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E77">
         <v>0.74760000000000004</v>
       </c>
@@ -42903,6 +43737,9 @@
       <c r="B78" t="s">
         <v>25</v>
       </c>
+      <c r="D78">
+        <v>0.75180000000000002</v>
+      </c>
       <c r="E78">
         <v>0.71660000000000001</v>
       </c>
@@ -42926,6 +43763,9 @@
       <c r="B79" t="s">
         <v>26</v>
       </c>
+      <c r="D79">
+        <v>0.74309999999999998</v>
+      </c>
       <c r="E79">
         <v>0.72489999999999999</v>
       </c>
@@ -42949,6 +43789,9 @@
       <c r="B80" t="s">
         <v>27</v>
       </c>
+      <c r="D80">
+        <v>0.74760000000000004</v>
+      </c>
       <c r="E80">
         <v>0.74760000000000004</v>
       </c>
@@ -42972,6 +43815,9 @@
       <c r="B81" t="s">
         <v>28</v>
       </c>
+      <c r="D81">
+        <v>0.73460000000000003</v>
+      </c>
       <c r="E81">
         <v>0.71250000000000002</v>
       </c>
@@ -42995,6 +43841,9 @@
       <c r="B82" t="s">
         <v>29</v>
       </c>
+      <c r="D82">
+        <v>0.65450000000000008</v>
+      </c>
       <c r="E82">
         <v>0.61919999999999997</v>
       </c>
@@ -43018,6 +43867,9 @@
       <c r="B83" t="s">
         <v>30</v>
       </c>
+      <c r="D83">
+        <v>0.74780000000000002</v>
+      </c>
       <c r="E83">
         <v>0.70750000000000002</v>
       </c>
@@ -43041,6 +43893,9 @@
       <c r="B84" t="s">
         <v>31</v>
       </c>
+      <c r="D84">
+        <v>0.71619999999999995</v>
+      </c>
       <c r="E84">
         <v>0.68120000000000003</v>
       </c>
@@ -43064,6 +43919,9 @@
       <c r="B85" t="s">
         <v>32</v>
       </c>
+      <c r="D85">
+        <v>0.66820000000000002</v>
+      </c>
       <c r="E85">
         <v>0.61070000000000002</v>
       </c>
@@ -43087,6 +43945,9 @@
       <c r="B86" t="s">
         <v>33</v>
       </c>
+      <c r="D86">
+        <v>0.65450000000000008</v>
+      </c>
       <c r="E86">
         <v>0.61919999999999997</v>
       </c>
@@ -43110,6 +43971,9 @@
       <c r="B87" t="s">
         <v>34</v>
       </c>
+      <c r="D87">
+        <v>0.71639999999999993</v>
+      </c>
       <c r="E87">
         <v>0.69030000000000002</v>
       </c>
@@ -43136,141 +44000,225 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.80579999999999996</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="D89">
+        <v>0.78790000000000004</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="D90">
+        <v>0.80010000000000003</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="D91">
+        <v>0.79989999999999994</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="D92">
+        <v>0.79790000000000005</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="D93">
+        <v>0.79239999999999999</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="D94">
+        <v>0.86230000000000007</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="D95">
+        <v>0.79079999999999995</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.79820000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.79479999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.78549999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.78549999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.80579999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.82909999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.79269999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.79530000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.83460000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.81369999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.83260000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.86209999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="D112">
+        <v>0.78810000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>0.86209999999999998</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>0.86209999999999998</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
       </c>
+      <c r="D115">
+        <v>0.8075</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -43279,6 +44227,9 @@
       <c r="B116" t="s">
         <v>7</v>
       </c>
+      <c r="D116">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E116">
         <v>0.58179999999999998</v>
       </c>
@@ -43302,6 +44253,9 @@
       <c r="B117" t="s">
         <v>8</v>
       </c>
+      <c r="D117">
+        <v>0.89449999999999996</v>
+      </c>
       <c r="E117">
         <v>0.89449999999999996</v>
       </c>
@@ -43325,6 +44279,9 @@
       <c r="B118" t="s">
         <v>9</v>
       </c>
+      <c r="D118">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E118">
         <v>0.58179999999999998</v>
       </c>
@@ -43348,6 +44305,9 @@
       <c r="B119" t="s">
         <v>10</v>
       </c>
+      <c r="D119">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E119">
         <v>0.58179999999999998</v>
       </c>
@@ -43371,6 +44331,9 @@
       <c r="B120" t="s">
         <v>11</v>
       </c>
+      <c r="D120">
+        <v>0.84729999999999994</v>
+      </c>
       <c r="E120">
         <v>0.84729999999999994</v>
       </c>
@@ -43394,6 +44357,9 @@
       <c r="B121" t="s">
         <v>12</v>
       </c>
+      <c r="D121">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E121">
         <v>0.58179999999999998</v>
       </c>
@@ -43417,6 +44383,9 @@
       <c r="B122" t="s">
         <v>13</v>
       </c>
+      <c r="D122">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E122">
         <v>0.58179999999999998</v>
       </c>
@@ -43440,6 +44409,9 @@
       <c r="B123" t="s">
         <v>14</v>
       </c>
+      <c r="D123">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E123">
         <v>0.58179999999999998</v>
       </c>
@@ -43463,6 +44435,9 @@
       <c r="B124" t="s">
         <v>15</v>
       </c>
+      <c r="D124">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E124">
         <v>0.58179999999999998</v>
       </c>
@@ -43486,6 +44461,9 @@
       <c r="B125" t="s">
         <v>16</v>
       </c>
+      <c r="D125">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E125">
         <v>0.58179999999999998</v>
       </c>
@@ -43509,6 +44487,9 @@
       <c r="B126" t="s">
         <v>17</v>
       </c>
+      <c r="D126">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E126">
         <v>0.58179999999999998</v>
       </c>
@@ -43532,6 +44513,9 @@
       <c r="B127" t="s">
         <v>18</v>
       </c>
+      <c r="D127">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E127">
         <v>0.58179999999999998</v>
       </c>
@@ -43555,6 +44539,9 @@
       <c r="B128" t="s">
         <v>19</v>
       </c>
+      <c r="D128">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E128">
         <v>0.58179999999999998</v>
       </c>
@@ -43578,6 +44565,9 @@
       <c r="B129" t="s">
         <v>20</v>
       </c>
+      <c r="D129">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E129">
         <v>0.58179999999999998</v>
       </c>
@@ -43601,6 +44591,9 @@
       <c r="B130" t="s">
         <v>21</v>
       </c>
+      <c r="D130">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E130">
         <v>0.58179999999999998</v>
       </c>
@@ -43624,6 +44617,9 @@
       <c r="B131" t="s">
         <v>22</v>
       </c>
+      <c r="D131">
+        <v>0.84729999999999994</v>
+      </c>
       <c r="E131">
         <v>0.84729999999999994</v>
       </c>
@@ -43647,6 +44643,9 @@
       <c r="B132" t="s">
         <v>23</v>
       </c>
+      <c r="D132">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E132">
         <v>0.58179999999999998</v>
       </c>
@@ -43670,6 +44669,9 @@
       <c r="B133" t="s">
         <v>24</v>
       </c>
+      <c r="D133">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E133">
         <v>0.58179999999999998</v>
       </c>
@@ -43693,6 +44695,9 @@
       <c r="B134" t="s">
         <v>25</v>
       </c>
+      <c r="D134">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E134">
         <v>0.58179999999999998</v>
       </c>
@@ -43716,6 +44721,9 @@
       <c r="B135" t="s">
         <v>26</v>
       </c>
+      <c r="D135">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E135">
         <v>0.58179999999999998</v>
       </c>
@@ -43739,6 +44747,9 @@
       <c r="B136" t="s">
         <v>27</v>
       </c>
+      <c r="D136">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E136">
         <v>0.58179999999999998</v>
       </c>
@@ -43762,6 +44773,9 @@
       <c r="B137" t="s">
         <v>28</v>
       </c>
+      <c r="D137">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E137">
         <v>0.58179999999999998</v>
       </c>
@@ -43785,6 +44799,9 @@
       <c r="B138" t="s">
         <v>29</v>
       </c>
+      <c r="D138">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E138">
         <v>0.58179999999999998</v>
       </c>
@@ -43808,6 +44825,9 @@
       <c r="B139" t="s">
         <v>30</v>
       </c>
+      <c r="D139">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E139">
         <v>0.58179999999999998</v>
       </c>
@@ -43831,6 +44851,9 @@
       <c r="B140" t="s">
         <v>31</v>
       </c>
+      <c r="D140">
+        <v>0.84729999999999994</v>
+      </c>
       <c r="E140">
         <v>0.84729999999999994</v>
       </c>
@@ -43854,6 +44877,9 @@
       <c r="B141" t="s">
         <v>32</v>
       </c>
+      <c r="D141">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E141">
         <v>0.58179999999999998</v>
       </c>
@@ -43877,6 +44903,9 @@
       <c r="B142" t="s">
         <v>33</v>
       </c>
+      <c r="D142">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E142">
         <v>0.58179999999999998</v>
       </c>
@@ -43900,6 +44929,9 @@
       <c r="B143" t="s">
         <v>34</v>
       </c>
+      <c r="D143">
+        <v>0.58179999999999998</v>
+      </c>
       <c r="E143">
         <v>0.58179999999999998</v>
       </c>
@@ -43926,6 +44958,9 @@
       <c r="B144" t="s">
         <v>7</v>
       </c>
+      <c r="D144">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E144">
         <v>0.29980000000000007</v>
       </c>
@@ -43949,6 +44984,9 @@
       <c r="B145" t="s">
         <v>8</v>
       </c>
+      <c r="D145">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E145">
         <v>0.29980000000000007</v>
       </c>
@@ -43972,6 +45010,9 @@
       <c r="B146" t="s">
         <v>9</v>
       </c>
+      <c r="D146">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E146">
         <v>0.29980000000000007</v>
       </c>
@@ -43995,6 +45036,9 @@
       <c r="B147" t="s">
         <v>10</v>
       </c>
+      <c r="D147">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E147">
         <v>0.29980000000000007</v>
       </c>
@@ -44018,6 +45062,9 @@
       <c r="B148" t="s">
         <v>11</v>
       </c>
+      <c r="D148">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E148">
         <v>0.29980000000000007</v>
       </c>
@@ -44041,6 +45088,9 @@
       <c r="B149" t="s">
         <v>12</v>
       </c>
+      <c r="D149">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E149">
         <v>0.29980000000000007</v>
       </c>
@@ -44064,6 +45114,9 @@
       <c r="B150" t="s">
         <v>13</v>
       </c>
+      <c r="D150">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E150">
         <v>0.29980000000000007</v>
       </c>
@@ -44087,6 +45140,9 @@
       <c r="B151" t="s">
         <v>14</v>
       </c>
+      <c r="D151">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E151">
         <v>0.29980000000000007</v>
       </c>
@@ -44110,6 +45166,9 @@
       <c r="B152" t="s">
         <v>15</v>
       </c>
+      <c r="D152">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E152">
         <v>0.29980000000000007</v>
       </c>
@@ -44133,6 +45192,9 @@
       <c r="B153" t="s">
         <v>16</v>
       </c>
+      <c r="D153">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E153">
         <v>0.29980000000000007</v>
       </c>
@@ -44156,6 +45218,9 @@
       <c r="B154" t="s">
         <v>17</v>
       </c>
+      <c r="D154">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E154">
         <v>0.29980000000000007</v>
       </c>
@@ -44179,6 +45244,9 @@
       <c r="B155" t="s">
         <v>18</v>
       </c>
+      <c r="D155">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E155">
         <v>0.29980000000000007</v>
       </c>
@@ -44202,6 +45270,9 @@
       <c r="B156" t="s">
         <v>19</v>
       </c>
+      <c r="D156">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E156">
         <v>0.29980000000000007</v>
       </c>
@@ -44225,6 +45296,9 @@
       <c r="B157" t="s">
         <v>20</v>
       </c>
+      <c r="D157">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E157">
         <v>0.29980000000000007</v>
       </c>
@@ -44248,6 +45322,9 @@
       <c r="B158" t="s">
         <v>21</v>
       </c>
+      <c r="D158">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E158">
         <v>0.29980000000000007</v>
       </c>
@@ -44271,6 +45348,9 @@
       <c r="B159" t="s">
         <v>22</v>
       </c>
+      <c r="D159">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E159">
         <v>0.29980000000000007</v>
       </c>
@@ -44294,6 +45374,9 @@
       <c r="B160" t="s">
         <v>23</v>
       </c>
+      <c r="D160">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E160">
         <v>0.29980000000000007</v>
       </c>
@@ -44317,6 +45400,9 @@
       <c r="B161" t="s">
         <v>24</v>
       </c>
+      <c r="D161">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E161">
         <v>0.29980000000000007</v>
       </c>
@@ -44340,6 +45426,9 @@
       <c r="B162" t="s">
         <v>25</v>
       </c>
+      <c r="D162">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E162">
         <v>0.29980000000000007</v>
       </c>
@@ -44363,6 +45452,9 @@
       <c r="B163" t="s">
         <v>26</v>
       </c>
+      <c r="D163">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E163">
         <v>0.29980000000000007</v>
       </c>
@@ -44386,6 +45478,9 @@
       <c r="B164" t="s">
         <v>27</v>
       </c>
+      <c r="D164">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E164">
         <v>0.29980000000000007</v>
       </c>
@@ -44409,6 +45504,9 @@
       <c r="B165" t="s">
         <v>28</v>
       </c>
+      <c r="D165">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E165">
         <v>0.29980000000000007</v>
       </c>
@@ -44432,6 +45530,9 @@
       <c r="B166" t="s">
         <v>29</v>
       </c>
+      <c r="D166">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E166">
         <v>0.29980000000000007</v>
       </c>
@@ -44455,6 +45556,9 @@
       <c r="B167" t="s">
         <v>30</v>
       </c>
+      <c r="D167">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E167">
         <v>0.29980000000000007</v>
       </c>
@@ -44478,6 +45582,9 @@
       <c r="B168" t="s">
         <v>31</v>
       </c>
+      <c r="D168">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E168">
         <v>0.29980000000000007</v>
       </c>
@@ -44501,6 +45608,9 @@
       <c r="B169" t="s">
         <v>32</v>
       </c>
+      <c r="D169">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E169">
         <v>0.29980000000000007</v>
       </c>
@@ -44524,6 +45634,9 @@
       <c r="B170" t="s">
         <v>33</v>
       </c>
+      <c r="D170">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E170">
         <v>0.29980000000000007</v>
       </c>
@@ -44547,6 +45660,9 @@
       <c r="B171" t="s">
         <v>34</v>
       </c>
+      <c r="D171">
+        <v>0.29980000000000007</v>
+      </c>
       <c r="E171">
         <v>0.29980000000000007</v>
       </c>
@@ -44573,6 +45689,9 @@
       <c r="B172" t="s">
         <v>7</v>
       </c>
+      <c r="D172">
+        <v>0.56340000000000001</v>
+      </c>
       <c r="E172">
         <v>0.55059999999999998</v>
       </c>
@@ -44596,6 +45715,9 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
+      <c r="D173">
+        <v>0.5593999999999999</v>
+      </c>
       <c r="E173">
         <v>0.56410000000000005</v>
       </c>
@@ -44619,6 +45741,9 @@
       <c r="B174" t="s">
         <v>9</v>
       </c>
+      <c r="D174">
+        <v>0.56210000000000004</v>
+      </c>
       <c r="E174">
         <v>0.56210000000000004</v>
       </c>
@@ -44642,6 +45767,9 @@
       <c r="B175" t="s">
         <v>10</v>
       </c>
+      <c r="D175">
+        <v>0.56210000000000004</v>
+      </c>
       <c r="E175">
         <v>0.5635</v>
       </c>
@@ -44665,6 +45793,9 @@
       <c r="B176" t="s">
         <v>11</v>
       </c>
+      <c r="D176">
+        <v>0.56210000000000004</v>
+      </c>
       <c r="E176">
         <v>0.56549999999999989</v>
       </c>
@@ -44688,6 +45819,9 @@
       <c r="B177" t="s">
         <v>12</v>
       </c>
+      <c r="D177">
+        <v>0.56069999999999998</v>
+      </c>
       <c r="E177">
         <v>0.56279999999999997</v>
       </c>
@@ -44711,6 +45845,9 @@
       <c r="B178" t="s">
         <v>13</v>
       </c>
+      <c r="D178">
+        <v>0.62529999999999997</v>
+      </c>
       <c r="E178">
         <v>0.61040000000000005</v>
       </c>
@@ -44734,6 +45871,9 @@
       <c r="B179" t="s">
         <v>14</v>
       </c>
+      <c r="D179">
+        <v>0.54109999999999991</v>
+      </c>
       <c r="E179">
         <v>0.53289999999999993</v>
       </c>
@@ -44757,6 +45897,9 @@
       <c r="B180" t="s">
         <v>15</v>
       </c>
+      <c r="D180">
+        <v>0.53490000000000004</v>
+      </c>
       <c r="E180">
         <v>0.5532999999999999</v>
       </c>
@@ -44780,6 +45923,9 @@
       <c r="B181" t="s">
         <v>16</v>
       </c>
+      <c r="D181">
+        <v>0.54649999999999999</v>
+      </c>
       <c r="E181">
         <v>0.54990000000000006</v>
       </c>
@@ -44803,6 +45949,9 @@
       <c r="B182" t="s">
         <v>17</v>
       </c>
+      <c r="D182">
+        <v>0.5635</v>
+      </c>
       <c r="E182">
         <v>0.56279999999999997</v>
       </c>
@@ -44826,6 +45975,9 @@
       <c r="B183" t="s">
         <v>18</v>
       </c>
+      <c r="D183">
+        <v>0.5635</v>
+      </c>
       <c r="E183">
         <v>0.56279999999999997</v>
       </c>
@@ -44849,6 +46001,9 @@
       <c r="B184" t="s">
         <v>19</v>
       </c>
+      <c r="D184">
+        <v>0.56340000000000001</v>
+      </c>
       <c r="E184">
         <v>0.55059999999999998</v>
       </c>
@@ -44872,6 +46027,9 @@
       <c r="B185" t="s">
         <v>20</v>
       </c>
+      <c r="D185">
+        <v>0.57369999999999999</v>
+      </c>
       <c r="E185">
         <v>0.55740000000000001</v>
       </c>
@@ -44895,6 +46053,9 @@
       <c r="B186" t="s">
         <v>21</v>
       </c>
+      <c r="D186">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E186">
         <v>0.57299999999999995</v>
       </c>
@@ -44918,6 +46079,9 @@
       <c r="B187" t="s">
         <v>22</v>
       </c>
+      <c r="D187">
+        <v>0.54990000000000006</v>
+      </c>
       <c r="E187">
         <v>0.53639999999999999</v>
       </c>
@@ -44941,6 +46105,9 @@
       <c r="B188" t="s">
         <v>23</v>
       </c>
+      <c r="D188">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E188">
         <v>0.57299999999999995</v>
       </c>
@@ -44964,6 +46131,9 @@
       <c r="B189" t="s">
         <v>24</v>
       </c>
+      <c r="D189">
+        <v>0.54649999999999999</v>
+      </c>
       <c r="E189">
         <v>0.54239999999999999</v>
       </c>
@@ -44987,6 +46157,9 @@
       <c r="B190" t="s">
         <v>25</v>
       </c>
+      <c r="D190">
+        <v>0.56210000000000004</v>
+      </c>
       <c r="E190">
         <v>0.54580000000000006</v>
       </c>
@@ -45010,6 +46183,9 @@
       <c r="B191" t="s">
         <v>26</v>
       </c>
+      <c r="D191">
+        <v>0.58119999999999994</v>
+      </c>
       <c r="E191">
         <v>0.57979999999999998</v>
       </c>
@@ -45033,6 +46209,9 @@
       <c r="B192" t="s">
         <v>27</v>
       </c>
+      <c r="D192">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E192">
         <v>0.57299999999999995</v>
       </c>
@@ -45056,6 +46235,9 @@
       <c r="B193" t="s">
         <v>28</v>
       </c>
+      <c r="D193">
+        <v>0.55259999999999998</v>
+      </c>
       <c r="E193">
         <v>0.52950000000000008</v>
       </c>
@@ -45079,6 +46261,9 @@
       <c r="B194" t="s">
         <v>29</v>
       </c>
+      <c r="D194">
+        <v>0.62129999999999996</v>
+      </c>
       <c r="E194">
         <v>0.61990000000000001</v>
       </c>
@@ -45102,6 +46287,9 @@
       <c r="B195" t="s">
         <v>30</v>
       </c>
+      <c r="D195">
+        <v>0.54100000000000004</v>
+      </c>
       <c r="E195">
         <v>0.53570000000000007</v>
       </c>
@@ -45125,6 +46313,9 @@
       <c r="B196" t="s">
         <v>31</v>
       </c>
+      <c r="D196">
+        <v>0.53700000000000003</v>
+      </c>
       <c r="E196">
         <v>0.53360000000000007</v>
       </c>
@@ -45148,6 +46339,9 @@
       <c r="B197" t="s">
         <v>32</v>
       </c>
+      <c r="D197">
+        <v>0.63080000000000003</v>
+      </c>
       <c r="E197">
         <v>0.5887</v>
       </c>
@@ -45171,6 +46365,9 @@
       <c r="B198" t="s">
         <v>33</v>
       </c>
+      <c r="D198">
+        <v>0.62129999999999996</v>
+      </c>
       <c r="E198">
         <v>0.61990000000000001</v>
       </c>
@@ -45194,6 +46391,9 @@
       <c r="B199" t="s">
         <v>34</v>
       </c>
+      <c r="D199">
+        <v>0.54849999999999999</v>
+      </c>
       <c r="E199">
         <v>0.55200000000000005</v>
       </c>
@@ -45220,6 +46420,9 @@
       <c r="B200" t="s">
         <v>7</v>
       </c>
+      <c r="D200">
+        <v>0.8448</v>
+      </c>
       <c r="E200">
         <v>0.84230000000000005</v>
       </c>
@@ -45243,6 +46446,9 @@
       <c r="B201" t="s">
         <v>8</v>
       </c>
+      <c r="D201">
+        <v>0.89219999999999999</v>
+      </c>
       <c r="E201">
         <v>0.89159999999999995</v>
       </c>
@@ -45266,6 +46472,9 @@
       <c r="B202" t="s">
         <v>9</v>
       </c>
+      <c r="D202">
+        <v>0.88880000000000003</v>
+      </c>
       <c r="E202">
         <v>0.87080000000000002</v>
       </c>
@@ -45289,6 +46498,9 @@
       <c r="B203" t="s">
         <v>10</v>
       </c>
+      <c r="D203">
+        <v>0.81579999999999997</v>
+      </c>
       <c r="E203">
         <v>0.78859999999999997</v>
       </c>
@@ -45312,6 +46524,9 @@
       <c r="B204" t="s">
         <v>11</v>
       </c>
+      <c r="D204">
+        <v>0.81850000000000001</v>
+      </c>
       <c r="E204">
         <v>0.7964</v>
       </c>
@@ -45335,6 +46550,9 @@
       <c r="B205" t="s">
         <v>12</v>
       </c>
+      <c r="D205">
+        <v>0.89159999999999995</v>
+      </c>
       <c r="E205">
         <v>0.88929999999999998</v>
       </c>
@@ -45358,6 +46576,9 @@
       <c r="B206" t="s">
         <v>13</v>
       </c>
+      <c r="D206">
+        <v>0.80979999999999996</v>
+      </c>
       <c r="E206">
         <v>0.7258</v>
       </c>
@@ -45381,6 +46602,9 @@
       <c r="B207" t="s">
         <v>14</v>
       </c>
+      <c r="D207">
+        <v>0.8004</v>
+      </c>
       <c r="E207">
         <v>0.76939999999999997</v>
       </c>
@@ -45404,6 +46628,9 @@
       <c r="B208" t="s">
         <v>15</v>
       </c>
+      <c r="D208">
+        <v>0.84</v>
+      </c>
       <c r="E208">
         <v>0.84179999999999999</v>
       </c>
@@ -45427,6 +46654,9 @@
       <c r="B209" t="s">
         <v>16</v>
       </c>
+      <c r="D209">
+        <v>0.79879999999999995</v>
+      </c>
       <c r="E209">
         <v>0.7742</v>
       </c>
@@ -45450,6 +46680,9 @@
       <c r="B210" t="s">
         <v>17</v>
       </c>
+      <c r="D210">
+        <v>0.85570000000000002</v>
+      </c>
       <c r="E210">
         <v>0.85</v>
       </c>
@@ -45473,6 +46706,9 @@
       <c r="B211" t="s">
         <v>18</v>
       </c>
+      <c r="D211">
+        <v>0.85570000000000002</v>
+      </c>
       <c r="E211">
         <v>0.85</v>
       </c>
@@ -45496,6 +46732,9 @@
       <c r="B212" t="s">
         <v>19</v>
       </c>
+      <c r="D212">
+        <v>0.8448</v>
+      </c>
       <c r="E212">
         <v>0.84230000000000005</v>
       </c>
@@ -45519,6 +46758,9 @@
       <c r="B213" t="s">
         <v>20</v>
       </c>
+      <c r="D213">
+        <v>0.80279999999999996</v>
+      </c>
       <c r="E213">
         <v>0.71279999999999999</v>
       </c>
@@ -45542,6 +46784,9 @@
       <c r="B214" t="s">
         <v>21</v>
       </c>
+      <c r="D214">
+        <v>0.89859999999999995</v>
+      </c>
       <c r="E214">
         <v>0.89859999999999995</v>
       </c>
@@ -45565,6 +46810,9 @@
       <c r="B215" t="s">
         <v>22</v>
       </c>
+      <c r="D215">
+        <v>0.79980000000000007</v>
+      </c>
       <c r="E215">
         <v>0.77300000000000002</v>
       </c>
@@ -45588,6 +46836,9 @@
       <c r="B216" t="s">
         <v>23</v>
       </c>
+      <c r="D216">
+        <v>0.89859999999999995</v>
+      </c>
       <c r="E216">
         <v>0.89859999999999995</v>
       </c>
@@ -45611,6 +46862,9 @@
       <c r="B217" t="s">
         <v>24</v>
       </c>
+      <c r="D217">
+        <v>0.79879999999999995</v>
+      </c>
       <c r="E217">
         <v>0.77139999999999997</v>
       </c>
@@ -45634,6 +46888,9 @@
       <c r="B218" t="s">
         <v>25</v>
       </c>
+      <c r="D218">
+        <v>0.8518</v>
+      </c>
       <c r="E218">
         <v>0.78879999999999995</v>
       </c>
@@ -45657,6 +46914,9 @@
       <c r="B219" t="s">
         <v>26</v>
       </c>
+      <c r="D219">
+        <v>0.79659999999999997</v>
+      </c>
       <c r="E219">
         <v>0.7843</v>
       </c>
@@ -45680,6 +46940,9 @@
       <c r="B220" t="s">
         <v>27</v>
       </c>
+      <c r="D220">
+        <v>0.89859999999999995</v>
+      </c>
       <c r="E220">
         <v>0.89859999999999995</v>
       </c>
@@ -45703,6 +46966,9 @@
       <c r="B221" t="s">
         <v>28</v>
       </c>
+      <c r="D221">
+        <v>0.85870000000000002</v>
+      </c>
       <c r="E221">
         <v>0.84040000000000004</v>
       </c>
@@ -45726,6 +46992,9 @@
       <c r="B222" t="s">
         <v>29</v>
       </c>
+      <c r="D222">
+        <v>0.80979999999999996</v>
+      </c>
       <c r="E222">
         <v>0.72950000000000004</v>
       </c>
@@ -45749,6 +47018,9 @@
       <c r="B223" t="s">
         <v>30</v>
       </c>
+      <c r="D223">
+        <v>0.85870000000000002</v>
+      </c>
       <c r="E223">
         <v>0.83809999999999996</v>
       </c>
@@ -45772,6 +47044,9 @@
       <c r="B224" t="s">
         <v>31</v>
       </c>
+      <c r="D224">
+        <v>0.79879999999999995</v>
+      </c>
       <c r="E224">
         <v>0.75370000000000004</v>
       </c>
@@ -45795,6 +47070,9 @@
       <c r="B225" t="s">
         <v>32</v>
       </c>
+      <c r="D225">
+        <v>0.8135</v>
+      </c>
       <c r="E225">
         <v>0.72059999999999991</v>
       </c>
@@ -45818,6 +47096,9 @@
       <c r="B226" t="s">
         <v>33</v>
       </c>
+      <c r="D226">
+        <v>0.80979999999999996</v>
+      </c>
       <c r="E226">
         <v>0.72950000000000004</v>
       </c>
@@ -45841,6 +47122,9 @@
       <c r="B227" t="s">
         <v>34</v>
       </c>
+      <c r="D227">
+        <v>0.80020000000000002</v>
+      </c>
       <c r="E227">
         <v>0.72460000000000002</v>
       </c>
@@ -45867,6 +47151,9 @@
       <c r="B228" t="s">
         <v>7</v>
       </c>
+      <c r="D228">
+        <v>0.67969999999999997</v>
+      </c>
       <c r="E228">
         <v>0.65250000000000008</v>
       </c>
@@ -45890,6 +47177,9 @@
       <c r="B229" t="s">
         <v>8</v>
       </c>
+      <c r="D229">
+        <v>0.67619999999999991</v>
+      </c>
       <c r="E229">
         <v>0.59230000000000005</v>
       </c>
@@ -45913,6 +47203,9 @@
       <c r="B230" t="s">
         <v>9</v>
       </c>
+      <c r="D230">
+        <v>0.62890000000000001</v>
+      </c>
       <c r="E230">
         <v>0.56259999999999999</v>
       </c>
@@ -45936,6 +47229,9 @@
       <c r="B231" t="s">
         <v>10</v>
       </c>
+      <c r="D231">
+        <v>0.6643</v>
+      </c>
       <c r="E231">
         <v>0.59220000000000006</v>
       </c>
@@ -45959,6 +47255,9 @@
       <c r="B232" t="s">
         <v>11</v>
       </c>
+      <c r="D232">
+        <v>0.67969999999999997</v>
+      </c>
       <c r="E232">
         <v>0.59099999999999997</v>
       </c>
@@ -45982,6 +47281,9 @@
       <c r="B233" t="s">
         <v>12</v>
       </c>
+      <c r="D233">
+        <v>0.67500000000000004</v>
+      </c>
       <c r="E233">
         <v>0.59939999999999993</v>
       </c>
@@ -46005,6 +47307,9 @@
       <c r="B234" t="s">
         <v>13</v>
       </c>
+      <c r="D234">
+        <v>0.69979999999999998</v>
+      </c>
       <c r="E234">
         <v>0.5897</v>
       </c>
@@ -46028,6 +47333,9 @@
       <c r="B235" t="s">
         <v>14</v>
       </c>
+      <c r="D235">
+        <v>0.62409999999999999</v>
+      </c>
       <c r="E235">
         <v>0.52479999999999993</v>
       </c>
@@ -46051,6 +47359,9 @@
       <c r="B236" t="s">
         <v>15</v>
       </c>
+      <c r="D236">
+        <v>0.67849999999999999</v>
+      </c>
       <c r="E236">
         <v>0.58630000000000004</v>
       </c>
@@ -46074,6 +47385,9 @@
       <c r="B237" t="s">
         <v>16</v>
       </c>
+      <c r="D237">
+        <v>0.67030000000000001</v>
+      </c>
       <c r="E237">
         <v>0.59460000000000002</v>
       </c>
@@ -46097,6 +47411,9 @@
       <c r="B238" t="s">
         <v>17</v>
       </c>
+      <c r="D238">
+        <v>0.64300000000000002</v>
+      </c>
       <c r="E238">
         <v>0.56499999999999995</v>
       </c>
@@ -46120,6 +47437,9 @@
       <c r="B239" t="s">
         <v>18</v>
       </c>
+      <c r="D239">
+        <v>0.64300000000000002</v>
+      </c>
       <c r="E239">
         <v>0.56499999999999995</v>
       </c>
@@ -46143,6 +47463,9 @@
       <c r="B240" t="s">
         <v>19</v>
       </c>
+      <c r="D240">
+        <v>0.67969999999999997</v>
+      </c>
       <c r="E240">
         <v>0.65250000000000008</v>
       </c>
@@ -46166,6 +47489,9 @@
       <c r="B241" t="s">
         <v>20</v>
       </c>
+      <c r="D241">
+        <v>0.67490000000000006</v>
+      </c>
       <c r="E241">
         <v>0.53899999999999992</v>
       </c>
@@ -46189,6 +47515,9 @@
       <c r="B242" t="s">
         <v>21</v>
       </c>
+      <c r="D242">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="E242">
         <v>0.74590000000000001</v>
       </c>
@@ -46212,6 +47541,9 @@
       <c r="B243" t="s">
         <v>22</v>
       </c>
+      <c r="D243">
+        <v>0.62529999999999997</v>
+      </c>
       <c r="E243">
         <v>0.56979999999999997</v>
       </c>
@@ -46235,6 +47567,9 @@
       <c r="B244" t="s">
         <v>23</v>
       </c>
+      <c r="D244">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="E244">
         <v>0.74590000000000001</v>
       </c>
@@ -46258,6 +47593,9 @@
       <c r="B245" t="s">
         <v>24</v>
       </c>
+      <c r="D245">
+        <v>0.68199999999999994</v>
+      </c>
       <c r="E245">
         <v>0.6157999999999999</v>
       </c>
@@ -46281,6 +47619,9 @@
       <c r="B246" t="s">
         <v>25</v>
       </c>
+      <c r="D246">
+        <v>0.73059999999999992</v>
+      </c>
       <c r="E246">
         <v>0.61109999999999998</v>
       </c>
@@ -46304,6 +47645,9 @@
       <c r="B247" t="s">
         <v>26</v>
       </c>
+      <c r="D247">
+        <v>0.64529999999999998</v>
+      </c>
       <c r="E247">
         <v>0.67399999999999993</v>
       </c>
@@ -46327,6 +47671,9 @@
       <c r="B248" t="s">
         <v>27</v>
       </c>
+      <c r="D248">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="E248">
         <v>0.74590000000000001</v>
       </c>
@@ -46350,6 +47697,9 @@
       <c r="B249" t="s">
         <v>28</v>
       </c>
+      <c r="D249">
+        <v>0.61939999999999995</v>
+      </c>
       <c r="E249">
         <v>0.53790000000000004</v>
       </c>
@@ -46373,6 +47723,9 @@
       <c r="B250" t="s">
         <v>29</v>
       </c>
+      <c r="D250">
+        <v>0.70090000000000008</v>
+      </c>
       <c r="E250">
         <v>0.56620000000000004</v>
       </c>
@@ -46396,6 +47749,9 @@
       <c r="B251" t="s">
         <v>30</v>
       </c>
+      <c r="D251">
+        <v>0.61</v>
+      </c>
       <c r="E251">
         <v>0.56140000000000001</v>
       </c>
@@ -46419,6 +47775,9 @@
       <c r="B252" t="s">
         <v>31</v>
       </c>
+      <c r="D252">
+        <v>0.60409999999999997</v>
+      </c>
       <c r="E252">
         <v>0.53190000000000004</v>
       </c>
@@ -46442,6 +47801,9 @@
       <c r="B253" t="s">
         <v>32</v>
       </c>
+      <c r="D253">
+        <v>0.69969999999999999</v>
+      </c>
       <c r="E253">
         <v>0.57340000000000002</v>
       </c>
@@ -46465,6 +47827,9 @@
       <c r="B254" t="s">
         <v>33</v>
       </c>
+      <c r="D254">
+        <v>0.70090000000000008</v>
+      </c>
       <c r="E254">
         <v>0.56620000000000004</v>
       </c>
@@ -46488,6 +47853,9 @@
       <c r="B255" t="s">
         <v>34</v>
       </c>
+      <c r="D255">
+        <v>0.63590000000000002</v>
+      </c>
       <c r="E255">
         <v>0.55560000000000009</v>
       </c>
@@ -46514,6 +47882,9 @@
       <c r="B256" t="s">
         <v>7</v>
       </c>
+      <c r="D256">
+        <v>0.51039999999999996</v>
+      </c>
       <c r="E256">
         <v>0.51039999999999996</v>
       </c>
@@ -46537,6 +47908,9 @@
       <c r="B257" t="s">
         <v>8</v>
       </c>
+      <c r="D257">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E257">
         <v>0.66159999999999997</v>
       </c>
@@ -46560,6 +47934,9 @@
       <c r="B258" t="s">
         <v>9</v>
       </c>
+      <c r="D258">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E258">
         <v>0.66159999999999997</v>
       </c>
@@ -46583,6 +47960,9 @@
       <c r="B259" t="s">
         <v>10</v>
       </c>
+      <c r="D259">
+        <v>0.54</v>
+      </c>
       <c r="E259">
         <v>0.51919999999999999</v>
       </c>
@@ -46606,6 +47986,9 @@
       <c r="B260" t="s">
         <v>11</v>
       </c>
+      <c r="D260">
+        <v>0.54079999999999995</v>
+      </c>
       <c r="E260">
         <v>0.5242</v>
       </c>
@@ -46629,6 +48012,9 @@
       <c r="B261" t="s">
         <v>12</v>
       </c>
+      <c r="D261">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E261">
         <v>0.66159999999999997</v>
       </c>
@@ -46652,6 +48038,9 @@
       <c r="B262" t="s">
         <v>13</v>
       </c>
+      <c r="D262">
+        <v>0.51639999999999997</v>
+      </c>
       <c r="E262">
         <v>0.44899999999999995</v>
       </c>
@@ -46675,6 +48064,9 @@
       <c r="B263" t="s">
         <v>14</v>
       </c>
+      <c r="D263">
+        <v>0.53520000000000001</v>
+      </c>
       <c r="E263">
         <v>0.49560000000000004</v>
       </c>
@@ -46698,6 +48090,9 @@
       <c r="B264" t="s">
         <v>15</v>
       </c>
+      <c r="D264">
+        <v>0.51039999999999996</v>
+      </c>
       <c r="E264">
         <v>0.51039999999999996</v>
       </c>
@@ -46721,6 +48116,9 @@
       <c r="B265" t="s">
         <v>16</v>
       </c>
+      <c r="D265">
+        <v>0.50439999999999996</v>
+      </c>
       <c r="E265">
         <v>0.47260000000000002</v>
       </c>
@@ -46744,6 +48142,9 @@
       <c r="B266" t="s">
         <v>17</v>
       </c>
+      <c r="D266">
+        <v>0.66080000000000005</v>
+      </c>
       <c r="E266">
         <v>0.6532</v>
       </c>
@@ -46767,6 +48168,9 @@
       <c r="B267" t="s">
         <v>18</v>
       </c>
+      <c r="D267">
+        <v>0.66080000000000005</v>
+      </c>
       <c r="E267">
         <v>0.6532</v>
       </c>
@@ -46790,6 +48194,9 @@
       <c r="B268" t="s">
         <v>19</v>
       </c>
+      <c r="D268">
+        <v>0.51039999999999996</v>
+      </c>
       <c r="E268">
         <v>0.51039999999999996</v>
       </c>
@@ -46813,6 +48220,9 @@
       <c r="B269" t="s">
         <v>20</v>
       </c>
+      <c r="D269">
+        <v>0.51059999999999994</v>
+      </c>
       <c r="E269">
         <v>0.41820000000000002</v>
       </c>
@@ -46836,6 +48246,9 @@
       <c r="B270" t="s">
         <v>21</v>
       </c>
+      <c r="D270">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E270">
         <v>0.66159999999999997</v>
       </c>
@@ -46859,6 +48272,9 @@
       <c r="B271" t="s">
         <v>22</v>
       </c>
+      <c r="D271">
+        <v>0.50520000000000009</v>
+      </c>
       <c r="E271">
         <v>0.45240000000000002</v>
       </c>
@@ -46882,6 +48298,9 @@
       <c r="B272" t="s">
         <v>23</v>
       </c>
+      <c r="D272">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E272">
         <v>0.66159999999999997</v>
       </c>
@@ -46905,6 +48324,9 @@
       <c r="B273" t="s">
         <v>24</v>
       </c>
+      <c r="D273">
+        <v>0.50439999999999996</v>
+      </c>
       <c r="E273">
         <v>0.46200000000000008</v>
       </c>
@@ -46928,6 +48350,9 @@
       <c r="B274" t="s">
         <v>25</v>
       </c>
+      <c r="D274">
+        <v>0.53899999999999992</v>
+      </c>
       <c r="E274">
         <v>0.47360000000000002</v>
       </c>
@@ -46951,6 +48376,9 @@
       <c r="B275" t="s">
         <v>26</v>
       </c>
+      <c r="D275">
+        <v>0.51259999999999994</v>
+      </c>
       <c r="E275">
         <v>0.51219999999999999</v>
       </c>
@@ -46974,6 +48402,9 @@
       <c r="B276" t="s">
         <v>27</v>
       </c>
+      <c r="D276">
+        <v>0.66159999999999997</v>
+      </c>
       <c r="E276">
         <v>0.66159999999999997</v>
       </c>
@@ -46997,6 +48428,9 @@
       <c r="B277" t="s">
         <v>28</v>
       </c>
+      <c r="D277">
+        <v>0.63819999999999999</v>
+      </c>
       <c r="E277">
         <v>0.62860000000000005</v>
       </c>
@@ -47020,6 +48454,9 @@
       <c r="B278" t="s">
         <v>29</v>
       </c>
+      <c r="D278">
+        <v>0.51659999999999995</v>
+      </c>
       <c r="E278">
         <v>0.44979999999999998</v>
       </c>
@@ -47043,6 +48480,9 @@
       <c r="B279" t="s">
         <v>30</v>
       </c>
+      <c r="D279">
+        <v>0.63819999999999999</v>
+      </c>
       <c r="E279">
         <v>0.62660000000000005</v>
       </c>
@@ -47066,6 +48506,9 @@
       <c r="B280" t="s">
         <v>31</v>
       </c>
+      <c r="D280">
+        <v>0.53960000000000008</v>
+      </c>
       <c r="E280">
         <v>0.42779999999999996</v>
       </c>
@@ -47089,6 +48532,9 @@
       <c r="B281" t="s">
         <v>32</v>
       </c>
+      <c r="D281">
+        <v>0.51839999999999997</v>
+      </c>
       <c r="E281">
         <v>0.43200000000000005</v>
       </c>
@@ -47112,6 +48558,9 @@
       <c r="B282" t="s">
         <v>33</v>
       </c>
+      <c r="D282">
+        <v>0.51659999999999995</v>
+      </c>
       <c r="E282">
         <v>0.44979999999999998</v>
       </c>
@@ -47134,6 +48583,9 @@
     <row r="283" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>34</v>
+      </c>
+      <c r="D283">
+        <v>0.50380000000000003</v>
       </c>
       <c r="E283">
         <v>0.41339999999999999</v>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FastICA" sheetId="1" r:id="rId1"/>
-    <sheet name="RPCA" sheetId="2" r:id="rId2"/>
-    <sheet name="PCA" sheetId="3" r:id="rId3"/>
-    <sheet name="FA" sheetId="6" r:id="rId4"/>
-    <sheet name="TSVD" sheetId="7" r:id="rId5"/>
-    <sheet name="KPCAlinear" sheetId="4" r:id="rId6"/>
-    <sheet name="KPCArbf" sheetId="5" r:id="rId7"/>
+    <sheet name="summary" sheetId="8" r:id="rId2"/>
+    <sheet name="RPCA" sheetId="2" r:id="rId3"/>
+    <sheet name="PCA" sheetId="3" r:id="rId4"/>
+    <sheet name="FA" sheetId="6" r:id="rId5"/>
+    <sheet name="TSVD" sheetId="7" r:id="rId6"/>
+    <sheet name="KPCAlinear" sheetId="4" r:id="rId7"/>
+    <sheet name="KPCArbf" sheetId="5" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="68">
   <si>
     <t>1Feature</t>
   </si>
@@ -215,13 +216,31 @@
     <t>Average Error over 26 classifiers with KPCArbf</t>
   </si>
   <si>
-    <t>Average Error over 26 classifiers with linear</t>
-  </si>
-  <si>
     <t>Error Rates  PCA</t>
   </si>
   <si>
     <t>Average Error over 26 classifiers with TSVD</t>
+  </si>
+  <si>
+    <t>Average Error rates over 26 classifiers with FICA</t>
+  </si>
+  <si>
+    <t>Average Error rates over 26 classifiers with RPCA</t>
+  </si>
+  <si>
+    <t>Average Error rate over 26 classifiers with PCA</t>
+  </si>
+  <si>
+    <t>Average Error rate over 26 classifiers with FA</t>
+  </si>
+  <si>
+    <t>Average Error rate over 26 classifiers with kernal linear PCA</t>
+  </si>
+  <si>
+    <t>Average Error rate over 26 classifiers with kernel linear</t>
+  </si>
+  <si>
+    <t>Average Error Rate over 26 classifiers with Kernel RBF PCA</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1728,7 @@
         <v>0.4513321428571429</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:F31)/28</f>
         <v>0.43222142857142842</v>
       </c>
       <c r="P4">
@@ -1829,7 +1848,7 @@
         <v>0.62820714285714274</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f>SUM(F60:F87)/28</f>
         <v>0.60020714285714294</v>
       </c>
       <c r="P6">
@@ -1877,6 +1896,33 @@
       <c r="J7">
         <v>0.3075</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f>SUM(D88:D115)/26</f>
+        <v>0.84020769230769221</v>
+      </c>
+      <c r="N7">
+        <f>SUM(E88:E115)/28</f>
+        <v>0.77787142857142855</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F88:F115)/28</f>
+        <v>0.77715714285714277</v>
+      </c>
+      <c r="P7">
+        <f>SUM(G88:G115)/28</f>
+        <v>0.78569999999999973</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(H88:H115)/28</f>
+        <v>0.78309285714285704</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I88:I115)/28</f>
+        <v>0.77764642857142874</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1910,28 +1956,28 @@
         <v>43</v>
       </c>
       <c r="N8">
-        <f>SUM(E116:E143)/26</f>
-        <v>0.47703076923076931</v>
+        <f t="shared" ref="N8:S8" si="3">SUM(E116:E143)/28</f>
+        <v>0.44295714285714294</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:S8" si="3">SUM(F116:F143)/26</f>
-        <v>0.48968846153846152</v>
+        <f t="shared" si="3"/>
+        <v>0.45471071428571425</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0.51702692307692311</v>
+        <v>0.48009642857142859</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.47996538461538463</v>
+        <v>0.44568214285714286</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0.45853076923076913</v>
+        <v>0.42577857142857134</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0.45213461538461536</v>
+        <v>0.41983928571428569</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1966,28 +2012,28 @@
         <v>38</v>
       </c>
       <c r="N9">
-        <f>SUM(E144:E171)/26</f>
-        <v>0.26565769230769237</v>
+        <f t="shared" ref="N9:S9" si="4">SUM(E144:E171)/28</f>
+        <v>0.24668214285714291</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="4">SUM(F144:F171)/26</f>
-        <v>0.24727692307692314</v>
+        <f t="shared" si="4"/>
+        <v>0.22961428571428577</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.24286538461538471</v>
+        <v>0.22551785714285724</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.243373076923077</v>
+        <v>0.22598928571428578</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>0.24531923076923084</v>
+        <v>0.22779642857142865</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0.25195000000000001</v>
+        <v>0.23395357142857146</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2022,28 +2068,28 @@
         <v>46</v>
       </c>
       <c r="N10">
-        <f>SUM(E172:E199)/26</f>
-        <v>0.60701923076923103</v>
+        <f t="shared" ref="N10:S10" si="5">SUM(E172:E199)/28</f>
+        <v>0.56366071428571451</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="5">SUM(F172:F199)/26</f>
-        <v>0.60553076923076943</v>
+        <f t="shared" si="5"/>
+        <v>0.56227857142857163</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.60022692307692316</v>
+        <v>0.55735357142857145</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>0.59890000000000021</v>
+        <v>0.55612142857142877</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>0.59977307692307691</v>
+        <v>0.55693214285714288</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>0.60172307692307681</v>
+        <v>0.5587428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2078,28 +2124,28 @@
         <v>44</v>
       </c>
       <c r="N11">
-        <f>SUM(E200:E227)/26</f>
-        <v>0.58679615384615391</v>
+        <f t="shared" ref="N11:S11" si="6">SUM(E200:E227)/28</f>
+        <v>0.54488214285714287</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:S11" si="6">SUM(F200:F227)/26</f>
-        <v>0.45342692307692306</v>
+        <f t="shared" si="6"/>
+        <v>0.42103928571428567</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>0.40768076923076924</v>
+        <v>0.37856071428571431</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.38975384615384623</v>
+        <v>0.36191428571428574</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.38447307692307692</v>
+        <v>0.35701071428571429</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.36195384615384624</v>
+        <v>0.33610000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2134,28 +2180,28 @@
         <v>45</v>
       </c>
       <c r="N12">
-        <f>SUM(E228:E255)/26</f>
-        <v>0.61003846153846153</v>
+        <f t="shared" ref="N12:S12" si="7">SUM(E228:E255)/28</f>
+        <v>0.56646428571428575</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:S12" si="7">SUM(F228:F255)/26</f>
-        <v>0.58744615384615373</v>
+        <f t="shared" si="7"/>
+        <v>0.54548571428571424</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.58793846153846163</v>
+        <v>0.54594285714285717</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0.59435769230769242</v>
+        <v>0.5519035714285716</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.5058076923076924</v>
+        <v>0.4696785714285715</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>0.49673076923076914</v>
+        <v>0.46124999999999988</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2190,28 +2236,28 @@
         <v>47</v>
       </c>
       <c r="N13">
-        <f>SUM(E256:E283)/26</f>
-        <v>0.25803846153846155</v>
+        <f t="shared" ref="N13:S13" si="8">SUM(E256:E283)/28</f>
+        <v>0.23960714285714285</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="8">SUM(F256:F283)/26</f>
-        <v>0.2743000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.25470714285714291</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>0.27762307692307697</v>
+        <v>0.25779285714285721</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
-        <v>0.27254615384615388</v>
+        <v>0.25307857142857143</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>0.27178461538461535</v>
+        <v>0.25237142857142852</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>0.27310769230769227</v>
+        <v>0.25359999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4241,140 +4287,641 @@
       <c r="D88">
         <v>0.79149999999999998</v>
       </c>
+      <c r="E88">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F88">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="G88">
+        <v>0.8075</v>
+      </c>
+      <c r="H88">
+        <v>0.8075</v>
+      </c>
+      <c r="I88">
+        <v>0.80730000000000002</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="D89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H89">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I89">
+        <v>0.83499999999999996</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="D90">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.74049999999999994</v>
+      </c>
+      <c r="F90">
+        <v>0.73930000000000007</v>
+      </c>
+      <c r="G90">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="H90">
+        <v>0.74120000000000008</v>
+      </c>
+      <c r="I90">
+        <v>0.72730000000000006</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="D91">
+        <v>0.73469999999999991</v>
+      </c>
+      <c r="E91">
+        <v>0.73520000000000008</v>
+      </c>
+      <c r="F91">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="G91">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="H91">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I91">
+        <v>0.72439999999999993</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="D92">
+        <v>0.73330000000000006</v>
+      </c>
+      <c r="E92">
+        <v>0.7359</v>
+      </c>
+      <c r="F92">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="G92">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="H92">
+        <v>0.74459999999999993</v>
+      </c>
+      <c r="I92">
+        <v>0.72920000000000007</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="D93">
+        <v>0.76079999999999992</v>
+      </c>
+      <c r="E93">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F93">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="G93">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="H93">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I93">
+        <v>0.75649999999999995</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="D94">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="E94">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="F94">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="G94">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H94">
+        <v>0.8075</v>
+      </c>
+      <c r="I94">
+        <v>0.79410000000000003</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="D95">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="E95">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="F95">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="G95">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="H95">
+        <v>0.7833</v>
+      </c>
+      <c r="I95">
+        <v>0.78570000000000007</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="F96">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="G96">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="H96">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="I96">
+        <v>0.78359999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E97">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="F97">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="H97">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="I97">
+        <v>0.74459999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E98">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="F98">
+        <v>0.76079999999999992</v>
+      </c>
+      <c r="G98">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="H98">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="I98">
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E99">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="F99">
+        <v>0.76079999999999992</v>
+      </c>
+      <c r="G99">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="H99">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="I99">
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F100">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="G100">
+        <v>0.8075</v>
+      </c>
+      <c r="H100">
+        <v>0.8075</v>
+      </c>
+      <c r="I100">
+        <v>0.80730000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="E101">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="F101">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G101">
+        <v>0.77069999999999994</v>
+      </c>
+      <c r="H101">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="I101">
+        <v>0.75219999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="E103">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F103">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="G103">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="H103">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="I103">
+        <v>0.75480000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E105">
+        <v>0.75750000000000006</v>
+      </c>
+      <c r="F105">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="G105">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="H105">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="I105">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="F106">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="G106">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="H106">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="I106">
+        <v>0.81279999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="E107">
+        <v>0.7661</v>
+      </c>
+      <c r="F107">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="G107">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="H107">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="I107">
+        <v>0.75919999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.79</v>
+      </c>
+      <c r="E109">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="F109">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="G109">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="H109">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="I109">
+        <v>0.78669999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="E110">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="F110">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="G110">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="H110">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="I110">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="E111">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F111">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G111">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="H111">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="I111">
+        <v>0.78959999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="D112">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="E112">
+        <v>0.7359</v>
+      </c>
+      <c r="F112">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G112">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="H112">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="I112">
+        <v>0.72470000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="E113">
+        <v>0.7903</v>
+      </c>
+      <c r="F113">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="G113">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="H113">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="I113">
+        <v>0.76149999999999995</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="E114">
+        <v>0.8044</v>
+      </c>
+      <c r="F114">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="G114">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="H114">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="I114">
+        <v>0.81210000000000004</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
+      </c>
+      <c r="D115">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="E115">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="F115">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="G115">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="H115">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I115">
+        <v>0.75580000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -8472,10 +9019,1587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0.4513321428571429</v>
+      </c>
+      <c r="C4">
+        <v>0.43222142857142842</v>
+      </c>
+      <c r="D4">
+        <v>0.42549285714285717</v>
+      </c>
+      <c r="E4">
+        <v>0.41630000000000006</v>
+      </c>
+      <c r="F4">
+        <v>0.40856071428571428</v>
+      </c>
+      <c r="G4">
+        <v>0.38730714285714296</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>0.48617692307692317</v>
+      </c>
+      <c r="J4">
+        <v>0.46252692307692311</v>
+      </c>
+      <c r="K4">
+        <v>0.45505769230769222</v>
+      </c>
+      <c r="L4">
+        <v>0.45068461538461541</v>
+      </c>
+      <c r="M4">
+        <v>0.44383461538461538</v>
+      </c>
+      <c r="N4">
+        <v>0.43356923076923071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.49082500000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.5188964285714287</v>
+      </c>
+      <c r="D5">
+        <v>0.47592857142857142</v>
+      </c>
+      <c r="E5">
+        <v>0.47592857142857142</v>
+      </c>
+      <c r="F5">
+        <v>0.490425</v>
+      </c>
+      <c r="G5">
+        <v>0.48813571428571428</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>0.52463846153846161</v>
+      </c>
+      <c r="J5">
+        <v>0.50157307692307695</v>
+      </c>
+      <c r="K5">
+        <v>0.46596153846153859</v>
+      </c>
+      <c r="L5">
+        <v>0.46252692307692317</v>
+      </c>
+      <c r="M5">
+        <v>0.46076923076923071</v>
+      </c>
+      <c r="N5">
+        <v>0.47240769230769231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0.62820714285714274</v>
+      </c>
+      <c r="C6">
+        <v>0.60020714285714294</v>
+      </c>
+      <c r="D6">
+        <v>0.56010714285714291</v>
+      </c>
+      <c r="E6">
+        <v>0.56010714285714291</v>
+      </c>
+      <c r="F6">
+        <v>0.55545357142857144</v>
+      </c>
+      <c r="G6">
+        <v>0.56180000000000008</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>0.66034999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.63752307692307697</v>
+      </c>
+      <c r="K6">
+        <v>0.61871538461538467</v>
+      </c>
+      <c r="L6">
+        <v>0.59968846153846134</v>
+      </c>
+      <c r="M6">
+        <v>0.59393461538461534</v>
+      </c>
+      <c r="N6">
+        <v>0.58634230769230777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0.47703076923076931</v>
+      </c>
+      <c r="C7">
+        <v>0.48968846153846152</v>
+      </c>
+      <c r="D7">
+        <v>0.51702692307692311</v>
+      </c>
+      <c r="E7">
+        <v>0.47996538461538463</v>
+      </c>
+      <c r="F7">
+        <v>0.45853076923076913</v>
+      </c>
+      <c r="G7">
+        <v>0.45213461538461536</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>0.47559615384615395</v>
+      </c>
+      <c r="J7">
+        <v>0.47668461538461548</v>
+      </c>
+      <c r="K7">
+        <v>0.48479615384615382</v>
+      </c>
+      <c r="L7">
+        <v>0.46531538461538458</v>
+      </c>
+      <c r="M7">
+        <v>0.45803846153846156</v>
+      </c>
+      <c r="N7">
+        <v>0.44947692307692311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>0.26565769230769237</v>
+      </c>
+      <c r="C8">
+        <v>0.24727692307692314</v>
+      </c>
+      <c r="D8">
+        <v>0.24286538461538471</v>
+      </c>
+      <c r="E8">
+        <v>0.243373076923077</v>
+      </c>
+      <c r="F8">
+        <v>0.24531923076923084</v>
+      </c>
+      <c r="G8">
+        <v>0.25195000000000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>0.24138846153846158</v>
+      </c>
+      <c r="J8">
+        <v>0.24580384615384626</v>
+      </c>
+      <c r="K8">
+        <v>0.2376576923076924</v>
+      </c>
+      <c r="L8">
+        <v>0.23021538461538466</v>
+      </c>
+      <c r="M8">
+        <v>0.23592692307692315</v>
+      </c>
+      <c r="N8">
+        <v>0.21142307692307696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0.60701923076923103</v>
+      </c>
+      <c r="C9">
+        <v>0.60553076923076943</v>
+      </c>
+      <c r="D9">
+        <v>0.60022692307692316</v>
+      </c>
+      <c r="E9">
+        <v>0.59890000000000021</v>
+      </c>
+      <c r="F9">
+        <v>0.59977307692307691</v>
+      </c>
+      <c r="G9">
+        <v>0.60172307692307681</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>0.61001923076923081</v>
+      </c>
+      <c r="J9">
+        <v>0.6123884615384616</v>
+      </c>
+      <c r="K9">
+        <v>0.60426923076923078</v>
+      </c>
+      <c r="L9">
+        <v>0.60457307692307694</v>
+      </c>
+      <c r="M9">
+        <v>0.6031192307692308</v>
+      </c>
+      <c r="N9">
+        <v>0.60151538461538467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>0.58679615384615391</v>
+      </c>
+      <c r="C10">
+        <v>0.45342692307692306</v>
+      </c>
+      <c r="D10">
+        <v>0.40768076923076924</v>
+      </c>
+      <c r="E10">
+        <v>0.38975384615384623</v>
+      </c>
+      <c r="F10">
+        <v>0.38447307692307692</v>
+      </c>
+      <c r="G10">
+        <v>0.36195384615384624</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>0.57739230769230765</v>
+      </c>
+      <c r="J10">
+        <v>0.43731153846153836</v>
+      </c>
+      <c r="K10">
+        <v>0.37698846153846155</v>
+      </c>
+      <c r="L10">
+        <v>0.36465000000000003</v>
+      </c>
+      <c r="M10">
+        <v>0.35115769230769228</v>
+      </c>
+      <c r="N10">
+        <v>0.3307461538461538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.61003846153846153</v>
+      </c>
+      <c r="C11">
+        <v>0.58744615384615373</v>
+      </c>
+      <c r="D11">
+        <v>0.58793846153846163</v>
+      </c>
+      <c r="E11">
+        <v>0.59435769230769242</v>
+      </c>
+      <c r="F11">
+        <v>0.5058076923076924</v>
+      </c>
+      <c r="G11">
+        <v>0.49673076923076914</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>0.59603846153846152</v>
+      </c>
+      <c r="J11">
+        <v>0.5770192307692309</v>
+      </c>
+      <c r="K11">
+        <v>0.56802307692307685</v>
+      </c>
+      <c r="L11">
+        <v>0.55781923076923079</v>
+      </c>
+      <c r="M11">
+        <v>0.48089615384615392</v>
+      </c>
+      <c r="N11">
+        <v>0.46807307692307687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>0.25803846153846155</v>
+      </c>
+      <c r="C12">
+        <v>0.2743000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.27762307692307697</v>
+      </c>
+      <c r="E12">
+        <v>0.27254615384615388</v>
+      </c>
+      <c r="F12">
+        <v>0.27178461538461535</v>
+      </c>
+      <c r="G12">
+        <v>0.27310769230769227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.25986153846153848</v>
+      </c>
+      <c r="K12">
+        <v>0.25992307692307692</v>
+      </c>
+      <c r="L12">
+        <v>0.2621230769230769</v>
+      </c>
+      <c r="M12">
+        <v>0.2628307692307692</v>
+      </c>
+      <c r="N12">
+        <v>0.26436153846153843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.52513461538461548</v>
+      </c>
+      <c r="B16">
+        <v>0.48584615384615376</v>
+      </c>
+      <c r="C16">
+        <v>0.46268076923076917</v>
+      </c>
+      <c r="D16">
+        <v>0.45495000000000008</v>
+      </c>
+      <c r="E16">
+        <v>0.44959615384615387</v>
+      </c>
+      <c r="F16">
+        <v>0.44789230769230759</v>
+      </c>
+      <c r="G16">
+        <v>0.43651923076923088</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>0.4832153846153846</v>
+      </c>
+      <c r="J16">
+        <v>0.46278461538461541</v>
+      </c>
+      <c r="K16">
+        <v>0.45376923076923076</v>
+      </c>
+      <c r="L16">
+        <v>0.45110769230769221</v>
+      </c>
+      <c r="M16">
+        <v>0.4459499999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.43363076923076932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.64391538461538467</v>
+      </c>
+      <c r="B17">
+        <v>0.52577692307692292</v>
+      </c>
+      <c r="C17">
+        <v>0.50601538461538464</v>
+      </c>
+      <c r="D17">
+        <v>0.47594615384615374</v>
+      </c>
+      <c r="E17">
+        <v>0.46091153846153843</v>
+      </c>
+      <c r="F17">
+        <v>0.46170000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.46798076923076909</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>0.52163076923076934</v>
+      </c>
+      <c r="J17">
+        <v>0.50570384615384611</v>
+      </c>
+      <c r="K17">
+        <v>0.46696153846153854</v>
+      </c>
+      <c r="L17">
+        <v>0.46601153846153842</v>
+      </c>
+      <c r="M17">
+        <v>0.46206923076923068</v>
+      </c>
+      <c r="N17">
+        <v>0.46432307692307695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.73654615384615407</v>
+      </c>
+      <c r="B18">
+        <v>0.6421</v>
+      </c>
+      <c r="C18">
+        <v>0.62984230769230776</v>
+      </c>
+      <c r="D18">
+        <v>0.62125384615384627</v>
+      </c>
+      <c r="E18">
+        <v>0.59198076923076937</v>
+      </c>
+      <c r="F18">
+        <v>0.59485769230769237</v>
+      </c>
+      <c r="G18">
+        <v>0.57765769230769237</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>0.66079615384615376</v>
+      </c>
+      <c r="J18">
+        <v>0.63297307692307681</v>
+      </c>
+      <c r="K18">
+        <v>0.61868461538461539</v>
+      </c>
+      <c r="L18">
+        <v>0.60307307692307688</v>
+      </c>
+      <c r="M18">
+        <v>0.58926538461538469</v>
+      </c>
+      <c r="N18">
+        <v>0.58962692307692299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.51816153846153845</v>
+      </c>
+      <c r="B19">
+        <v>0.49024999999999996</v>
+      </c>
+      <c r="C19">
+        <v>0.47927307692307691</v>
+      </c>
+      <c r="D19">
+        <v>0.48714230769230765</v>
+      </c>
+      <c r="E19">
+        <v>0.49133076923076924</v>
+      </c>
+      <c r="F19">
+        <v>0.46716923076923089</v>
+      </c>
+      <c r="G19">
+        <v>0.46990384615384617</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>0.4756653846153846</v>
+      </c>
+      <c r="J19">
+        <v>0.48133461538461536</v>
+      </c>
+      <c r="K19">
+        <v>0.49399230769230762</v>
+      </c>
+      <c r="L19">
+        <v>0.65528076923076906</v>
+      </c>
+      <c r="M19">
+        <v>0.44780000000000009</v>
+      </c>
+      <c r="N19">
+        <v>0.44181923076923096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.26971538461538469</v>
+      </c>
+      <c r="B20">
+        <v>0.24490384615384622</v>
+      </c>
+      <c r="C20">
+        <v>0.2569038461538462</v>
+      </c>
+      <c r="D20">
+        <v>0.25635384615384621</v>
+      </c>
+      <c r="E20">
+        <v>0.23808076923076935</v>
+      </c>
+      <c r="F20">
+        <v>0.23063076923076931</v>
+      </c>
+      <c r="G20">
+        <v>0.23886153846153849</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>0.2582846153846155</v>
+      </c>
+      <c r="J20">
+        <v>0.23890384615384624</v>
+      </c>
+      <c r="K20">
+        <v>0.24838846153846164</v>
+      </c>
+      <c r="L20">
+        <v>0.2433000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.23533846153846169</v>
+      </c>
+      <c r="N20">
+        <v>0.24533076923076924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.61852307692307684</v>
+      </c>
+      <c r="B21">
+        <v>0.60977692307692322</v>
+      </c>
+      <c r="C21">
+        <v>0.61166153846153848</v>
+      </c>
+      <c r="D21">
+        <v>0.6051423076923077</v>
+      </c>
+      <c r="E21">
+        <v>0.60485000000000011</v>
+      </c>
+      <c r="F21">
+        <v>0.6031653846153846</v>
+      </c>
+      <c r="G21">
+        <v>0.60151538461538467</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>0.61303461538461534</v>
+      </c>
+      <c r="J21">
+        <v>0.61240769230769243</v>
+      </c>
+      <c r="K21">
+        <v>0.6053384615384616</v>
+      </c>
+      <c r="L21">
+        <v>0.60467307692307692</v>
+      </c>
+      <c r="M21">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.60306153846153854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.76069615384615397</v>
+      </c>
+      <c r="B22">
+        <v>0.57773846153846165</v>
+      </c>
+      <c r="C22">
+        <v>0.43781538461538455</v>
+      </c>
+      <c r="D22">
+        <v>0.37668846153846164</v>
+      </c>
+      <c r="E22">
+        <v>0.36402307692307689</v>
+      </c>
+      <c r="F22">
+        <v>0.35296153846153844</v>
+      </c>
+      <c r="G22">
+        <v>0.3314423076923077</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>0.57670769230769225</v>
+      </c>
+      <c r="J22">
+        <v>0.43741538461538459</v>
+      </c>
+      <c r="K22">
+        <v>0.37684615384615383</v>
+      </c>
+      <c r="L22">
+        <v>0.36455384615384612</v>
+      </c>
+      <c r="M22">
+        <v>0.35098846153846164</v>
+      </c>
+      <c r="N22">
+        <v>0.33041538461538467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.67290769230769243</v>
+      </c>
+      <c r="B23">
+        <v>0.59626538461538459</v>
+      </c>
+      <c r="C23">
+        <v>0.57733846153846169</v>
+      </c>
+      <c r="D23">
+        <v>0.56738846153846167</v>
+      </c>
+      <c r="E23">
+        <v>0.5578653846153846</v>
+      </c>
+      <c r="F23">
+        <v>0.48121153846153847</v>
+      </c>
+      <c r="G23">
+        <v>0.46807307692307687</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <v>0.59513846153846151</v>
+      </c>
+      <c r="J23">
+        <v>0.57720384615384634</v>
+      </c>
+      <c r="K23">
+        <v>0.5654807692307694</v>
+      </c>
+      <c r="L23">
+        <v>0.55677307692307698</v>
+      </c>
+      <c r="M23">
+        <v>0.48315769230769229</v>
+      </c>
+      <c r="N23">
+        <v>0.46912692307692311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.46100769230769245</v>
+      </c>
+      <c r="B24">
+        <v>0.25985384615384616</v>
+      </c>
+      <c r="C24">
+        <v>0.25839230769230775</v>
+      </c>
+      <c r="D24">
+        <v>0.26058461538461541</v>
+      </c>
+      <c r="E24">
+        <v>0.26130000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.26153076923076923</v>
+      </c>
+      <c r="G24">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24">
+        <v>0.25878461538461539</v>
+      </c>
+      <c r="J24">
+        <v>0.26009999999999994</v>
+      </c>
+      <c r="K24">
+        <v>0.26102307692307691</v>
+      </c>
+      <c r="L24">
+        <v>0.26156923076923078</v>
+      </c>
+      <c r="M24">
+        <v>0.26299230769230769</v>
+      </c>
+      <c r="N24">
+        <v>0.26387692307692306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>0.48415000000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.46201538461538472</v>
+      </c>
+      <c r="D28">
+        <v>0.45376923076923076</v>
+      </c>
+      <c r="E28">
+        <v>0.45315000000000005</v>
+      </c>
+      <c r="F28">
+        <v>0.44525384615384617</v>
+      </c>
+      <c r="G28">
+        <v>0.43651923076923088</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28">
+        <v>0.57746923076923073</v>
+      </c>
+      <c r="J28">
+        <v>0.52463846153846161</v>
+      </c>
+      <c r="K28">
+        <v>0.52524230769230773</v>
+      </c>
+      <c r="L28">
+        <v>0.52235384615384628</v>
+      </c>
+      <c r="M28">
+        <v>0.52311923076923095</v>
+      </c>
+      <c r="N28">
+        <v>0.5238846153846155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0.5240999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.50462692307692303</v>
+      </c>
+      <c r="D29">
+        <v>0.46771153846153857</v>
+      </c>
+      <c r="E29">
+        <v>0.46427692307692303</v>
+      </c>
+      <c r="F29">
+        <v>0.46129615384615386</v>
+      </c>
+      <c r="G29">
+        <v>0.46798076923076909</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>0.65929230769230773</v>
+      </c>
+      <c r="J29">
+        <v>0.66069615384615388</v>
+      </c>
+      <c r="K29">
+        <v>0.66</v>
+      </c>
+      <c r="L29">
+        <v>0.65506153846153847</v>
+      </c>
+      <c r="M29">
+        <v>0.65169615384615376</v>
+      </c>
+      <c r="N29">
+        <v>0.64406538461538454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0.65773461538461553</v>
+      </c>
+      <c r="C30">
+        <v>0.63463461538461519</v>
+      </c>
+      <c r="D30">
+        <v>0.61783846153846145</v>
+      </c>
+      <c r="E30">
+        <v>0.59963461538461538</v>
+      </c>
+      <c r="F30">
+        <v>0.59485769230769237</v>
+      </c>
+      <c r="G30">
+        <v>0.57765769230769237</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30">
+        <v>0.75836153846153853</v>
+      </c>
+      <c r="J30">
+        <v>0.75763461538461563</v>
+      </c>
+      <c r="K30">
+        <v>0.74877692307692323</v>
+      </c>
+      <c r="L30">
+        <v>0.74820384615384627</v>
+      </c>
+      <c r="M30">
+        <v>0.74640384615384625</v>
+      </c>
+      <c r="N30">
+        <v>0.74647307692307707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0.4756653846153846</v>
+      </c>
+      <c r="C31">
+        <v>0.48133461538461536</v>
+      </c>
+      <c r="D31">
+        <v>0.49381538461538449</v>
+      </c>
+      <c r="E31">
+        <v>0.47203076923076931</v>
+      </c>
+      <c r="F31">
+        <v>0.46716923076923089</v>
+      </c>
+      <c r="G31">
+        <v>0.44598461538461548</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31">
+        <v>0.66921538461538455</v>
+      </c>
+      <c r="J31">
+        <v>0.66921538461538455</v>
+      </c>
+      <c r="K31">
+        <v>0.66921538461538455</v>
+      </c>
+      <c r="L31">
+        <v>0.65528076923076906</v>
+      </c>
+      <c r="M31">
+        <v>0.66921538461538455</v>
+      </c>
+      <c r="N31">
+        <v>0.66921538461538455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>0.26080769230769241</v>
+      </c>
+      <c r="C32">
+        <v>0.25644230769230786</v>
+      </c>
+      <c r="D32">
+        <v>0.25231923076923091</v>
+      </c>
+      <c r="E32">
+        <v>0.23099615384615391</v>
+      </c>
+      <c r="F32">
+        <v>0.23169230769230775</v>
+      </c>
+      <c r="G32">
+        <v>0.22261538461538463</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>0.32286153846153864</v>
+      </c>
+      <c r="J32">
+        <v>0.32296923076923095</v>
+      </c>
+      <c r="K32">
+        <v>0.32434615384615406</v>
+      </c>
+      <c r="L32">
+        <v>0.32423846153846164</v>
+      </c>
+      <c r="M32">
+        <v>0.2812384615384616</v>
+      </c>
+      <c r="N32">
+        <v>0.32356923076923094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>0.61335384615384614</v>
+      </c>
+      <c r="C33">
+        <v>0.61247307692307695</v>
+      </c>
+      <c r="D33">
+        <v>0.60468461538461549</v>
+      </c>
+      <c r="E33">
+        <v>0.60465769230769228</v>
+      </c>
+      <c r="F33">
+        <v>0.6031653846153846</v>
+      </c>
+      <c r="G33">
+        <v>0.60151538461538467</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33">
+        <v>0.60582307692307702</v>
+      </c>
+      <c r="J33">
+        <v>0.60363076923076942</v>
+      </c>
+      <c r="K33">
+        <v>0.60081538461538464</v>
+      </c>
+      <c r="L33">
+        <v>0.60476153846153846</v>
+      </c>
+      <c r="M33">
+        <v>0.60590769230769237</v>
+      </c>
+      <c r="N33">
+        <v>0.60281538461538464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>0.57710769230769232</v>
+      </c>
+      <c r="C34">
+        <v>0.43807692307692303</v>
+      </c>
+      <c r="D34">
+        <v>0.37662692307692303</v>
+      </c>
+      <c r="E34">
+        <v>0.36426153846153847</v>
+      </c>
+      <c r="F34">
+        <v>0.35182692307692298</v>
+      </c>
+      <c r="G34">
+        <v>0.3314423076923077</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>0.86903846153846154</v>
+      </c>
+      <c r="J34">
+        <v>0.86126153846153841</v>
+      </c>
+      <c r="K34">
+        <v>0.85854230769230755</v>
+      </c>
+      <c r="L34">
+        <v>0.81323846153846158</v>
+      </c>
+      <c r="M34">
+        <v>0.81142692307692321</v>
+      </c>
+      <c r="N34">
+        <v>0.81044615384615404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>0.59513846153846151</v>
+      </c>
+      <c r="C35">
+        <v>0.57544230769230764</v>
+      </c>
+      <c r="D35">
+        <v>0.56462692307692319</v>
+      </c>
+      <c r="E35">
+        <v>0.5567192307692308</v>
+      </c>
+      <c r="F35">
+        <v>0.48167692307692317</v>
+      </c>
+      <c r="G35">
+        <v>0.46807307692307687</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>0.64645769230769246</v>
+      </c>
+      <c r="J35">
+        <v>0.63303846153846166</v>
+      </c>
+      <c r="K35">
+        <v>0.62417692307692318</v>
+      </c>
+      <c r="L35">
+        <v>0.61841538461538481</v>
+      </c>
+      <c r="M35">
+        <v>0.60456153846153848</v>
+      </c>
+      <c r="N35">
+        <v>0.56486538461538471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>0.25849999999999995</v>
+      </c>
+      <c r="C36">
+        <v>0.25936923076923069</v>
+      </c>
+      <c r="D36">
+        <v>0.26079230769230766</v>
+      </c>
+      <c r="E36">
+        <v>0.26079230769230771</v>
+      </c>
+      <c r="F36">
+        <v>0.26153076923076923</v>
+      </c>
+      <c r="G36">
+        <v>0.26402307692307692</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>0.75070999999999999</v>
+      </c>
+      <c r="J36">
+        <v>0.73825000000000007</v>
+      </c>
+      <c r="K36">
+        <v>0.72536</v>
+      </c>
+      <c r="L36">
+        <v>0.70573000000000019</v>
+      </c>
+      <c r="M36">
+        <v>0.69567000000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.69310999999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>0.51906923076923084</v>
+      </c>
+      <c r="C41">
+        <v>0.48186153846153845</v>
+      </c>
+      <c r="D41">
+        <v>0.44875769230769236</v>
+      </c>
+      <c r="E41">
+        <v>0.44058846153846154</v>
+      </c>
+      <c r="F41">
+        <v>0.43533846153846151</v>
+      </c>
+      <c r="G41">
+        <v>0.45508076923076923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.62847692307692304</v>
+      </c>
+      <c r="C42">
+        <v>0.53067307692307708</v>
+      </c>
+      <c r="D42">
+        <v>0.53306538461538477</v>
+      </c>
+      <c r="E42">
+        <v>0.53475769230769243</v>
+      </c>
+      <c r="F42">
+        <v>0.52903461538461549</v>
+      </c>
+      <c r="G42">
+        <v>0.53196153846153849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.67725000000000013</v>
+      </c>
+      <c r="C43">
+        <v>0.66092307692307706</v>
+      </c>
+      <c r="D43">
+        <v>0.66196923076923064</v>
+      </c>
+      <c r="E43">
+        <v>0.64755000000000007</v>
+      </c>
+      <c r="F43">
+        <v>0.65626923076923072</v>
+      </c>
+      <c r="G43">
+        <v>0.63676153846153838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.49941538461538471</v>
+      </c>
+      <c r="C44">
+        <v>0.51308846153846155</v>
+      </c>
+      <c r="D44">
+        <v>0.51228076923076915</v>
+      </c>
+      <c r="E44">
+        <v>0.5357846153846153</v>
+      </c>
+      <c r="F44">
+        <v>0.5169307692307693</v>
+      </c>
+      <c r="G44">
+        <v>0.48588461538461541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>0.32286153846153864</v>
+      </c>
+      <c r="C45">
+        <v>0.26678846153846164</v>
+      </c>
+      <c r="D45">
+        <v>0.2269653846153846</v>
+      </c>
+      <c r="E45">
+        <v>0.26354230769230774</v>
+      </c>
+      <c r="F45">
+        <v>0.23319615384615389</v>
+      </c>
+      <c r="G45">
+        <v>0.25414230769230778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0.60571538461538466</v>
+      </c>
+      <c r="C46">
+        <v>0.61587307692307691</v>
+      </c>
+      <c r="D46">
+        <v>0.63312307692307668</v>
+      </c>
+      <c r="E46">
+        <v>0.60900384615384606</v>
+      </c>
+      <c r="F46">
+        <v>0.60555384615384622</v>
+      </c>
+      <c r="G46">
+        <v>0.59976153846153857</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0.63978846153846169</v>
+      </c>
+      <c r="C47">
+        <v>0.50279615384615373</v>
+      </c>
+      <c r="D47">
+        <v>0.39754615384615388</v>
+      </c>
+      <c r="E47">
+        <v>0.38766538461538463</v>
+      </c>
+      <c r="F47">
+        <v>0.35853461538461529</v>
+      </c>
+      <c r="G47">
+        <v>0.32157307692307696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>0.54393461538461529</v>
+      </c>
+      <c r="C48">
+        <v>0.52518461538461547</v>
+      </c>
+      <c r="D48">
+        <v>0.50051153846153862</v>
+      </c>
+      <c r="E48">
+        <v>0.45489615384615373</v>
+      </c>
+      <c r="F48">
+        <v>0.44048461538461525</v>
+      </c>
+      <c r="G48">
+        <v>0.43181153846153841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.2469615384615384</v>
+      </c>
+      <c r="C49">
+        <v>0.24876923076923077</v>
+      </c>
+      <c r="D49">
+        <v>0.248376923076923</v>
+      </c>
+      <c r="E49">
+        <v>0.25033076923076919</v>
+      </c>
+      <c r="F49">
+        <v>0.2531461538461538</v>
+      </c>
+      <c r="G49">
+        <v>0.25414615384615385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0.05" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8580,32 +10704,32 @@
         <v>37</v>
       </c>
       <c r="M4">
-        <f>SUM(D4:D31)/26</f>
-        <v>0.52513461538461548</v>
+        <f t="shared" ref="M4:S4" si="0">SUM(D4:D31)/28</f>
+        <v>0.48762500000000009</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:S4" si="0">SUM(E4:E31)/26</f>
-        <v>0.48584615384615376</v>
+        <f t="shared" si="0"/>
+        <v>0.45114285714285707</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0.46268076923076917</v>
+        <v>0.4296321428571428</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.45495000000000008</v>
+        <v>0.42245357142857148</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.44959615384615387</v>
+        <v>0.41748214285714286</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.44789230769230759</v>
+        <v>0.41589999999999988</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.43651923076923088</v>
+        <v>0.40533928571428579</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -8637,32 +10761,32 @@
         <v>40</v>
       </c>
       <c r="M5">
-        <f>SUM(D32:D59)/26</f>
-        <v>0.64391538461538467</v>
+        <f t="shared" ref="M5:S5" si="1">SUM(D32:D59)/28</f>
+        <v>0.5979214285714286</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:S5" si="1">SUM(E32:E59)/26</f>
-        <v>0.52577692307692292</v>
+        <f t="shared" si="1"/>
+        <v>0.48822142857142842</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>0.50601538461538464</v>
+        <v>0.46987142857142861</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.47594615384615374</v>
+        <v>0.4419499999999999</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.46091153846153843</v>
+        <v>0.42798928571428568</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.46170000000000005</v>
+        <v>0.42872142857142859</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.46798076923076909</v>
+        <v>0.43455357142857132</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -8694,32 +10818,32 @@
         <v>41</v>
       </c>
       <c r="M6">
-        <f>SUM(D60:D87)/26</f>
-        <v>0.73654615384615407</v>
+        <f t="shared" ref="M6:S6" si="2">SUM(D60:D87)/28</f>
+        <v>0.68393571428571442</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:S6" si="2">SUM(E60:E87)/26</f>
-        <v>0.6421</v>
+        <f t="shared" si="2"/>
+        <v>0.59623571428571431</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>0.62984230769230776</v>
+        <v>0.58485357142857153</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.62125384615384627</v>
+        <v>0.57687857142857157</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.59198076923076937</v>
+        <v>0.54969642857142864</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.59485769230769237</v>
+        <v>0.55236785714285719</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>0.57765769230769237</v>
+        <v>0.53639642857142866</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -8747,6 +10871,33 @@
       <c r="J7">
         <v>0.30980000000000008</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f>SUM(D88:D115)/28</f>
+        <v>0.77766071428571437</v>
+      </c>
+      <c r="N7">
+        <f>SUM(E88:E115)/28</f>
+        <v>0.77216428571428553</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F88:F115)/28</f>
+        <v>0.77486071428571424</v>
+      </c>
+      <c r="P7">
+        <f>SUM(G88:G115)/28</f>
+        <v>0.77542857142857147</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(H88:H115)/28</f>
+        <v>0.77612142857142874</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I88:I115)/28</f>
+        <v>0.77040357142857141</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -8777,32 +10928,32 @@
         <v>43</v>
       </c>
       <c r="M8">
-        <f>SUM(D116:D143)/26</f>
-        <v>0.51816153846153845</v>
+        <f t="shared" ref="M8:S8" si="3">SUM(D116:D143)/28</f>
+        <v>0.48114999999999997</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:S8" si="3">SUM(E116:E143)/26</f>
-        <v>0.49024999999999996</v>
+        <f t="shared" si="3"/>
+        <v>0.45523214285714281</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>0.47927307692307691</v>
+        <v>0.44503928571428569</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0.48714230769230765</v>
+        <v>0.45234642857142854</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.49133076923076924</v>
+        <v>0.45623571428571424</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0.46716923076923089</v>
+        <v>0.43380000000000013</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0.46990384615384617</v>
+        <v>0.43633928571428576</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -8834,32 +10985,32 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <f>SUM(D144:D171)/26</f>
-        <v>0.26971538461538469</v>
+        <f t="shared" ref="M9:S9" si="4">SUM(D144:D171)/28</f>
+        <v>0.25045000000000012</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:S9" si="4">SUM(E144:E171)/26</f>
-        <v>0.24490384615384622</v>
+        <f t="shared" si="4"/>
+        <v>0.22741071428571433</v>
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
-        <v>0.2569038461538462</v>
+        <v>0.2385535714285715</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.25635384615384621</v>
+        <v>0.23804285714285719</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.23808076923076935</v>
+        <v>0.2210750000000001</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>0.23063076923076931</v>
+        <v>0.21415714285714293</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0.23886153846153849</v>
+        <v>0.22180000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -8891,32 +11042,32 @@
         <v>46</v>
       </c>
       <c r="M10">
-        <f>SUM(D172:D199)/26</f>
-        <v>0.61852307692307684</v>
+        <f t="shared" ref="M10:S10" si="5">SUM(D172:D199)/28</f>
+        <v>0.57434285714285704</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:S10" si="5">SUM(E172:E199)/26</f>
-        <v>0.60977692307692322</v>
+        <f t="shared" si="5"/>
+        <v>0.56622142857142865</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
-        <v>0.61166153846153848</v>
+        <v>0.56797142857142868</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.6051423076923077</v>
+        <v>0.56191785714285714</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>0.60485000000000011</v>
+        <v>0.56164642857142866</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>0.6031653846153846</v>
+        <v>0.56008214285714286</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>0.60151538461538467</v>
+        <v>0.55854999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -8948,32 +11099,32 @@
         <v>44</v>
       </c>
       <c r="M11">
-        <f>SUM(D200:D227)/26</f>
-        <v>0.76069615384615397</v>
+        <f t="shared" ref="M11:S11" si="6">SUM(D200:D227)/28</f>
+        <v>0.70636071428571434</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:S11" si="6">SUM(E200:E227)/26</f>
-        <v>0.57773846153846165</v>
+        <f t="shared" si="6"/>
+        <v>0.5364714285714286</v>
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
-        <v>0.43781538461538455</v>
+        <v>0.40654285714285709</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>0.37668846153846164</v>
+        <v>0.34978214285714293</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.36402307692307689</v>
+        <v>0.33802142857142853</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.35296153846153844</v>
+        <v>0.32774999999999999</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.3314423076923077</v>
+        <v>0.30776785714285715</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -9005,32 +11156,32 @@
         <v>45</v>
       </c>
       <c r="M12">
-        <f>SUM(D228:D255)/26</f>
-        <v>0.67290769230769243</v>
+        <f t="shared" ref="M12:S12" si="7">SUM(D228:D255)/28</f>
+        <v>0.62484285714285726</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:S12" si="7">SUM(E228:E255)/26</f>
-        <v>0.59626538461538459</v>
+        <f t="shared" si="7"/>
+        <v>0.55367500000000003</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
-        <v>0.57733846153846169</v>
+        <v>0.53610000000000013</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.56738846153846167</v>
+        <v>0.52686071428571435</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0.5578653846153846</v>
+        <v>0.5180178571428572</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.48121153846153847</v>
+        <v>0.44683928571428572</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>0.46807307692307687</v>
+        <v>0.43463928571428567</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -9062,32 +11213,32 @@
         <v>47</v>
       </c>
       <c r="M13">
-        <f>SUM(D256:D283)/26</f>
-        <v>0.46100769230769245</v>
+        <f t="shared" ref="M13:S13" si="8">SUM(D256:D283)/28</f>
+        <v>0.42807857142857159</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:S13" si="8">SUM(E256:E283)/26</f>
-        <v>0.25985384615384616</v>
+        <f t="shared" si="8"/>
+        <v>0.24129285714285714</v>
       </c>
       <c r="O13">
         <f t="shared" si="8"/>
-        <v>0.25839230769230775</v>
+        <v>0.23993571428571434</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>0.26058461538461541</v>
+        <v>0.24197142857142859</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
-        <v>0.26130000000000003</v>
+        <v>0.24263571428571432</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>0.26153076923076923</v>
+        <v>0.24285000000000001</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>0.26429999999999998</v>
+        <v>0.24542142857142854</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -11027,140 +13178,644 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I88">
+        <v>0.79149999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="D89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F89">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="G89">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="H89">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="I89">
+        <v>0.72639999999999993</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="D90">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="F90">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I90">
+        <v>0.73039999999999994</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="D91">
+        <v>0.73469999999999991</v>
+      </c>
+      <c r="E91">
+        <v>0.73520000000000008</v>
+      </c>
+      <c r="F91">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="H91">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I91">
+        <v>0.72439999999999993</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="D92">
+        <v>0.73330000000000006</v>
+      </c>
+      <c r="E92">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F92">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G92">
+        <v>0.7379</v>
+      </c>
+      <c r="H92">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I92">
+        <v>0.7268</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="D93">
+        <v>0.76079999999999992</v>
+      </c>
+      <c r="E93">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="F93">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="G93">
+        <v>0.7702</v>
+      </c>
+      <c r="H93">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="I93">
+        <v>0.76079999999999992</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="D94">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E94">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="F94">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G94">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="H94">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="I94">
+        <v>0.79720000000000002</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="D95">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="E95">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F95">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="G95">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="H95">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="I95">
+        <v>0.76870000000000005</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F96">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="G96">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="H96">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="I96">
+        <v>0.78190000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E97">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="F97">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.74140000000000006</v>
+      </c>
+      <c r="H97">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I97">
+        <v>0.73449999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E98">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F98">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H98">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I98">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E99">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F99">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H99">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I99">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="E101">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="F101">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="G101">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="H101">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="I101">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.7429</v>
+      </c>
+      <c r="E103">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="H103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I103">
+        <v>0.7359</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E105">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="F105">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="G105">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="I105">
+        <v>0.75149999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="E106">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="F106">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G106">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="H106">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="I106">
+        <v>0.81210000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="E107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="F107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I107">
+        <v>0.75719999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="E109">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="F109">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="G109">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="H109">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I109">
+        <v>0.77849999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E110">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.79989999999999994</v>
+      </c>
+      <c r="G110">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="H110">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I110">
+        <v>0.77350000000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="E111">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="F111">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="G111">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H111">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.78810000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="D112">
+        <v>0.7319</v>
+      </c>
+      <c r="E112">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F112">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="G112">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="H112">
+        <v>0.745</v>
+      </c>
+      <c r="I112">
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E113">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="F113">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="G113">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="H113">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="I113">
+        <v>0.76390000000000002</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E114">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F114">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="G114">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="H114">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="I114">
+        <v>0.79889999999999994</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
+      </c>
+      <c r="D115">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="E115">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="F115">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="G115">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="H115">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="I115">
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -15610,12 +18265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15625,7 +18280,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
@@ -15723,28 +18378,28 @@
         <v>0.52411923076923084</v>
       </c>
       <c r="N4">
-        <f>SUM(E4:E31)/26</f>
-        <v>0.48415000000000002</v>
+        <f t="shared" ref="N4:S4" si="0">SUM(E4:E31)/28</f>
+        <v>0.44956785714285719</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:S4" si="0">SUM(F4:F31)/26</f>
-        <v>0.46201538461538472</v>
+        <f t="shared" si="0"/>
+        <v>0.42901428571428585</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.45376923076923076</v>
+        <v>0.42135714285714287</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.45315000000000005</v>
+        <v>0.42078214285714294</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.44525384615384617</v>
+        <v>0.41345000000000004</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.43651923076923088</v>
+        <v>0.40533928571428579</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -15776,28 +18431,28 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f>SUM(E32:E59)/26</f>
-        <v>0.5240999999999999</v>
+        <f t="shared" ref="N5:S5" si="1">SUM(E32:E59)/28</f>
+        <v>0.4866642857142856</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:S5" si="1">SUM(F32:F59)/26</f>
-        <v>0.50462692307692303</v>
+        <f t="shared" si="1"/>
+        <v>0.46858214285714278</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.46771153846153857</v>
+        <v>0.43430357142857151</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.46427692307692303</v>
+        <v>0.43111428571428567</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.46129615384615386</v>
+        <v>0.42834642857142857</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.46798076923076909</v>
+        <v>0.43455357142857132</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -15829,28 +18484,28 @@
         <v>41</v>
       </c>
       <c r="N6">
-        <f>SUM(E60:E87)/26</f>
-        <v>0.65773461538461553</v>
+        <f t="shared" ref="N6:S6" si="2">SUM(E60:E87)/28</f>
+        <v>0.61075357142857156</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:S6" si="2">SUM(F60:F87)/26</f>
-        <v>0.63463461538461519</v>
+        <f t="shared" si="2"/>
+        <v>0.58930357142857126</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.61783846153846145</v>
+        <v>0.57370714285714275</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.59963461538461538</v>
+        <v>0.5568035714285714</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.59485769230769237</v>
+        <v>0.55236785714285719</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>0.57765769230769237</v>
+        <v>0.53639642857142866</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -15878,6 +18533,33 @@
       <c r="J7">
         <v>0.30980000000000008</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f>SUM(D88:D115)/26</f>
+        <v>0.83739999999999992</v>
+      </c>
+      <c r="N7">
+        <f>SUM(E88:E115)/28</f>
+        <v>0.77205357142857145</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F88:F115)/28</f>
+        <v>0.77470000000000017</v>
+      </c>
+      <c r="P7">
+        <f>SUM(G88:G115)/28</f>
+        <v>0.77594285714285693</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(H88:H115)/28</f>
+        <v>0.77658571428571399</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I88:I115)/28</f>
+        <v>0.77077857142857131</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -15908,28 +18590,28 @@
         <v>43</v>
       </c>
       <c r="N8">
-        <f>SUM(E116:E143)/26</f>
-        <v>0.4756653846153846</v>
+        <f t="shared" ref="N8:S8" si="3">SUM(E116:E143)/28</f>
+        <v>0.44168928571428573</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:S8" si="3">SUM(F116:F143)/26</f>
-        <v>0.48133461538461536</v>
+        <f t="shared" si="3"/>
+        <v>0.44695357142857139</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0.49381538461538449</v>
+        <v>0.45854285714285703</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.47203076923076931</v>
+        <v>0.43831428571428577</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0.46716923076923089</v>
+        <v>0.43380000000000013</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0.44598461538461548</v>
+        <v>0.41412857142857151</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -15965,28 +18647,28 @@
         <v>0.26920000000000005</v>
       </c>
       <c r="N9">
-        <f>SUM(E144:E171)/26</f>
-        <v>0.26080769230769241</v>
+        <f t="shared" ref="N9:S9" si="4">SUM(E144:E171)/28</f>
+        <v>0.24217857142857152</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="4">SUM(F144:F171)/26</f>
-        <v>0.25644230769230786</v>
+        <f t="shared" si="4"/>
+        <v>0.23812500000000014</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.25231923076923091</v>
+        <v>0.23429642857142868</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.23099615384615391</v>
+        <v>0.21449642857142862</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>0.23169230769230775</v>
+        <v>0.21514285714285722</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0.22261538461538463</v>
+        <v>0.20671428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -16018,28 +18700,28 @@
         <v>46</v>
       </c>
       <c r="N10">
-        <f>SUM(E172:E199)/26</f>
-        <v>0.61335384615384614</v>
+        <f t="shared" ref="N10:S10" si="5">SUM(E172:E199)/28</f>
+        <v>0.56954285714285713</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="5">SUM(F172:F199)/26</f>
-        <v>0.61247307692307695</v>
+        <f t="shared" si="5"/>
+        <v>0.56872500000000004</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.60468461538461549</v>
+        <v>0.56149285714285724</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>0.60465769230769228</v>
+        <v>0.56146785714285719</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>0.6031653846153846</v>
+        <v>0.56008214285714286</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>0.60151538461538467</v>
+        <v>0.55854999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -16071,28 +18753,28 @@
         <v>44</v>
       </c>
       <c r="N11">
-        <f>SUM(E200:E227)/26</f>
-        <v>0.57710769230769232</v>
+        <f t="shared" ref="N11:S11" si="6">SUM(E200:E227)/28</f>
+        <v>0.5358857142857143</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:S11" si="6">SUM(F200:F227)/26</f>
-        <v>0.43807692307692303</v>
+        <f t="shared" si="6"/>
+        <v>0.40678571428571425</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>0.37662692307692303</v>
+        <v>0.34972499999999995</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.36426153846153847</v>
+        <v>0.33824285714285718</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.35182692307692298</v>
+        <v>0.3266964285714285</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.3314423076923077</v>
+        <v>0.30776785714285715</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -16124,28 +18806,28 @@
         <v>45</v>
       </c>
       <c r="N12">
-        <f>SUM(E228:E255)/26</f>
-        <v>0.59513846153846151</v>
+        <f t="shared" ref="N12:S12" si="7">SUM(E228:E255)/28</f>
+        <v>0.55262857142857136</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:S12" si="7">SUM(F228:F255)/26</f>
-        <v>0.57544230769230764</v>
+        <f t="shared" si="7"/>
+        <v>0.53433928571428568</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.56462692307692319</v>
+        <v>0.52429642857142866</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0.5567192307692308</v>
+        <v>0.51695357142857146</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.48167692307692317</v>
+        <v>0.44727142857142865</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>0.46807307692307687</v>
+        <v>0.43463928571428567</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -16177,28 +18859,28 @@
         <v>47</v>
       </c>
       <c r="N13">
-        <f>SUM(E256:E283)/26</f>
-        <v>0.25849999999999995</v>
+        <f t="shared" ref="N13:S13" si="8">SUM(E256:E283)/28</f>
+        <v>0.24003571428571427</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="8">SUM(F256:F283)/26</f>
-        <v>0.25936923076923069</v>
+        <f t="shared" si="8"/>
+        <v>0.24084285714285708</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>0.26079230769230766</v>
+        <v>0.24216428571428569</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
-        <v>0.26079230769230771</v>
+        <v>0.24216428571428575</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>0.26153076923076923</v>
+        <v>0.24285000000000001</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>0.26402307692307692</v>
+        <v>0.2451642857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -17970,140 +20652,644 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I88">
+        <v>0.79149999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="D89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F89">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="G89">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="H89">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="I89">
+        <v>0.72639999999999993</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="D90">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.74140000000000006</v>
+      </c>
+      <c r="F90">
+        <v>0.74459999999999993</v>
+      </c>
+      <c r="G90">
+        <v>0.73429999999999995</v>
+      </c>
+      <c r="H90">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I90">
+        <v>0.72489999999999999</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="D91">
+        <v>0.73469999999999991</v>
+      </c>
+      <c r="E91">
+        <v>0.73520000000000008</v>
+      </c>
+      <c r="F91">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="H91">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I91">
+        <v>0.72439999999999993</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="D92">
+        <v>0.73330000000000006</v>
+      </c>
+      <c r="E92">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F92">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G92">
+        <v>0.7379</v>
+      </c>
+      <c r="H92">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I92">
+        <v>0.7268</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="D93">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="E93">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="F93">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="G93">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="H93">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="I93">
+        <v>0.7601</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="D94">
+        <v>0.83410000000000006</v>
+      </c>
+      <c r="E94">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="F94">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G94">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="H94">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="I94">
+        <v>0.79720000000000002</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="D95">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="E95">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F95">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="G95">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="H95">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="I95">
+        <v>0.76870000000000005</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F96">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="G96">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="H96">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="I96">
+        <v>0.78190000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E97">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="F97">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.74140000000000006</v>
+      </c>
+      <c r="H97">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I97">
+        <v>0.73449999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E98">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F98">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H98">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I98">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E99">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F99">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H99">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I99">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.77760000000000007</v>
+      </c>
+      <c r="E101">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="F101">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G101">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="H101">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="I101">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.7429</v>
+      </c>
+      <c r="E103">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="F103">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="G103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="H103">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="I103">
+        <v>0.7359</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E105">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="F105">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="G105">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="I105">
+        <v>0.75149999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F106">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="G106">
+        <v>0.8135</v>
+      </c>
+      <c r="H106">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="I106">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.74930000000000008</v>
+      </c>
+      <c r="E107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="F107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I107">
+        <v>0.75719999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="E109">
+        <v>0.78170000000000006</v>
+      </c>
+      <c r="F109">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G109">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="H109">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="I109">
+        <v>0.78170000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.83410000000000006</v>
+      </c>
+      <c r="E110">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.7994</v>
+      </c>
+      <c r="G110">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="H110">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="I110">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="E111">
+        <v>0.7843</v>
+      </c>
+      <c r="F111">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G111">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="H111">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="I111">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="D112">
+        <v>0.7319</v>
+      </c>
+      <c r="E112">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F112">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="G112">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="H112">
+        <v>0.745</v>
+      </c>
+      <c r="I112">
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E113">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="F113">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="G113">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="H113">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="I113">
+        <v>0.76180000000000003</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>0.83410000000000006</v>
+      </c>
+      <c r="E114">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="F114">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="G114">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="H114">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="I114">
+        <v>0.80579999999999996</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
+      </c>
+      <c r="D115">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="E115">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="F115">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="G115">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="H115">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="I115">
+        <v>0.75529999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -22077,12 +25263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22186,28 +25372,28 @@
         <v>37</v>
       </c>
       <c r="N4">
-        <f>SUM(E4:E31)/26</f>
-        <v>0.51906923076923084</v>
+        <f t="shared" ref="N4:S4" si="0">SUM(E4:E31)/28</f>
+        <v>0.48199285714285722</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:S4" si="0">SUM(F4:F31)/26</f>
-        <v>0.48186153846153845</v>
+        <f t="shared" si="0"/>
+        <v>0.44744285714285714</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.44875769230769236</v>
+        <v>0.41670357142857151</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.44058846153846154</v>
+        <v>0.40911785714285714</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.43533846153846151</v>
+        <v>0.40424285714285713</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.45508076923076923</v>
+        <v>0.42257500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -22236,28 +25422,28 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f>SUM(E32:E59)/26</f>
-        <v>0.62847692307692304</v>
+        <f t="shared" ref="N5:S5" si="1">SUM(E32:E59)/28</f>
+        <v>0.58358571428571426</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:S5" si="1">SUM(F32:F59)/26</f>
-        <v>0.53067307692307708</v>
+        <f t="shared" si="1"/>
+        <v>0.49276785714285726</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.53306538461538477</v>
+        <v>0.49498928571428585</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.53475769230769243</v>
+        <v>0.49656071428571436</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.52903461538461549</v>
+        <v>0.49124642857142869</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.53196153846153849</v>
+        <v>0.49396428571428569</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -22286,28 +25472,28 @@
         <v>41</v>
       </c>
       <c r="N6">
-        <f>SUM(E60:E87)/26</f>
-        <v>0.67725000000000013</v>
+        <f t="shared" ref="N6:S6" si="2">SUM(E60:E87)/28</f>
+        <v>0.62887500000000007</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:S6" si="2">SUM(F60:F87)/26</f>
-        <v>0.66092307692307706</v>
+        <f t="shared" si="2"/>
+        <v>0.61371428571428588</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.66196923076923064</v>
+        <v>0.61468571428571417</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.64755000000000007</v>
+        <v>0.60129642857142862</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.65626923076923072</v>
+        <v>0.60939285714285707</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>0.63676153846153838</v>
+        <v>0.59127857142857132</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -22332,6 +25518,33 @@
       <c r="J7">
         <v>0.35180000000000011</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:S7" si="3">SUM(E88:E115)/28</f>
+        <v>0.78549285714285688</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.78690357142857148</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0.78139642857142866</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0.77113571428571415</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.77248928571428566</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>0.77419642857142856</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -22359,28 +25572,28 @@
         <v>43</v>
       </c>
       <c r="N8">
-        <f>SUM(E116:E143)/26</f>
-        <v>0.49941538461538471</v>
+        <f t="shared" ref="N8:S8" si="4">SUM(E116:E143)/28</f>
+        <v>0.46374285714285718</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:S8" si="3">SUM(F116:F143)/26</f>
-        <v>0.51308846153846155</v>
+        <f t="shared" si="4"/>
+        <v>0.47643928571428568</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
-        <v>0.51228076923076915</v>
+        <f t="shared" si="4"/>
+        <v>0.47568928571428559</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0.5357846153846153</v>
+        <f t="shared" si="4"/>
+        <v>0.49751428571428563</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
-        <v>0.5169307692307693</v>
+        <f t="shared" si="4"/>
+        <v>0.48000714285714291</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
-        <v>0.48588461538461541</v>
+        <f t="shared" si="4"/>
+        <v>0.45117857142857148</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -22409,28 +25622,28 @@
         <v>38</v>
       </c>
       <c r="N9">
-        <f>SUM(E144:E171)/26</f>
-        <v>0.32286153846153864</v>
+        <f t="shared" ref="N9:S9" si="5">SUM(E144:E171)/28</f>
+        <v>0.29980000000000018</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="4">SUM(F144:F171)/26</f>
-        <v>0.26678846153846164</v>
+        <f t="shared" si="5"/>
+        <v>0.24773214285714298</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
-        <v>0.2269653846153846</v>
+        <f t="shared" si="5"/>
+        <v>0.2107535714285714</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>0.26354230769230774</v>
+        <f t="shared" si="5"/>
+        <v>0.24471785714285718</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
-        <v>0.23319615384615389</v>
+        <f t="shared" si="5"/>
+        <v>0.21653928571428577</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
-        <v>0.25414230769230778</v>
+        <f t="shared" si="5"/>
+        <v>0.23598928571428579</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -22459,28 +25672,28 @@
         <v>46</v>
       </c>
       <c r="N10">
-        <f>SUM(E172:E199)/26</f>
-        <v>0.60571538461538466</v>
+        <f t="shared" ref="N10:S10" si="6">SUM(E172:E199)/28</f>
+        <v>0.56245000000000001</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="5">SUM(F172:F199)/26</f>
-        <v>0.61587307692307691</v>
+        <f t="shared" si="6"/>
+        <v>0.57188214285714278</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
-        <v>0.63312307692307668</v>
+        <f t="shared" si="6"/>
+        <v>0.58789999999999976</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>0.60900384615384606</v>
+        <f t="shared" si="6"/>
+        <v>0.56550357142857133</v>
       </c>
       <c r="R10">
-        <f t="shared" si="5"/>
-        <v>0.60555384615384622</v>
+        <f t="shared" si="6"/>
+        <v>0.56230000000000002</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
-        <v>0.59976153846153857</v>
+        <f t="shared" si="6"/>
+        <v>0.55692142857142868</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -22509,28 +25722,28 @@
         <v>44</v>
       </c>
       <c r="N11">
-        <f>SUM(E200:E227)/26</f>
-        <v>0.63978846153846169</v>
+        <f t="shared" ref="N11:S11" si="7">SUM(E200:E227)/28</f>
+        <v>0.59408928571428576</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:S11" si="6">SUM(F200:F227)/26</f>
-        <v>0.50279615384615373</v>
+        <f t="shared" si="7"/>
+        <v>0.46688214285714275</v>
       </c>
       <c r="P11">
-        <f t="shared" si="6"/>
-        <v>0.39754615384615388</v>
+        <f t="shared" si="7"/>
+        <v>0.36915000000000003</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>0.38766538461538463</v>
+        <f t="shared" si="7"/>
+        <v>0.35997499999999999</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
-        <v>0.35853461538461529</v>
+        <f t="shared" si="7"/>
+        <v>0.33292499999999992</v>
       </c>
       <c r="S11">
-        <f t="shared" si="6"/>
-        <v>0.32157307692307696</v>
+        <f t="shared" si="7"/>
+        <v>0.29860357142857147</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -22559,28 +25772,28 @@
         <v>45</v>
       </c>
       <c r="N12">
-        <f>SUM(E228:E255)/26</f>
-        <v>0.54393461538461529</v>
+        <f t="shared" ref="N12:S12" si="8">SUM(E228:E255)/28</f>
+        <v>0.50508214285714281</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:S12" si="7">SUM(F228:F255)/26</f>
-        <v>0.52518461538461547</v>
+        <f t="shared" si="8"/>
+        <v>0.48767142857142864</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
-        <v>0.50051153846153862</v>
+        <f t="shared" si="8"/>
+        <v>0.46476071428571436</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>0.45489615384615373</v>
+        <f t="shared" si="8"/>
+        <v>0.42240357142857132</v>
       </c>
       <c r="R12">
-        <f t="shared" si="7"/>
-        <v>0.44048461538461525</v>
+        <f t="shared" si="8"/>
+        <v>0.40902142857142848</v>
       </c>
       <c r="S12">
-        <f t="shared" si="7"/>
-        <v>0.43181153846153841</v>
+        <f t="shared" si="8"/>
+        <v>0.4009678571428571</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -22609,28 +25822,28 @@
         <v>47</v>
       </c>
       <c r="N13">
-        <f>SUM(E256:E283)/26</f>
-        <v>0.2469615384615384</v>
+        <f t="shared" ref="N13:S13" si="9">SUM(E256:E283)/28</f>
+        <v>0.22932142857142851</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="8">SUM(F256:F283)/26</f>
-        <v>0.24876923076923077</v>
+        <f t="shared" si="9"/>
+        <v>0.23100000000000001</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
-        <v>0.248376923076923</v>
+        <f t="shared" si="9"/>
+        <v>0.23063571428571422</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>0.25033076923076919</v>
+        <f t="shared" si="9"/>
+        <v>0.23244999999999999</v>
       </c>
       <c r="R13">
-        <f t="shared" si="8"/>
-        <v>0.2531461538461538</v>
+        <f t="shared" si="9"/>
+        <v>0.2350642857142857</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
-        <v>0.25414615384615385</v>
+        <f t="shared" si="9"/>
+        <v>0.23599285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -24357,140 +27570,644 @@
       <c r="D88">
         <v>0.80149999999999999</v>
       </c>
+      <c r="E88">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="F88">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="G88">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="H88">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="I88">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="J88">
+        <v>0.80730000000000002</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="E89">
+        <v>0.74530000000000007</v>
+      </c>
+      <c r="F89">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="G89">
+        <v>0.73520000000000008</v>
+      </c>
+      <c r="H89">
+        <v>0.72520000000000007</v>
+      </c>
+      <c r="I89">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="J89">
+        <v>0.72249999999999992</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="E90">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="F90">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="G90">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="H90">
+        <v>0.73330000000000006</v>
+      </c>
+      <c r="I90">
+        <v>0.73639999999999994</v>
+      </c>
+      <c r="J90">
+        <v>0.73480000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="E91">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="G91">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="H91">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="I91">
+        <v>0.7278</v>
+      </c>
+      <c r="J91">
+        <v>0.72710000000000008</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="E92">
+        <v>0.74</v>
+      </c>
+      <c r="F92">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="G92">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="H92">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="I92">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="J92">
+        <v>0.73039999999999994</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="E93">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="F93">
+        <v>0.77160000000000006</v>
+      </c>
+      <c r="G93">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="H93">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="I93">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="J93">
+        <v>0.75149999999999995</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="E94">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="F94">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="G94">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H94">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I94">
+        <v>0.7944</v>
+      </c>
+      <c r="J94">
+        <v>0.79669999999999996</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="E95">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="F95">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="G95">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="H95">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I95">
+        <v>0.7702</v>
+      </c>
+      <c r="J95">
+        <v>0.79510000000000003</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="F96">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="G96">
+        <v>0.78570000000000007</v>
+      </c>
+      <c r="H96">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="I96">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="J96">
+        <v>0.79170000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>0.76079999999999992</v>
+      </c>
+      <c r="F97">
+        <v>0.76059999999999994</v>
+      </c>
+      <c r="G97">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="H97">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="I97">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="J97">
+        <v>0.74219999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="F98">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="G98">
+        <v>0.751</v>
+      </c>
+      <c r="H98">
+        <v>0.74930000000000008</v>
+      </c>
+      <c r="I98">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J98">
+        <v>0.76350000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="F99">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="G99">
+        <v>0.751</v>
+      </c>
+      <c r="H99">
+        <v>0.74930000000000008</v>
+      </c>
+      <c r="I99">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J99">
+        <v>0.76350000000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="F100">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="G100">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="H100">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="I100">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="J100">
+        <v>0.80730000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="F101">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="G101">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="H101">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="I101">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="J101">
+        <v>0.75580000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="G103">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="H103">
+        <v>0.74120000000000008</v>
+      </c>
+      <c r="I103">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="J103">
+        <v>0.74649999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="F105">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="G105">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I105">
+        <v>0.74049999999999994</v>
+      </c>
+      <c r="J105">
+        <v>0.73619999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="F106">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="G106">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="H106">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="J106">
+        <v>0.81589999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="F107">
+        <v>0.82329999999999992</v>
+      </c>
+      <c r="G107">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="H107">
+        <v>0.8125</v>
+      </c>
+      <c r="I107">
+        <v>0.8145</v>
+      </c>
+      <c r="J107">
+        <v>0.8135</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="F109">
+        <v>0.79</v>
+      </c>
+      <c r="G109">
+        <v>0.79889999999999994</v>
+      </c>
+      <c r="H109">
+        <v>0.78479999999999994</v>
+      </c>
+      <c r="I109">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="J109">
+        <v>0.7833</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="F110">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="G110">
+        <v>0.8226</v>
+      </c>
+      <c r="H110">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="I110">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="J110">
+        <v>0.76919999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0.7994</v>
+      </c>
+      <c r="F111">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="G111">
+        <v>0.78760000000000008</v>
+      </c>
+      <c r="H111">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I111">
+        <v>0.78</v>
+      </c>
+      <c r="J111">
+        <v>0.7802</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="E112">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F112">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="G112">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="H112">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="I112">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="J112">
+        <v>0.73209999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="E113">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="F113">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="G113">
+        <v>0.79289999999999994</v>
+      </c>
+      <c r="H113">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="I113">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="J113">
+        <v>0.75919999999999999</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="E114">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="F114">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="G114">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="H114">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="I114">
+        <v>0.78980000000000006</v>
+      </c>
+      <c r="J114">
+        <v>0.79430000000000001</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
+      </c>
+      <c r="E115">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="F115">
+        <v>0.76059999999999994</v>
+      </c>
+      <c r="G115">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="H115">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="I115">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="J115">
+        <v>0.75270000000000004</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -28454,12 +32171,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28472,7 +32189,7 @@
         <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -28560,28 +32277,28 @@
         <v>37</v>
       </c>
       <c r="N4">
-        <f>SUM(E4:E31)/26</f>
-        <v>0.48617692307692317</v>
+        <f t="shared" ref="N4:S4" si="0">SUM(E4:E31)/28</f>
+        <v>0.45145000000000007</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:S4" si="0">SUM(F4:F31)/26</f>
-        <v>0.46252692307692311</v>
+        <f t="shared" si="0"/>
+        <v>0.42948928571428574</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.45505769230769222</v>
+        <v>0.42255357142857136</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.45068461538461541</v>
+        <v>0.41849285714285717</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.44383461538461538</v>
+        <v>0.41213214285714284</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.43356923076923071</v>
+        <v>0.40259999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -28610,28 +32327,28 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f>SUM(E32:E59)/26</f>
-        <v>0.52463846153846161</v>
+        <f t="shared" ref="N5:S5" si="1">SUM(E32:E59)/28</f>
+        <v>0.48716428571428577</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:S5" si="1">SUM(F32:F59)/26</f>
-        <v>0.50157307692307695</v>
+        <f t="shared" si="1"/>
+        <v>0.46574642857142862</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.46596153846153859</v>
+        <v>0.43267857142857158</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.46252692307692317</v>
+        <v>0.4294892857142858</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.46076923076923071</v>
+        <v>0.42785714285714282</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.47240769230769231</v>
+        <v>0.43866428571428573</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -28660,28 +32377,28 @@
         <v>41</v>
       </c>
       <c r="N6">
-        <f>SUM(E60:E87)/26</f>
-        <v>0.66034999999999999</v>
+        <f t="shared" ref="N6:S6" si="2">SUM(E60:E87)/28</f>
+        <v>0.6131821428571429</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:S6" si="2">SUM(F60:F87)/26</f>
-        <v>0.63752307692307697</v>
+        <f t="shared" si="2"/>
+        <v>0.59198571428571434</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.61871538461538467</v>
+        <v>0.57452142857142863</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.59968846153846134</v>
+        <v>0.55685357142857128</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.59393461538461534</v>
+        <v>0.5515107142857143</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>0.58634230769230777</v>
+        <v>0.54446071428571441</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -28706,6 +32423,33 @@
       <c r="J7">
         <v>0.30980000000000008</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f>SUM(D88:D115)/26</f>
+        <v>0.83748076923076931</v>
+      </c>
+      <c r="N7">
+        <f>SUM(E88:E115)/28</f>
+        <v>0.77216428571428553</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F88:F115)/28</f>
+        <v>0.77486071428571424</v>
+      </c>
+      <c r="P7">
+        <f>SUM(G88:G115)/28</f>
+        <v>0.77542857142857147</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(H88:H115)/28</f>
+        <v>0.77612142857142874</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I88:I115)/28</f>
+        <v>0.77040357142857141</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -28733,28 +32477,28 @@
         <v>43</v>
       </c>
       <c r="N8">
-        <f>SUM(E116:E143)/26</f>
-        <v>0.47559615384615395</v>
+        <f t="shared" ref="N8:S8" si="3">SUM(E116:E143)/28</f>
+        <v>0.4416250000000001</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:S8" si="3">SUM(F116:F143)/26</f>
-        <v>0.47668461538461548</v>
+        <f t="shared" si="3"/>
+        <v>0.44263571428571435</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0.48479615384615382</v>
+        <v>0.45016785714285712</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.46531538461538458</v>
+        <v>0.43207857142857137</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0.45803846153846156</v>
+        <v>0.42532142857142857</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0.44947692307692311</v>
+        <v>0.41737142857142862</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -28783,28 +32527,28 @@
         <v>38</v>
       </c>
       <c r="N9">
-        <f>SUM(E144:E171)/26</f>
-        <v>0.24138846153846158</v>
+        <f t="shared" ref="N9:S9" si="4">SUM(E144:E171)/28</f>
+        <v>0.22414642857142861</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="4">SUM(F144:F171)/26</f>
-        <v>0.24580384615384626</v>
+        <f t="shared" si="4"/>
+        <v>0.22824642857142868</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.2376576923076924</v>
+        <v>0.22068214285714297</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.23021538461538466</v>
+        <v>0.21377142857142858</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>0.23592692307692315</v>
+        <v>0.21907500000000008</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0.21142307692307696</v>
+        <v>0.19632142857142859</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -28833,28 +32577,28 @@
         <v>46</v>
       </c>
       <c r="N10">
-        <f>SUM(E172:E199)/26</f>
-        <v>0.61001923076923081</v>
+        <f t="shared" ref="N10:S10" si="5">SUM(E172:E199)/28</f>
+        <v>0.56644642857142868</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="5">SUM(F172:F199)/26</f>
-        <v>0.6123884615384616</v>
+        <f t="shared" si="5"/>
+        <v>0.56864642857142855</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.60426923076923078</v>
+        <v>0.56110714285714292</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>0.60457307692307694</v>
+        <v>0.56138928571428581</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>0.6031192307692308</v>
+        <v>0.56003928571428574</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>0.60151538461538467</v>
+        <v>0.55854999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -28883,28 +32627,28 @@
         <v>44</v>
       </c>
       <c r="N11">
-        <f>SUM(E200:E227)/26</f>
-        <v>0.57739230769230765</v>
+        <f t="shared" ref="N11:S11" si="6">SUM(E200:E227)/28</f>
+        <v>0.53615000000000002</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:S11" si="6">SUM(F200:F227)/26</f>
-        <v>0.43731153846153836</v>
+        <f t="shared" si="6"/>
+        <v>0.40607499999999991</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>0.37698846153846155</v>
+        <v>0.35006071428571428</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.36465000000000003</v>
+        <v>0.33860357142857145</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.35115769230769228</v>
+        <v>0.32607499999999995</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.3307461538461538</v>
+        <v>0.30712142857142855</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -28933,28 +32677,28 @@
         <v>45</v>
       </c>
       <c r="N12">
-        <f>SUM(E228:E255)/26</f>
-        <v>0.59603846153846152</v>
+        <f t="shared" ref="N12:S12" si="7">SUM(E228:E255)/28</f>
+        <v>0.55346428571428574</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:S12" si="7">SUM(F228:F255)/26</f>
-        <v>0.5770192307692309</v>
+        <f t="shared" si="7"/>
+        <v>0.53580357142857149</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.56802307692307685</v>
+        <v>0.52744999999999997</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0.55781923076923079</v>
+        <v>0.51797500000000007</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.48089615384615392</v>
+        <v>0.44654642857142862</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>0.46807307692307687</v>
+        <v>0.43463928571428567</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -28983,28 +32727,28 @@
         <v>47</v>
       </c>
       <c r="N13">
-        <f>SUM(E256:E283)/26</f>
-        <v>0.25800000000000001</v>
+        <f t="shared" ref="N13:S13" si="8">SUM(E256:E283)/28</f>
+        <v>0.23957142857142857</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="8">SUM(F256:F283)/26</f>
-        <v>0.25986153846153848</v>
+        <f t="shared" si="8"/>
+        <v>0.24130000000000004</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>0.25992307692307692</v>
+        <v>0.24135714285714285</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
-        <v>0.2621230769230769</v>
+        <v>0.24340000000000001</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>0.2628307692307692</v>
+        <v>0.24405714285714283</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>0.26436153846153843</v>
+        <v>0.24547857142857138</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -30750,140 +34494,644 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I88">
+        <v>0.79149999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="D89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F89">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="G89">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="H89">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="I89">
+        <v>0.72639999999999993</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="D90">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="F90">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I90">
+        <v>0.73039999999999994</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="D91">
+        <v>0.73469999999999991</v>
+      </c>
+      <c r="E91">
+        <v>0.73520000000000008</v>
+      </c>
+      <c r="F91">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="H91">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I91">
+        <v>0.72439999999999993</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="D92">
+        <v>0.73330000000000006</v>
+      </c>
+      <c r="E92">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F92">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G92">
+        <v>0.7379</v>
+      </c>
+      <c r="H92">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I92">
+        <v>0.7268</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="D93">
+        <v>0.76079999999999992</v>
+      </c>
+      <c r="E93">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="F93">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="G93">
+        <v>0.7702</v>
+      </c>
+      <c r="H93">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="I93">
+        <v>0.76079999999999992</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="D94">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E94">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="F94">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G94">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="H94">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="I94">
+        <v>0.79720000000000002</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="D95">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="E95">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F95">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="G95">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="H95">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="I95">
+        <v>0.76870000000000005</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F96">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="G96">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="H96">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="I96">
+        <v>0.78190000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E97">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="F97">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.74140000000000006</v>
+      </c>
+      <c r="H97">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I97">
+        <v>0.73449999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E98">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F98">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H98">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I98">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E99">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F99">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H99">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I99">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="E101">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="F101">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="G101">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="H101">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="I101">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.7429</v>
+      </c>
+      <c r="E103">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="H103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I103">
+        <v>0.7359</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E105">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="F105">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="G105">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="I105">
+        <v>0.75149999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="E106">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="F106">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G106">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="H106">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="I106">
+        <v>0.81210000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="E107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="F107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I107">
+        <v>0.75719999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="E109">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="F109">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="G109">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="H109">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I109">
+        <v>0.77849999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E110">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.79989999999999994</v>
+      </c>
+      <c r="G110">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="H110">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I110">
+        <v>0.77350000000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="E111">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="F111">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="G111">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H111">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.78810000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="D112">
+        <v>0.7319</v>
+      </c>
+      <c r="E112">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F112">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="G112">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="H112">
+        <v>0.745</v>
+      </c>
+      <c r="I112">
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E113">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="F113">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="G113">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="H113">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="I113">
+        <v>0.76390000000000002</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E114">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F114">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="G114">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="H114">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="I114">
+        <v>0.79889999999999994</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
+      </c>
+      <c r="D115">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="E115">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="F115">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="G115">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="H115">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="I115">
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -34801,12 +39049,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34819,7 +39067,7 @@
         <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -34907,28 +39155,28 @@
         <v>37</v>
       </c>
       <c r="N4">
-        <f>SUM(E4:E31)/26</f>
-        <v>0.4832153846153846</v>
+        <f t="shared" ref="N4:S4" si="0">SUM(E4:E31)/28</f>
+        <v>0.44869999999999999</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:S4" si="0">SUM(F4:F31)/26</f>
-        <v>0.46278461538461541</v>
+        <f t="shared" si="0"/>
+        <v>0.42972857142857146</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.45376923076923076</v>
+        <v>0.42135714285714287</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.45110769230769221</v>
+        <v>0.41888571428571419</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.4459499999999999</v>
+        <v>0.41409642857142848</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.43363076923076932</v>
+        <v>0.40265714285714294</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -34957,28 +39205,28 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f>SUM(E32:E59)/26</f>
-        <v>0.52163076923076934</v>
+        <f t="shared" ref="N5:S5" si="1">SUM(E32:E59)/28</f>
+        <v>0.48437142857142862</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:S5" si="1">SUM(F32:F59)/26</f>
-        <v>0.50570384615384611</v>
+        <f t="shared" si="1"/>
+        <v>0.46958214285714284</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.46696153846153854</v>
+        <v>0.43360714285714291</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.46601153846153842</v>
+        <v>0.43272499999999997</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.46206923076923068</v>
+        <v>0.42906428571428562</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.46432307692307695</v>
+        <v>0.43115714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -35007,28 +39255,28 @@
         <v>41</v>
       </c>
       <c r="N6">
-        <f>SUM(E60:E87)/26</f>
-        <v>0.66079615384615376</v>
+        <f t="shared" ref="N6:S6" si="2">SUM(E60:E87)/28</f>
+        <v>0.61359642857142849</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:S6" si="2">SUM(F60:F87)/26</f>
-        <v>0.63297307692307681</v>
+        <f t="shared" si="2"/>
+        <v>0.58776071428571419</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.61868461538461539</v>
+        <v>0.57449285714285714</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.60307307692307688</v>
+        <v>0.55999642857142851</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.58926538461538469</v>
+        <v>0.54717500000000008</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>0.58962692307692299</v>
+        <v>0.54751071428571418</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -35053,6 +39301,37 @@
       <c r="J7">
         <v>0.30980000000000008</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f>SUM(D88:D115)/100</f>
+        <v>0.21772399999999997</v>
+      </c>
+      <c r="N7">
+        <f>SUM(E88:E115)/28</f>
+        <v>0.77188214285714285</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F88:F115)/28</f>
+        <v>0.77486071428571424</v>
+      </c>
+      <c r="P7">
+        <f>SUM(G88:G115)/28</f>
+        <v>0.77576428571428557</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(H88:H115)/28</f>
+        <v>0.77641071428571418</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I88:I116)/28</f>
+        <v>0.78636428571428552</v>
+      </c>
+      <c r="S7">
+        <f>SUM(J88:J115)/28</f>
+        <v>0.77220714285714287</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -35084,28 +39363,28 @@
         <v>0.52070769230769232</v>
       </c>
       <c r="N8">
-        <f>SUM(E116:E143)/26</f>
-        <v>0.4756653846153846</v>
+        <f t="shared" ref="N8:S8" si="3">SUM(E116:E143)/28</f>
+        <v>0.44168928571428573</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:S8" si="3">SUM(F116:F143)/26</f>
-        <v>0.48133461538461536</v>
+        <f t="shared" si="3"/>
+        <v>0.44695357142857139</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0.49399230769230762</v>
+        <v>0.45870714285714281</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.65528076923076906</v>
+        <v>0.60847499999999977</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0.44780000000000009</v>
+        <v>0.4158142857142858</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0.44181923076923096</v>
+        <v>0.41026071428571448</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -35134,28 +39413,28 @@
         <v>38</v>
       </c>
       <c r="N9">
-        <f>SUM(E144:E171)/26</f>
-        <v>0.2582846153846155</v>
+        <f t="shared" ref="N9:S9" si="4">SUM(E144:E171)/28</f>
+        <v>0.2398357142857144</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="4">SUM(F144:F171)/26</f>
-        <v>0.23890384615384624</v>
+        <f t="shared" si="4"/>
+        <v>0.22183928571428582</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.24838846153846164</v>
+        <v>0.23064642857142867</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.2433000000000001</v>
+        <v>0.22592142857142866</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>0.23533846153846169</v>
+        <v>0.21852857142857157</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0.24533076923076924</v>
+        <v>0.22780714285714287</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -35188,28 +39467,28 @@
         <v>0.62097692307692332</v>
       </c>
       <c r="N10">
-        <f>SUM(E172:E199)/26</f>
-        <v>0.61303461538461534</v>
+        <f t="shared" ref="N10:S10" si="5">SUM(E172:E199)/28</f>
+        <v>0.5692464285714286</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="5">SUM(F172:F199)/26</f>
-        <v>0.61240769230769243</v>
+        <f t="shared" si="5"/>
+        <v>0.56866428571428584</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.6053384615384616</v>
+        <v>0.56210000000000016</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>0.60467307692307692</v>
+        <v>0.56148214285714293</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>0.60270000000000001</v>
+        <v>0.55965000000000009</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>0.60306153846153854</v>
+        <v>0.55998571428571442</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -35242,28 +39521,28 @@
         <v>0.76070000000000004</v>
       </c>
       <c r="N11">
-        <f>SUM(E200:E227)/26</f>
-        <v>0.57670769230769225</v>
+        <f t="shared" ref="N11:S11" si="6">SUM(E200:E227)/28</f>
+        <v>0.53551428571428572</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:S11" si="6">SUM(F200:F227)/26</f>
-        <v>0.43741538461538459</v>
+        <f t="shared" si="6"/>
+        <v>0.40617142857142857</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>0.37684615384615383</v>
+        <v>0.34992857142857142</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.36455384615384612</v>
+        <v>0.33851428571428566</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.35098846153846164</v>
+        <v>0.3259178571428572</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.33041538461538467</v>
+        <v>0.30681428571428576</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -35296,28 +39575,28 @@
         <v>0.67190384615384613</v>
       </c>
       <c r="N12">
-        <f>SUM(E228:E255)/26</f>
-        <v>0.59513846153846151</v>
+        <f t="shared" ref="N12:S12" si="7">SUM(E228:E255)/28</f>
+        <v>0.55262857142857136</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:S12" si="7">SUM(F228:F255)/26</f>
-        <v>0.57720384615384634</v>
+        <f t="shared" si="7"/>
+        <v>0.5359750000000002</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.5654807692307694</v>
+        <v>0.52508928571428581</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0.55677307692307698</v>
+        <v>0.51700357142857156</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.48315769230769229</v>
+        <v>0.44864642857142856</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>0.46912692307692311</v>
+        <v>0.43561785714285717</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -35350,28 +39629,28 @@
         <v>0.46210769230769244</v>
       </c>
       <c r="N13">
-        <f>SUM(E256:E283)/26</f>
-        <v>0.25878461538461539</v>
+        <f t="shared" ref="N13:S13" si="8">SUM(E256:E283)/28</f>
+        <v>0.24029999999999999</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="8">SUM(F256:F283)/26</f>
-        <v>0.26009999999999994</v>
+        <f t="shared" si="8"/>
+        <v>0.24152142857142853</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>0.26102307692307691</v>
+        <v>0.24237857142857142</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
-        <v>0.26156923076923078</v>
+        <v>0.24288571428571429</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>0.26299230769230769</v>
+        <v>0.24420714285714284</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>0.26387692307692306</v>
+        <v>0.24502857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -37089,140 +41368,728 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
+      <c r="D88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I88">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="J88">
+        <v>0.79149999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="D89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F89">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="G89">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="H89">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="I89">
+        <v>0.72639999999999993</v>
+      </c>
+      <c r="J89">
+        <v>0.72660000000000002</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="D90">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="F90">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="H90">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="I90">
+        <v>0.72710000000000008</v>
+      </c>
+      <c r="J90">
+        <v>0.73280000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="D91">
+        <v>0.73469999999999991</v>
+      </c>
+      <c r="E91">
+        <v>0.73520000000000008</v>
+      </c>
+      <c r="F91">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="H91">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I91">
+        <v>0.72439999999999993</v>
+      </c>
+      <c r="J91">
+        <v>0.7288</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>11</v>
       </c>
+      <c r="D92">
+        <v>0.73330000000000006</v>
+      </c>
+      <c r="E92">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F92">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G92">
+        <v>0.7379</v>
+      </c>
+      <c r="H92">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I92">
+        <v>0.7268</v>
+      </c>
+      <c r="J92">
+        <v>0.72989999999999999</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="D93">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="E93">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="F93">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="G93">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="H93">
+        <v>0.7671</v>
+      </c>
+      <c r="I93">
+        <v>0.7601</v>
+      </c>
+      <c r="J93">
+        <v>0.75990000000000002</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
+      <c r="D94">
+        <v>0.83410000000000006</v>
+      </c>
+      <c r="E94">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="F94">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G94">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="H94">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="I94">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="J94">
+        <v>0.80079999999999996</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="D95">
+        <v>0.74649999999999994</v>
+      </c>
+      <c r="E95">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F95">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="G95">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="H95">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="I95">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="J95">
+        <v>0.7802</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F96">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="G96">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="H96">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="I96">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="J96">
+        <v>0.78359999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E97">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="F97">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.74140000000000006</v>
+      </c>
+      <c r="H97">
+        <v>0.73859999999999992</v>
+      </c>
+      <c r="I97">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="J97">
+        <v>0.73809999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E98">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F98">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H98">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I98">
+        <v>0.7661</v>
+      </c>
+      <c r="J98">
+        <v>0.7671</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E99">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="F99">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="H99">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="I99">
+        <v>0.7661</v>
+      </c>
+      <c r="J99">
+        <v>0.7671</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="G100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="J100">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.77760000000000007</v>
+      </c>
+      <c r="E101">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="F101">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="G101">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="H101">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="I101">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="J101">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.7429</v>
+      </c>
+      <c r="E103">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="G103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="H103">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="I103">
+        <v>0.7359</v>
+      </c>
+      <c r="J103">
+        <v>0.7359</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.74740000000000006</v>
+      </c>
+      <c r="E105">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="F105">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="G105">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.74340000000000006</v>
+      </c>
+      <c r="I105">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="J105">
+        <v>0.74719999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0.82120000000000004</v>
+      </c>
+      <c r="F106">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G106">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="H106">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.8125</v>
+      </c>
+      <c r="J106">
+        <v>0.81159999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.74930000000000008</v>
+      </c>
+      <c r="E107">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="F107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="I107">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="J107">
+        <v>0.75560000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="E109">
+        <v>0.78</v>
+      </c>
+      <c r="F109">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="G109">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="H109">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="I109">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="J109">
+        <v>0.79170000000000007</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.83410000000000006</v>
+      </c>
+      <c r="E110">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F110">
+        <v>0.79989999999999994</v>
+      </c>
+      <c r="G110">
+        <v>0.80320000000000003</v>
+      </c>
+      <c r="H110">
+        <v>0.7984</v>
+      </c>
+      <c r="I110">
+        <v>0.77489999999999992</v>
+      </c>
+      <c r="J110">
+        <v>0.7802</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="E111">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F111">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="G111">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="H111">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="I111">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="J111">
+        <v>0.79679999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
+      </c>
+      <c r="D112">
+        <v>0.7319</v>
+      </c>
+      <c r="E112">
+        <v>0.73449999999999993</v>
+      </c>
+      <c r="F112">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="G112">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="H112">
+        <v>0.745</v>
+      </c>
+      <c r="I112">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J112">
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E113">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="F113">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="G113">
+        <v>0.78289999999999993</v>
+      </c>
+      <c r="H113">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="I113">
+        <v>0.76269999999999993</v>
+      </c>
+      <c r="J113">
+        <v>0.77160000000000006</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>0.83410000000000006</v>
+      </c>
+      <c r="E114">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F114">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="G114">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="H114">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="I114">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="J114">
+        <v>0.80059999999999998</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>34</v>
+      </c>
+      <c r="D115">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="E115">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="F115">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="G115">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="H115">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="I115">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="J115">
+        <v>0.74670000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -41532,12 +46399,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41638,28 +46505,28 @@
         <v>37</v>
       </c>
       <c r="N4">
-        <f>SUM(E4:E31)/26</f>
-        <v>0.57746923076923073</v>
+        <f t="shared" ref="N4:S4" si="0">SUM(E4:E31)/28</f>
+        <v>0.53622142857142852</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:S4" si="0">SUM(F4:F31)/26</f>
-        <v>0.52463846153846161</v>
+        <f t="shared" si="0"/>
+        <v>0.48716428571428583</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.52524230769230773</v>
+        <v>0.48772500000000002</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.52235384615384628</v>
+        <v>0.48504285714285722</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.52311923076923095</v>
+        <v>0.48575357142857156</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.5238846153846155</v>
+        <v>0.48646428571428585</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -41688,32 +46555,32 @@
         <v>40</v>
       </c>
       <c r="M5">
-        <f>SUM(D32:D59)/26</f>
-        <v>0.65613076923076918</v>
+        <f t="shared" ref="M5:S5" si="1">SUM(D32:D59)/28</f>
+        <v>0.6092642857142857</v>
       </c>
       <c r="N5">
-        <f>SUM(E32:E59)/26</f>
-        <v>0.65929230769230773</v>
+        <f t="shared" si="1"/>
+        <v>0.61219999999999997</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:S5" si="1">SUM(F32:F59)/26</f>
-        <v>0.66069615384615388</v>
+        <f t="shared" si="1"/>
+        <v>0.61350357142857148</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>0.61285714285714288</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.65506153846153847</v>
+        <v>0.60827142857142857</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.65169615384615376</v>
+        <v>0.60514642857142853</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.64406538461538454</v>
+        <v>0.59806071428571428</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -41742,32 +46609,32 @@
         <v>41</v>
       </c>
       <c r="M6">
-        <f>SUM(D60:D87)/26</f>
-        <v>0.78028076923076917</v>
+        <f>SUM(D60:D87)/28</f>
+        <v>0.72454642857142848</v>
       </c>
       <c r="N6">
-        <f>SUM(E60:E87)/26</f>
-        <v>0.75836153846153853</v>
+        <f>SUM(E60:E87)/28</f>
+        <v>0.70419285714285718</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:S6" si="2">SUM(F60:F87)/26</f>
+        <f t="shared" ref="O6" si="2">SUM(F60:F87)/26</f>
         <v>0.75763461538461563</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>0.74877692307692323</v>
+        <f>SUM(G60:G87)/28</f>
+        <v>0.69529285714285727</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>0.74820384615384627</v>
+        <f>SUM(H60:H87)/28</f>
+        <v>0.6947607142857144</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
-        <v>0.74640384615384625</v>
+        <f>SUM(I60:I87)/28</f>
+        <v>0.69308928571428574</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
-        <v>0.74647307692307707</v>
+        <f>SUM(J60:J87)/28</f>
+        <v>0.69315357142857159</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -41792,6 +46659,37 @@
       <c r="J7">
         <v>0.45579999999999998</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <f>SUM(D88:D115)/28</f>
+        <v>0.81485000000000041</v>
+      </c>
+      <c r="N7">
+        <f>SUM(E88:E115)/28</f>
+        <v>0.80899285714285696</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F88:F115)/28</f>
+        <v>0.79236071428571442</v>
+      </c>
+      <c r="P7">
+        <f>SUM(G88:G115)/28</f>
+        <v>0.79065714285714306</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(H88:H116)/28</f>
+        <v>0.81240357142857156</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I88:I115)/28</f>
+        <v>0.78897857142857142</v>
+      </c>
+      <c r="S7">
+        <f>SUM(J88:J115)/28</f>
+        <v>0.78786428571428568</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -41819,32 +46717,32 @@
         <v>43</v>
       </c>
       <c r="M8">
-        <f>SUM(D116:D143)/26</f>
-        <v>0.66921538461538455</v>
+        <f t="shared" ref="M8:S8" si="3">SUM(D116:D143)/28</f>
+        <v>0.6214142857142857</v>
       </c>
       <c r="N8">
-        <f>SUM(E116:E143)/26</f>
-        <v>0.66921538461538455</v>
+        <f t="shared" si="3"/>
+        <v>0.6214142857142857</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:S8" si="3">SUM(F116:F143)/26</f>
-        <v>0.66921538461538455</v>
+        <f t="shared" si="3"/>
+        <v>0.6214142857142857</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>0.66921538461538455</v>
+        <v>0.6214142857142857</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.65528076923076906</v>
+        <v>0.60847499999999977</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0.66921538461538455</v>
+        <v>0.6214142857142857</v>
       </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0.66921538461538455</v>
+        <v>0.6214142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -41873,32 +46771,32 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <f>SUM(D144:D171)/26</f>
-        <v>0.32286153846153864</v>
+        <f t="shared" ref="M9:S9" si="4">SUM(D144:D171)/28</f>
+        <v>0.29980000000000018</v>
       </c>
       <c r="N9">
-        <f>SUM(E144:E171)/26</f>
-        <v>0.32286153846153864</v>
+        <f t="shared" si="4"/>
+        <v>0.29980000000000018</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="4">SUM(F144:F171)/26</f>
-        <v>0.32296923076923095</v>
+        <f t="shared" si="4"/>
+        <v>0.29990000000000017</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.32434615384615406</v>
+        <v>0.30117857142857163</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.32423846153846164</v>
+        <v>0.30107857142857153</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>0.2812384615384616</v>
+        <v>0.26115000000000005</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0.32356923076923094</v>
+        <v>0.30045714285714303</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -41927,32 +46825,32 @@
         <v>46</v>
       </c>
       <c r="M10">
-        <f>SUM(D172:D199)/26</f>
-        <v>0.6112653846153846</v>
+        <f t="shared" ref="M10:S10" si="5">SUM(D172:D199)/28</f>
+        <v>0.56760357142857143</v>
       </c>
       <c r="N10">
-        <f>SUM(E172:E199)/26</f>
-        <v>0.60582307692307702</v>
+        <f t="shared" si="5"/>
+        <v>0.56255000000000011</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="5">SUM(F172:F199)/26</f>
-        <v>0.60363076923076942</v>
+        <f t="shared" si="5"/>
+        <v>0.56051428571428585</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.60081538461538464</v>
+        <v>0.55789999999999995</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>0.60476153846153846</v>
+        <v>0.56156428571428574</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>0.60590769230769237</v>
+        <v>0.56262857142857148</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>0.60281538461538464</v>
+        <v>0.55975714285714284</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -41981,32 +46879,32 @@
         <v>44</v>
       </c>
       <c r="M11">
-        <f>SUM(D200:D227)/26</f>
-        <v>0.90199999999999991</v>
+        <f t="shared" ref="M11:S11" si="6">SUM(D200:D227)/28</f>
+        <v>0.83757142857142852</v>
       </c>
       <c r="N11">
-        <f>SUM(E200:E227)/26</f>
-        <v>0.86903846153846154</v>
+        <f t="shared" si="6"/>
+        <v>0.80696428571428569</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:S11" si="6">SUM(F200:F227)/26</f>
-        <v>0.86126153846153841</v>
+        <f t="shared" si="6"/>
+        <v>0.79974285714285709</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>0.85854230769230755</v>
+        <v>0.79721785714285698</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.81323846153846158</v>
+        <v>0.7551500000000001</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.81142692307692321</v>
+        <v>0.75346785714285736</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>0.81044615384615404</v>
+        <v>0.75255714285714304</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -42035,32 +46933,32 @@
         <v>45</v>
       </c>
       <c r="M12">
-        <f>SUM(D228:D255)/26</f>
-        <v>0.72341923076923098</v>
+        <f t="shared" ref="M12:S12" si="7">SUM(D228:D255)/28</f>
+        <v>0.67174642857142874</v>
       </c>
       <c r="N12">
-        <f>SUM(E228:E255)/26</f>
-        <v>0.64645769230769246</v>
+        <f t="shared" si="7"/>
+        <v>0.60028214285714299</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:S12" si="7">SUM(F228:F255)/26</f>
-        <v>0.63303846153846166</v>
+        <f t="shared" si="7"/>
+        <v>0.58782142857142872</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.62417692307692318</v>
+        <v>0.57959285714285724</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0.61841538461538481</v>
+        <v>0.57424285714285728</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.60456153846153848</v>
+        <v>0.56137857142857139</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>0.56486538461538471</v>
+        <v>0.52451785714285726</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -42089,32 +46987,32 @@
         <v>47</v>
       </c>
       <c r="M13">
-        <f>SUM(D256:D283)/26</f>
-        <v>0.6116307692307692</v>
+        <f t="shared" ref="M13:S13" si="8">SUM(D256:D283)/28</f>
+        <v>0.56794285714285708</v>
       </c>
       <c r="N13">
-        <f>SUM(E256:E283)/20</f>
-        <v>0.75070999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.53622142857142852</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="8">SUM(F256:F283)/20</f>
-        <v>0.73825000000000007</v>
+        <f t="shared" si="8"/>
+        <v>0.52732142857142861</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>0.72536</v>
+        <v>0.51811428571428575</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
-        <v>0.70573000000000019</v>
+        <v>0.50409285714285723</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>0.69567000000000001</v>
+        <v>0.49690714285714288</v>
       </c>
       <c r="S13">
         <f t="shared" si="8"/>
-        <v>0.69310999999999989</v>
+        <v>0.49507857142857137</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -44003,6 +48901,24 @@
       <c r="D88">
         <v>0.80579999999999996</v>
       </c>
+      <c r="E88">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="F88">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="G88">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="H88">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="I88">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="J88">
+        <v>0.79699999999999993</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
@@ -44011,6 +48927,24 @@
       <c r="D89">
         <v>0.78790000000000004</v>
       </c>
+      <c r="E89">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="F89">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="G89">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="H89">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="I89">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.75460000000000005</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
@@ -44019,6 +48953,24 @@
       <c r="D90">
         <v>0.80010000000000003</v>
       </c>
+      <c r="E90">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="F90">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="G90">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="H90">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="I90">
+        <v>0.7591</v>
+      </c>
+      <c r="J90">
+        <v>0.75290000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -44027,6 +48979,24 @@
       <c r="D91">
         <v>0.79989999999999994</v>
       </c>
+      <c r="E91">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="F91">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="H91">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="I91">
+        <v>0.74980000000000002</v>
+      </c>
+      <c r="J91">
+        <v>0.75409999999999999</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
@@ -44035,6 +49005,24 @@
       <c r="D92">
         <v>0.79790000000000005</v>
       </c>
+      <c r="E92">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="G92">
+        <v>0.7671</v>
+      </c>
+      <c r="H92">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="I92">
+        <v>0.751</v>
+      </c>
+      <c r="J92">
+        <v>0.751</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
@@ -44043,6 +49031,24 @@
       <c r="D93">
         <v>0.79239999999999999</v>
       </c>
+      <c r="E93">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="F93">
+        <v>0.77350000000000008</v>
+      </c>
+      <c r="G93">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="H93">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="I93">
+        <v>0.751</v>
+      </c>
+      <c r="J93">
+        <v>0.75940000000000007</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
@@ -44051,6 +49057,24 @@
       <c r="D94">
         <v>0.86230000000000007</v>
       </c>
+      <c r="E94">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="F94">
+        <v>0.82600000000000007</v>
+      </c>
+      <c r="G94">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="H94">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="I94">
+        <v>0.82190000000000007</v>
+      </c>
+      <c r="J94">
+        <v>0.81830000000000003</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
@@ -44059,6 +49083,24 @@
       <c r="D95">
         <v>0.79079999999999995</v>
       </c>
+      <c r="E95">
+        <v>0.78</v>
+      </c>
+      <c r="F95">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="G95">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="H95">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I95">
+        <v>0.76350000000000007</v>
+      </c>
+      <c r="J95">
+        <v>0.76229999999999998</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
@@ -44067,133 +49109,439 @@
       <c r="D96">
         <v>0.79820000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="F96">
+        <v>0.77570000000000006</v>
+      </c>
+      <c r="G96">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="H96">
+        <v>0.7671</v>
+      </c>
+      <c r="I96">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J96">
+        <v>0.75480000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="D97">
         <v>0.79479999999999995</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>0.79889999999999994</v>
+      </c>
+      <c r="F97">
+        <v>0.77350000000000008</v>
+      </c>
+      <c r="G97">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="H97">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="I97">
+        <v>0.75940000000000007</v>
+      </c>
+      <c r="J97">
+        <v>0.76629999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>17</v>
       </c>
       <c r="D98">
         <v>0.78549999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="F98">
+        <v>0.79289999999999994</v>
+      </c>
+      <c r="G98">
+        <v>0.81109999999999993</v>
+      </c>
+      <c r="H98">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="I98">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="J98">
+        <v>0.82830000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>18</v>
       </c>
       <c r="D99">
         <v>0.78549999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="F99">
+        <v>0.79289999999999994</v>
+      </c>
+      <c r="G99">
+        <v>0.81109999999999993</v>
+      </c>
+      <c r="H99">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="I99">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="J99">
+        <v>0.82830000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>19</v>
       </c>
       <c r="D100">
         <v>0.80579999999999996</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="F100">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="G100">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="H100">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="I100">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="J100">
+        <v>0.79699999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="D101">
         <v>0.82909999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>0.7984</v>
+      </c>
+      <c r="F101">
+        <v>0.78170000000000006</v>
+      </c>
+      <c r="G101">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H101">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="I101">
+        <v>0.7752</v>
+      </c>
+      <c r="J101">
+        <v>0.77139999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>21</v>
       </c>
       <c r="D102">
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J102">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="D103">
         <v>0.79269999999999996</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="F103">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="G103">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="H103">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="I103">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="J103">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>23</v>
       </c>
       <c r="D104">
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I104">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J104">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>24</v>
       </c>
       <c r="D105">
         <v>0.79530000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="F105">
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="G105">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="H105">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="I105">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="J105">
+        <v>0.74360000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>25</v>
       </c>
       <c r="D106">
         <v>0.83460000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="F106">
+        <v>0.82190000000000007</v>
+      </c>
+      <c r="G106">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="H106">
+        <v>0.82190000000000007</v>
+      </c>
+      <c r="I106">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="J106">
+        <v>0.82020000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>26</v>
       </c>
       <c r="D107">
         <v>0.81369999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="F107">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="G107">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="H107">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="I107">
+        <v>0.79699999999999993</v>
+      </c>
+      <c r="J107">
+        <v>0.79699999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>27</v>
       </c>
       <c r="D108">
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I108">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J108">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
       <c r="D109">
         <v>0.83260000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0.8054</v>
+      </c>
+      <c r="F109">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G109">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="H109">
+        <v>0.8054</v>
+      </c>
+      <c r="I109">
+        <v>0.8044</v>
+      </c>
+      <c r="J109">
+        <v>0.79889999999999994</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>29</v>
       </c>
       <c r="D110">
         <v>0.86209999999999998</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0.83</v>
+      </c>
+      <c r="F110">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G110">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="H110">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="I110">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J110">
+        <v>0.81159999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>30</v>
       </c>
       <c r="D111">
         <v>0.82399999999999995</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="F111">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="G111">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="H111">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="I111">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="J111">
+        <v>0.80079999999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>31</v>
       </c>
       <c r="D112">
         <v>0.78810000000000002</v>
+      </c>
+      <c r="E112">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="F112">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="G112">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="H112">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="I112">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="J112">
+        <v>0.74049999999999994</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -44203,6 +49551,24 @@
       <c r="D113">
         <v>0.86209999999999998</v>
       </c>
+      <c r="E113">
+        <v>0.8276</v>
+      </c>
+      <c r="F113">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="G113">
+        <v>0.81489999999999996</v>
+      </c>
+      <c r="H113">
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="I113">
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="J113">
+        <v>0.80390000000000006</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
@@ -44211,6 +49577,24 @@
       <c r="D114">
         <v>0.86209999999999998</v>
       </c>
+      <c r="E114">
+        <v>0.83</v>
+      </c>
+      <c r="F114">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="G114">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="H114">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="I114">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="J114">
+        <v>0.82950000000000002</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
@@ -44218,6 +49602,24 @@
       </c>
       <c r="D115">
         <v>0.8075</v>
+      </c>
+      <c r="E115">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="F115">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="G115">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="H115">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="I115">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="J115">
+        <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
